--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$221</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$222</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$230</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$222</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$223</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$231</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="460">
   <si>
     <t>date</t>
   </si>
@@ -1409,6 +1409,12 @@
   </si>
   <si>
     <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
   </si>
 </sst>
 </file>
@@ -2009,9 +2015,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$222</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$223</c:f>
               <c:strCache>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2674,16 +2680,19 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$222</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$223</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3346,6 +3355,9 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>14277</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>14396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73166208"/>
-        <c:axId val="74843264"/>
+        <c:axId val="79068544"/>
+        <c:axId val="79434880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73166208"/>
+        <c:axId val="79068544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74843264"/>
+        <c:crossAx val="79434880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3384,7 +3396,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74843264"/>
+        <c:axId val="79434880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,7 +3407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73166208"/>
+        <c:crossAx val="79068544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3483,9 +3495,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$222</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$223</c:f>
               <c:strCache>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4148,16 +4160,19 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$222</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$223</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4820,6 +4835,9 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,11 +4854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74863744"/>
-        <c:axId val="74865280"/>
+        <c:axId val="79451264"/>
+        <c:axId val="79452800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74863744"/>
+        <c:axId val="79451264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4850,7 +4868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74865280"/>
+        <c:crossAx val="79452800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4858,7 +4876,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74865280"/>
+        <c:axId val="79452800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,7 +4887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74863744"/>
+        <c:crossAx val="79451264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4924,9 +4942,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$221</c:f>
+              <c:f>'Case Changes'!$A$2:$A$222</c:f>
               <c:strCache>
-                <c:ptCount val="220"/>
+                <c:ptCount val="221"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5586,16 +5604,19 @@
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$221</c:f>
+              <c:f>'Case Changes'!$C$2:$C$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="220"/>
+                <c:ptCount val="221"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6255,6 +6276,9 @@
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6271,11 +6295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75100160"/>
-        <c:axId val="75101696"/>
+        <c:axId val="79564800"/>
+        <c:axId val="79566336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75100160"/>
+        <c:axId val="79564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,7 +6308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75101696"/>
+        <c:crossAx val="79566336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6292,7 +6316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75101696"/>
+        <c:axId val="79566336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6303,7 +6327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75100160"/>
+        <c:crossAx val="79564800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6355,9 +6379,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$230</c:f>
+              <c:f>State!$A$2:$A$231</c:f>
               <c:strCache>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7044,16 +7068,19 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$230</c:f>
+              <c:f>State!$C$2:$C$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7740,6 +7767,9 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>8533</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>8562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7757,9 +7787,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$230</c:f>
+              <c:f>State!$A$2:$A$231</c:f>
               <c:strCache>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8446,16 +8476,19 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$230</c:f>
+              <c:f>State!$B$2:$B$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9142,6 +9175,9 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>184872</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>186297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9158,11 +9194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75320704"/>
-        <c:axId val="75355264"/>
+        <c:axId val="79946880"/>
+        <c:axId val="79948416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75320704"/>
+        <c:axId val="79946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9172,7 +9208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75355264"/>
+        <c:crossAx val="79948416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9180,7 +9216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75355264"/>
+        <c:axId val="79948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9191,7 +9227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75320704"/>
+        <c:crossAx val="79946880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9385,9 +9421,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C222" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C222"/>
-  <sortState ref="A2:C222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C223" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C223"/>
+  <sortState ref="A2:C223">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9400,9 +9436,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C221" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C221"/>
-  <sortState ref="A2:C221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C222" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C222"/>
+  <sortState ref="A2:C222">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9415,9 +9451,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C230"/>
-  <sortState ref="A2:C230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C231"/>
+  <sortState ref="A2:C231">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9716,7 +9752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O222"/>
+  <dimension ref="A1:O223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12180,6 +12216,17 @@
         <v>406</v>
       </c>
     </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>458</v>
+      </c>
+      <c r="B223">
+        <v>14396</v>
+      </c>
+      <c r="C223">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12192,7 +12239,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14636,6 +14683,17 @@
         <v>103</v>
       </c>
     </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>459</v>
+      </c>
+      <c r="B222">
+        <v>14396</v>
+      </c>
+      <c r="C222">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14647,7 +14705,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17192,6 +17250,17 @@
         <v>8533</v>
       </c>
     </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>459</v>
+      </c>
+      <c r="B231">
+        <v>186297</v>
+      </c>
+      <c r="C231">
+        <v>8562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$222</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$223</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$231</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$223</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$224</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$232</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="462">
   <si>
     <t>date</t>
   </si>
@@ -1415,6 +1415,12 @@
   </si>
   <si>
     <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
   </si>
 </sst>
 </file>
@@ -2015,9 +2021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$223</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$224</c:f>
               <c:strCache>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2683,16 +2689,19 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$223</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3358,6 +3367,9 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>14396</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,11 +3386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79068544"/>
-        <c:axId val="79434880"/>
+        <c:axId val="72514944"/>
+        <c:axId val="72946816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79068544"/>
+        <c:axId val="72514944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79434880"/>
+        <c:crossAx val="72946816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3408,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79434880"/>
+        <c:axId val="72946816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79068544"/>
+        <c:crossAx val="72514944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,9 +3507,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$223</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$224</c:f>
               <c:strCache>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4163,16 +4175,19 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$223</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4838,6 +4853,9 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,11 +4872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79451264"/>
-        <c:axId val="79452800"/>
+        <c:axId val="72971392"/>
+        <c:axId val="72972928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79451264"/>
+        <c:axId val="72971392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +4886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79452800"/>
+        <c:crossAx val="72972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4876,7 +4894,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79452800"/>
+        <c:axId val="72972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,7 +4905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79451264"/>
+        <c:crossAx val="72971392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4942,9 +4960,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$222</c:f>
+              <c:f>'Case Changes'!$A$2:$A$223</c:f>
               <c:strCache>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5607,16 +5625,19 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$222</c:f>
+              <c:f>'Case Changes'!$C$2:$C$223</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="222"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6279,6 +6300,9 @@
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,11 +6319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79564800"/>
-        <c:axId val="79566336"/>
+        <c:axId val="73076736"/>
+        <c:axId val="73078272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79564800"/>
+        <c:axId val="73076736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,7 +6332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79566336"/>
+        <c:crossAx val="73078272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6316,7 +6340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79566336"/>
+        <c:axId val="73078272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6327,7 +6351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79564800"/>
+        <c:crossAx val="73076736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6379,9 +6403,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$231</c:f>
+              <c:f>State!$A$2:$A$232</c:f>
               <c:strCache>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7071,16 +7095,19 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$231</c:f>
+              <c:f>State!$C$2:$C$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7770,6 +7797,9 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>8562</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7787,9 +7817,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$231</c:f>
+              <c:f>State!$A$2:$A$232</c:f>
               <c:strCache>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8479,16 +8509,19 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$231</c:f>
+              <c:f>State!$B$2:$B$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9178,6 +9211,9 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>186297</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>188360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9194,11 +9230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79946880"/>
-        <c:axId val="79948416"/>
+        <c:axId val="73327744"/>
+        <c:axId val="73329280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79946880"/>
+        <c:axId val="73327744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9208,7 +9244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79948416"/>
+        <c:crossAx val="73329280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9216,7 +9252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79948416"/>
+        <c:axId val="73329280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9227,7 +9263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79946880"/>
+        <c:crossAx val="73327744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9421,9 +9457,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C223" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
-  <sortState ref="A2:C223">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C224" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C224"/>
+  <sortState ref="A2:C224">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9436,9 +9472,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C222" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C222"/>
-  <sortState ref="A2:C222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C223" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C223"/>
+  <sortState ref="A2:C223">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9451,9 +9487,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C231"/>
-  <sortState ref="A2:C231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C232"/>
+  <sortState ref="A2:C232">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9752,7 +9788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O223"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12227,6 +12263,17 @@
         <v>416</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>460</v>
+      </c>
+      <c r="B224">
+        <v>14529</v>
+      </c>
+      <c r="C224">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12239,7 +12286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14694,6 +14741,17 @@
         <v>119</v>
       </c>
     </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>461</v>
+      </c>
+      <c r="B223">
+        <v>14529</v>
+      </c>
+      <c r="C223">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14705,7 +14763,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17261,6 +17319,17 @@
         <v>8562</v>
       </c>
     </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>461</v>
+      </c>
+      <c r="B232">
+        <v>188360</v>
+      </c>
+      <c r="C232">
+        <v>8592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$223</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$224</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$232</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$224</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$225</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$233</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="464">
   <si>
     <t>date</t>
   </si>
@@ -1421,6 +1421,12 @@
   </si>
   <si>
     <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
   </si>
 </sst>
 </file>
@@ -2021,9 +2027,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$224</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$225</c:f>
               <c:strCache>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2692,16 +2698,19 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$224</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3370,6 +3379,9 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>14529</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>14687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,11 +3398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72514944"/>
-        <c:axId val="72946816"/>
+        <c:axId val="71339392"/>
+        <c:axId val="71771264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72514944"/>
+        <c:axId val="71339392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72946816"/>
+        <c:crossAx val="71771264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3408,7 +3420,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72946816"/>
+        <c:axId val="71771264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,7 +3431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72514944"/>
+        <c:crossAx val="71339392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3507,9 +3519,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$224</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$225</c:f>
               <c:strCache>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4178,16 +4190,19 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$224</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4856,6 +4871,9 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4872,11 +4890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72971392"/>
-        <c:axId val="72972928"/>
+        <c:axId val="71791744"/>
+        <c:axId val="71793280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72971392"/>
+        <c:axId val="71791744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4886,7 +4904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72972928"/>
+        <c:crossAx val="71793280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4894,7 +4912,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72972928"/>
+        <c:axId val="71793280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4905,7 +4923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72971392"/>
+        <c:crossAx val="71791744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4960,9 +4978,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$223</c:f>
+              <c:f>'Case Changes'!$A$2:$A$224</c:f>
               <c:strCache>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5628,16 +5646,19 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$223</c:f>
+              <c:f>'Case Changes'!$C$2:$C$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6303,6 +6324,9 @@
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,11 +6343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73076736"/>
-        <c:axId val="73078272"/>
+        <c:axId val="73211904"/>
+        <c:axId val="73213440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73076736"/>
+        <c:axId val="73211904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6332,7 +6356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73078272"/>
+        <c:crossAx val="73213440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6340,7 +6364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73078272"/>
+        <c:axId val="73213440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6351,7 +6375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73076736"/>
+        <c:crossAx val="73211904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6403,9 +6427,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$232</c:f>
+              <c:f>State!$A$2:$A$233</c:f>
               <c:strCache>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7098,16 +7122,19 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$232</c:f>
+              <c:f>State!$C$2:$C$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7800,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>8592</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7817,9 +7847,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$232</c:f>
+              <c:f>State!$A$2:$A$233</c:f>
               <c:strCache>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8512,16 +8542,19 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$232</c:f>
+              <c:f>State!$B$2:$B$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9214,6 +9247,9 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>188360</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>190579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9230,11 +9266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73327744"/>
-        <c:axId val="73329280"/>
+        <c:axId val="73432448"/>
+        <c:axId val="73598080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73327744"/>
+        <c:axId val="73432448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9244,7 +9280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73329280"/>
+        <c:crossAx val="73598080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9252,7 +9288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73329280"/>
+        <c:axId val="73598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9263,7 +9299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73327744"/>
+        <c:crossAx val="73432448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9457,9 +9493,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C224" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C224"/>
-  <sortState ref="A2:C224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C225" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C225"/>
+  <sortState ref="A2:C225">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9472,9 +9508,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C223" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
-  <sortState ref="A2:C223">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C224" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C224"/>
+  <sortState ref="A2:C224">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9487,9 +9523,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C232"/>
-  <sortState ref="A2:C232">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C233"/>
+  <sortState ref="A2:C233">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9788,7 +9824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12274,6 +12310,17 @@
         <v>417</v>
       </c>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>462</v>
+      </c>
+      <c r="B225">
+        <v>14687</v>
+      </c>
+      <c r="C225">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12286,7 +12333,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14752,6 +14799,17 @@
         <v>133</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>463</v>
+      </c>
+      <c r="B224">
+        <v>14687</v>
+      </c>
+      <c r="C224">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14763,7 +14821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17330,6 +17388,17 @@
         <v>8592</v>
       </c>
     </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>463</v>
+      </c>
+      <c r="B233">
+        <v>190579</v>
+      </c>
+      <c r="C233">
+        <v>8625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$224</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$225</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$233</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$225</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$226</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$234</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="466">
   <si>
     <t>date</t>
   </si>
@@ -1427,6 +1427,12 @@
   </si>
   <si>
     <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
   </si>
 </sst>
 </file>
@@ -2027,9 +2033,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$225</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$226</c:f>
               <c:strCache>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2701,16 +2707,19 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$225</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3382,6 +3391,9 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>14687</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,11 +3410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71339392"/>
-        <c:axId val="71771264"/>
+        <c:axId val="64134528"/>
+        <c:axId val="64758912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71339392"/>
+        <c:axId val="64134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +3424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71771264"/>
+        <c:crossAx val="64758912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +3432,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71771264"/>
+        <c:axId val="64758912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71339392"/>
+        <c:crossAx val="64134528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3519,9 +3531,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$225</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$226</c:f>
               <c:strCache>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4193,16 +4205,19 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$225</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4873,6 +4888,9 @@
                   <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="223">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="224">
                   <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
@@ -4890,11 +4908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71791744"/>
-        <c:axId val="71793280"/>
+        <c:axId val="64791680"/>
+        <c:axId val="64793216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71791744"/>
+        <c:axId val="64791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,7 +4922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71793280"/>
+        <c:crossAx val="64793216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4912,7 +4930,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71793280"/>
+        <c:axId val="64793216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,7 +4941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71791744"/>
+        <c:crossAx val="64791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,9 +4996,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$224</c:f>
+              <c:f>'Case Changes'!$A$2:$A$225</c:f>
               <c:strCache>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5649,16 +5667,19 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$224</c:f>
+              <c:f>'Case Changes'!$C$2:$C$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="223"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6327,6 +6348,9 @@
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,11 +6367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73211904"/>
-        <c:axId val="73213440"/>
+        <c:axId val="64495616"/>
+        <c:axId val="64497152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73211904"/>
+        <c:axId val="64495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6356,7 +6380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73213440"/>
+        <c:crossAx val="64497152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6364,7 +6388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73213440"/>
+        <c:axId val="64497152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6375,7 +6399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73211904"/>
+        <c:crossAx val="64495616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6427,9 +6451,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$233</c:f>
+              <c:f>State!$A$2:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7125,16 +7149,19 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$233</c:f>
+              <c:f>State!$C$2:$C$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7830,6 +7857,9 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>8625</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>8654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7847,9 +7877,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$233</c:f>
+              <c:f>State!$A$2:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8545,16 +8575,19 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$233</c:f>
+              <c:f>State!$B$2:$B$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9250,6 +9283,9 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>190579</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>192622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9266,11 +9302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73432448"/>
-        <c:axId val="73598080"/>
+        <c:axId val="65012864"/>
+        <c:axId val="65014400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73432448"/>
+        <c:axId val="65012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9280,7 +9316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73598080"/>
+        <c:crossAx val="65014400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9288,7 +9324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73598080"/>
+        <c:axId val="65014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9299,7 +9335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73432448"/>
+        <c:crossAx val="65012864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9493,9 +9529,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C225" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C225"/>
-  <sortState ref="A2:C225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C226" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C226"/>
+  <sortState ref="A2:C226">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9508,9 +9544,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C224" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C224"/>
-  <sortState ref="A2:C224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C225" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C225"/>
+  <sortState ref="A2:C225">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9523,9 +9559,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C233"/>
-  <sortState ref="A2:C233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C234" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C234"/>
+  <sortState ref="A2:C234">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9824,7 +9860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O225"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12321,6 +12357,17 @@
         <v>421</v>
       </c>
     </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>464</v>
+      </c>
+      <c r="B226">
+        <v>14818</v>
+      </c>
+      <c r="C226">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12333,7 +12380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14810,6 +14857,17 @@
         <v>158</v>
       </c>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>465</v>
+      </c>
+      <c r="B225">
+        <v>14818</v>
+      </c>
+      <c r="C225">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14821,7 +14879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17399,6 +17457,17 @@
         <v>8625</v>
       </c>
     </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>465</v>
+      </c>
+      <c r="B234">
+        <v>192622</v>
+      </c>
+      <c r="C234">
+        <v>8654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$225</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$226</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$234</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$226</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$227</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$235</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="468">
   <si>
     <t>date</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
   </si>
 </sst>
 </file>
@@ -2033,9 +2039,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$226</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2710,16 +2716,19 @@
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$226</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3394,6 +3403,9 @@
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>14818</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>14922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,11 +3422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64134528"/>
-        <c:axId val="64758912"/>
+        <c:axId val="78163328"/>
+        <c:axId val="78791808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64134528"/>
+        <c:axId val="78163328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64758912"/>
+        <c:crossAx val="78791808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3432,7 +3444,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64758912"/>
+        <c:axId val="78791808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64134528"/>
+        <c:crossAx val="78163328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3531,9 +3543,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$226</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4208,16 +4220,19 @@
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$226</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4891,6 +4906,9 @@
                   <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="224">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
@@ -4908,11 +4926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64791680"/>
-        <c:axId val="64793216"/>
+        <c:axId val="78816384"/>
+        <c:axId val="78817920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64791680"/>
+        <c:axId val="78816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4922,7 +4940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64793216"/>
+        <c:crossAx val="78817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4930,7 +4948,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64793216"/>
+        <c:axId val="78817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4941,7 +4959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64791680"/>
+        <c:crossAx val="78816384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,9 +5014,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$225</c:f>
+              <c:f>'Case Changes'!$A$2:$A$226</c:f>
               <c:strCache>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5670,16 +5688,19 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$225</c:f>
+              <c:f>'Case Changes'!$C$2:$C$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="225"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6351,6 +6372,9 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6367,11 +6391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64495616"/>
-        <c:axId val="64497152"/>
+        <c:axId val="78528512"/>
+        <c:axId val="78530048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64495616"/>
+        <c:axId val="78528512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,7 +6404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64497152"/>
+        <c:crossAx val="78530048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6388,7 +6412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64497152"/>
+        <c:axId val="78530048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64495616"/>
+        <c:crossAx val="78528512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6451,9 +6475,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$234</c:f>
+              <c:f>State!$A$2:$A$235</c:f>
               <c:strCache>
-                <c:ptCount val="233"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7152,16 +7176,19 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$234</c:f>
+              <c:f>State!$C$2:$C$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7860,6 +7887,9 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>8654</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>8666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7877,9 +7907,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$234</c:f>
+              <c:f>State!$A$2:$A$235</c:f>
               <c:strCache>
-                <c:ptCount val="233"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8578,16 +8608,19 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$234</c:f>
+              <c:f>State!$B$2:$B$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9286,6 +9319,9 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>192622</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>194288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9302,11 +9338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65012864"/>
-        <c:axId val="65014400"/>
+        <c:axId val="79312000"/>
+        <c:axId val="79313536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65012864"/>
+        <c:axId val="79312000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9316,7 +9352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65014400"/>
+        <c:crossAx val="79313536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9324,7 +9360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65014400"/>
+        <c:axId val="79313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9335,7 +9371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65012864"/>
+        <c:crossAx val="79312000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9529,9 +9565,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C226" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C226"/>
-  <sortState ref="A2:C226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C227" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C227"/>
+  <sortState ref="A2:C227">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9544,9 +9580,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C225" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C225"/>
-  <sortState ref="A2:C225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C226" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C226"/>
+  <sortState ref="A2:C226">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9559,9 +9595,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C234" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C234"/>
-  <sortState ref="A2:C234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C235" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C235"/>
+  <sortState ref="A2:C235">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9860,7 +9896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O226"/>
+  <dimension ref="A1:O227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12368,6 +12404,17 @@
         <v>421</v>
       </c>
     </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>466</v>
+      </c>
+      <c r="B227">
+        <v>14922</v>
+      </c>
+      <c r="C227">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12380,7 +12427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14868,6 +14915,17 @@
         <v>131</v>
       </c>
     </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>467</v>
+      </c>
+      <c r="B226">
+        <v>14922</v>
+      </c>
+      <c r="C226">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14879,7 +14937,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17468,6 +17526,17 @@
         <v>8654</v>
       </c>
     </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>467</v>
+      </c>
+      <c r="B235">
+        <v>194288</v>
+      </c>
+      <c r="C235">
+        <v>8666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -3422,11 +3422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78163328"/>
-        <c:axId val="78791808"/>
+        <c:axId val="108912640"/>
+        <c:axId val="108914176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78163328"/>
+        <c:axId val="108912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78791808"/>
+        <c:crossAx val="108914176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3444,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78791808"/>
+        <c:axId val="108914176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78163328"/>
+        <c:crossAx val="108912640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4926,11 +4926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78816384"/>
-        <c:axId val="78817920"/>
+        <c:axId val="109389312"/>
+        <c:axId val="109390848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78816384"/>
+        <c:axId val="109389312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,7 +4940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78817920"/>
+        <c:crossAx val="109390848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4948,7 +4948,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78817920"/>
+        <c:axId val="109390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +4959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78816384"/>
+        <c:crossAx val="109389312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6391,11 +6391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78528512"/>
-        <c:axId val="78530048"/>
+        <c:axId val="109900160"/>
+        <c:axId val="109901696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78528512"/>
+        <c:axId val="109900160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78530048"/>
+        <c:crossAx val="109901696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6412,7 +6412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78530048"/>
+        <c:axId val="109901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6423,7 +6423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78528512"/>
+        <c:crossAx val="109900160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9338,11 +9338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79312000"/>
-        <c:axId val="79313536"/>
+        <c:axId val="109760512"/>
+        <c:axId val="109762048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79312000"/>
+        <c:axId val="109760512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9352,7 +9352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79313536"/>
+        <c:crossAx val="109762048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9360,7 +9360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79313536"/>
+        <c:axId val="109762048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9371,7 +9371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79312000"/>
+        <c:crossAx val="109760512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9905,9 +9905,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -12436,8 +12435,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14945,9 +14944,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$226</definedName>
     <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$227</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$235</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$236</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="469">
   <si>
     <t>date</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
   </si>
 </sst>
 </file>
@@ -3422,11 +3425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108912640"/>
-        <c:axId val="108914176"/>
+        <c:axId val="105050112"/>
+        <c:axId val="105051648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108912640"/>
+        <c:axId val="105050112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108914176"/>
+        <c:crossAx val="105051648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3447,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108914176"/>
+        <c:axId val="105051648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108912640"/>
+        <c:crossAx val="105050112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4926,11 +4929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109389312"/>
-        <c:axId val="109390848"/>
+        <c:axId val="105465344"/>
+        <c:axId val="105466880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109389312"/>
+        <c:axId val="105465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,7 +4943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109390848"/>
+        <c:crossAx val="105466880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4948,7 +4951,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109390848"/>
+        <c:axId val="105466880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +4962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109389312"/>
+        <c:crossAx val="105465344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6391,11 +6394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109900160"/>
-        <c:axId val="109901696"/>
+        <c:axId val="105578880"/>
+        <c:axId val="105580416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109900160"/>
+        <c:axId val="105578880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109901696"/>
+        <c:crossAx val="105580416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6412,7 +6415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109901696"/>
+        <c:axId val="105580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6423,7 +6426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109900160"/>
+        <c:crossAx val="105578880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6475,9 +6478,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$235</c:f>
+              <c:f>State!$A$2:$A$236</c:f>
               <c:strCache>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7179,16 +7182,19 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$235</c:f>
+              <c:f>State!$C$2:$C$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7890,6 +7896,9 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7907,9 +7916,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$235</c:f>
+              <c:f>State!$A$2:$A$236</c:f>
               <c:strCache>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8611,16 +8620,19 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$235</c:f>
+              <c:f>State!$B$2:$B$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9322,6 +9334,9 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>194288</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>195695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9338,11 +9353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109760512"/>
-        <c:axId val="109762048"/>
+        <c:axId val="105963520"/>
+        <c:axId val="105965056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109760512"/>
+        <c:axId val="105963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9352,7 +9367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109762048"/>
+        <c:crossAx val="105965056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9360,7 +9375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109762048"/>
+        <c:axId val="105965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9371,7 +9386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109760512"/>
+        <c:crossAx val="105963520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9595,9 +9610,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C235" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C235"/>
-  <sortState ref="A2:C235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C236"/>
+  <sortState ref="A2:C236">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -14936,7 +14951,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17535,6 +17550,17 @@
         <v>8666</v>
       </c>
     </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236">
+        <v>195695</v>
+      </c>
+      <c r="C236">
+        <v>8673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,8 +12,8 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$226</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$227</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$227</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$228</definedName>
     <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$236</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="470">
   <si>
     <t>date</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
   </si>
 </sst>
 </file>
@@ -2042,9 +2045,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$227</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$228</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2722,16 +2725,19 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$227</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3409,6 +3415,9 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>14922</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,11 +3434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105050112"/>
-        <c:axId val="105051648"/>
+        <c:axId val="70823296"/>
+        <c:axId val="71386240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105050112"/>
+        <c:axId val="70823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105051648"/>
+        <c:crossAx val="71386240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3447,7 +3456,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105051648"/>
+        <c:axId val="71386240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105050112"/>
+        <c:crossAx val="70823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3546,9 +3555,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$227</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$228</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4226,16 +4235,19 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$227</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4912,6 +4924,9 @@
                   <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="225">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
@@ -4929,11 +4944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105465344"/>
-        <c:axId val="105466880"/>
+        <c:axId val="71414912"/>
+        <c:axId val="71416448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105465344"/>
+        <c:axId val="71414912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4943,7 +4958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105466880"/>
+        <c:crossAx val="71416448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4951,7 +4966,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105466880"/>
+        <c:axId val="71416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,7 +4977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105465344"/>
+        <c:crossAx val="71414912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,9 +5032,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$226</c:f>
+              <c:f>'Case Changes'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5694,16 +5709,19 @@
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$226</c:f>
+              <c:f>'Case Changes'!$C$2:$C$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="225"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6378,6 +6396,9 @@
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,11 +6415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105578880"/>
-        <c:axId val="105580416"/>
+        <c:axId val="71254016"/>
+        <c:axId val="71255552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105578880"/>
+        <c:axId val="71254016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,7 +6428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105580416"/>
+        <c:crossAx val="71255552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6415,7 +6436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105580416"/>
+        <c:axId val="71255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,7 +6447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105578880"/>
+        <c:crossAx val="71254016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9353,11 +9374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105963520"/>
-        <c:axId val="105965056"/>
+        <c:axId val="71347584"/>
+        <c:axId val="71971968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105963520"/>
+        <c:axId val="71347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9367,7 +9388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105965056"/>
+        <c:crossAx val="71971968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9375,7 +9396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105965056"/>
+        <c:axId val="71971968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9386,7 +9407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105963520"/>
+        <c:crossAx val="71347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9580,9 +9601,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C227" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C227"/>
-  <sortState ref="A2:C227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C228" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C228"/>
+  <sortState ref="A2:C228">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9595,9 +9616,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C226" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C226"/>
-  <sortState ref="A2:C226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C227" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C227"/>
+  <sortState ref="A2:C227">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9911,7 +9932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O227"/>
+  <dimension ref="A1:O228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -9920,8 +9941,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -12426,6 +12448,17 @@
         <v>14922</v>
       </c>
       <c r="C227">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>469</v>
+      </c>
+      <c r="B228">
+        <v>14995</v>
+      </c>
+      <c r="C228">
         <v>421</v>
       </c>
     </row>
@@ -12441,7 +12474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -12450,8 +12483,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14938,6 +14971,17 @@
       </c>
       <c r="C226">
         <v>104</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>468</v>
+      </c>
+      <c r="B227">
+        <v>14995</v>
+      </c>
+      <c r="C227">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -14959,8 +15003,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$227</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$228</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$236</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$228</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$229</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$237</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="472">
   <si>
     <t>date</t>
   </si>
@@ -1445,6 +1445,12 @@
   </si>
   <si>
     <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
   </si>
 </sst>
 </file>
@@ -2045,9 +2051,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$228</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$229</c:f>
               <c:strCache>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2728,16 +2734,19 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$228</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3418,6 +3427,9 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>14995</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,11 +3446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70823296"/>
-        <c:axId val="71386240"/>
+        <c:axId val="84987264"/>
+        <c:axId val="85550208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70823296"/>
+        <c:axId val="84987264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,7 +3460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71386240"/>
+        <c:crossAx val="85550208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3456,7 +3468,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71386240"/>
+        <c:axId val="85550208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,7 +3479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70823296"/>
+        <c:crossAx val="84987264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3555,9 +3567,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$228</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$229</c:f>
               <c:strCache>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4238,16 +4250,19 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$228</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4928,6 +4943,9 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,11 +4962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71414912"/>
-        <c:axId val="71416448"/>
+        <c:axId val="85570688"/>
+        <c:axId val="85572224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71414912"/>
+        <c:axId val="85570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71416448"/>
+        <c:crossAx val="85572224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4966,7 +4984,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71416448"/>
+        <c:axId val="85572224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4977,7 +4995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71414912"/>
+        <c:crossAx val="85570688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5032,9 +5050,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$227</c:f>
+              <c:f>'Case Changes'!$A$2:$A$228</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5712,16 +5730,19 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$227</c:f>
+              <c:f>'Case Changes'!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6399,6 +6420,9 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,11 +6439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71254016"/>
-        <c:axId val="71255552"/>
+        <c:axId val="85413888"/>
+        <c:axId val="85415424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71254016"/>
+        <c:axId val="85413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,7 +6452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71255552"/>
+        <c:crossAx val="85415424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6436,7 +6460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71255552"/>
+        <c:axId val="85415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6447,7 +6471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71254016"/>
+        <c:crossAx val="85413888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6499,9 +6523,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$236</c:f>
+              <c:f>State!$A$2:$A$237</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7206,16 +7230,19 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$236</c:f>
+              <c:f>State!$C$2:$C$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7920,6 +7947,9 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>8673</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7937,9 +7967,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$236</c:f>
+              <c:f>State!$A$2:$A$237</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8644,16 +8674,19 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$236</c:f>
+              <c:f>State!$B$2:$B$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9358,6 +9391,9 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>195695</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>198446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9374,11 +9410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71347584"/>
-        <c:axId val="71971968"/>
+        <c:axId val="85507456"/>
+        <c:axId val="86131840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71347584"/>
+        <c:axId val="85507456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9388,7 +9424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71971968"/>
+        <c:crossAx val="86131840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9396,7 +9432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71971968"/>
+        <c:axId val="86131840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,7 +9443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71347584"/>
+        <c:crossAx val="85507456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9601,9 +9637,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C228" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C228"/>
-  <sortState ref="A2:C228">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C229" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C229"/>
+  <sortState ref="A2:C229">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9616,9 +9652,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C227" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C227"/>
-  <sortState ref="A2:C227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C228" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C228"/>
+  <sortState ref="A2:C228">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9631,9 +9667,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C236"/>
-  <sortState ref="A2:C236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C237"/>
+  <sortState ref="A2:C237">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9932,7 +9968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O228"/>
+  <dimension ref="A1:O229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12462,6 +12498,17 @@
         <v>421</v>
       </c>
     </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>470</v>
+      </c>
+      <c r="B229">
+        <v>15101</v>
+      </c>
+      <c r="C229">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12474,7 +12521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -14984,6 +15031,17 @@
         <v>73</v>
       </c>
     </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>471</v>
+      </c>
+      <c r="B228">
+        <v>15101</v>
+      </c>
+      <c r="C228">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14995,7 +15053,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17606,6 +17664,17 @@
         <v>8673</v>
       </c>
     </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>471</v>
+      </c>
+      <c r="B237">
+        <v>198446</v>
+      </c>
+      <c r="C237">
+        <v>8696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$228</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$229</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$237</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$229</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$230</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$238</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="474">
   <si>
     <t>date</t>
   </si>
@@ -1451,6 +1451,12 @@
   </si>
   <si>
     <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
   </si>
 </sst>
 </file>
@@ -2051,9 +2057,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$229</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2737,16 +2743,19 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$229</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3430,6 +3439,9 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>15101</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,11 +3458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84987264"/>
-        <c:axId val="85550208"/>
+        <c:axId val="76795264"/>
+        <c:axId val="77358208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84987264"/>
+        <c:axId val="76795264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85550208"/>
+        <c:crossAx val="77358208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,7 +3480,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85550208"/>
+        <c:axId val="77358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84987264"/>
+        <c:crossAx val="76795264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3567,9 +3579,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$229</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4253,16 +4265,19 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$229</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4946,6 +4961,9 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,11 +4980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85570688"/>
-        <c:axId val="85572224"/>
+        <c:axId val="77382784"/>
+        <c:axId val="77384320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85570688"/>
+        <c:axId val="77382784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +4994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85572224"/>
+        <c:crossAx val="77384320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4984,7 +5002,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85572224"/>
+        <c:axId val="77384320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +5013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85570688"/>
+        <c:crossAx val="77382784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5050,9 +5068,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$228</c:f>
+              <c:f>'Case Changes'!$A$2:$A$229</c:f>
               <c:strCache>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5733,16 +5751,19 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$228</c:f>
+              <c:f>'Case Changes'!$C$2:$C$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6423,6 +6444,9 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6439,11 +6463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85413888"/>
-        <c:axId val="85415424"/>
+        <c:axId val="77221888"/>
+        <c:axId val="77223424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85413888"/>
+        <c:axId val="77221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6452,7 +6476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85415424"/>
+        <c:crossAx val="77223424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6460,7 +6484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85415424"/>
+        <c:axId val="77223424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6471,7 +6495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85413888"/>
+        <c:crossAx val="77221888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6523,9 +6547,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$237</c:f>
+              <c:f>State!$A$2:$A$238</c:f>
               <c:strCache>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7233,16 +7257,19 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$237</c:f>
+              <c:f>State!$C$2:$C$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7950,6 +7977,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>8696</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7967,9 +7997,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$237</c:f>
+              <c:f>State!$A$2:$A$238</c:f>
               <c:strCache>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8677,16 +8707,19 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$237</c:f>
+              <c:f>State!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9394,6 +9427,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>198446</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>200674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9410,11 +9446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85507456"/>
-        <c:axId val="86131840"/>
+        <c:axId val="77905280"/>
+        <c:axId val="77284480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85507456"/>
+        <c:axId val="77905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9424,7 +9460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86131840"/>
+        <c:crossAx val="77284480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9432,7 +9468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86131840"/>
+        <c:axId val="77284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9443,7 +9479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85507456"/>
+        <c:crossAx val="77905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9637,9 +9673,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C229" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C229"/>
-  <sortState ref="A2:C229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C230"/>
+  <sortState ref="A2:C230">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9652,9 +9688,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C228" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C228"/>
-  <sortState ref="A2:C228">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C229" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C229"/>
+  <sortState ref="A2:C229">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9667,9 +9703,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C237"/>
-  <sortState ref="A2:C237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C238"/>
+  <sortState ref="A2:C238">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -9968,7 +10004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O229"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12509,6 +12545,17 @@
         <v>422</v>
       </c>
     </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230">
+        <v>15300</v>
+      </c>
+      <c r="C230">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12521,7 +12568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15042,6 +15089,17 @@
         <v>106</v>
       </c>
     </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>473</v>
+      </c>
+      <c r="B229">
+        <v>15300</v>
+      </c>
+      <c r="C229">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15053,7 +15111,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17675,6 +17733,17 @@
         <v>8696</v>
       </c>
     </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238">
+        <v>200674</v>
+      </c>
+      <c r="C238">
+        <v>8718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$229</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$230</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$238</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$230</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$231</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$239</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="476">
   <si>
     <t>date</t>
   </si>
@@ -1457,6 +1457,12 @@
   </si>
   <si>
     <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
   </si>
 </sst>
 </file>
@@ -2057,9 +2063,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$230</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$231</c:f>
               <c:strCache>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2746,16 +2752,19 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$230</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3442,6 +3451,9 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,11 +3470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76795264"/>
-        <c:axId val="77358208"/>
+        <c:axId val="70376832"/>
+        <c:axId val="70677632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76795264"/>
+        <c:axId val="70376832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77358208"/>
+        <c:crossAx val="70677632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3492,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77358208"/>
+        <c:axId val="70677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76795264"/>
+        <c:crossAx val="70376832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3579,9 +3591,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$230</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$231</c:f>
               <c:strCache>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4268,16 +4280,19 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$230</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4964,6 +4979,9 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,11 +4998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77382784"/>
-        <c:axId val="77384320"/>
+        <c:axId val="70698112"/>
+        <c:axId val="70699648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77382784"/>
+        <c:axId val="70698112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,7 +5012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77384320"/>
+        <c:crossAx val="70699648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5002,7 +5020,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77384320"/>
+        <c:axId val="70699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5013,7 +5031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77382784"/>
+        <c:crossAx val="70698112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,9 +5086,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$229</c:f>
+              <c:f>'Case Changes'!$A$2:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5754,16 +5772,19 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$229</c:f>
+              <c:f>'Case Changes'!$C$2:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="228"/>
+                <c:ptCount val="229"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6447,6 +6468,9 @@
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6463,11 +6487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77221888"/>
-        <c:axId val="77223424"/>
+        <c:axId val="70868992"/>
+        <c:axId val="70870528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77221888"/>
+        <c:axId val="70868992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6476,7 +6500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77223424"/>
+        <c:crossAx val="70870528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6484,7 +6508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77223424"/>
+        <c:axId val="70870528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6495,7 +6519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77221888"/>
+        <c:crossAx val="70868992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6547,9 +6571,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$238</c:f>
+              <c:f>State!$A$2:$A$239</c:f>
               <c:strCache>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7260,16 +7284,19 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$238</c:f>
+              <c:f>State!$C$2:$C$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7980,6 +8007,9 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>8718</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7997,9 +8027,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$238</c:f>
+              <c:f>State!$A$2:$A$239</c:f>
               <c:strCache>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8710,16 +8740,19 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$238</c:f>
+              <c:f>State!$B$2:$B$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9430,6 +9463,9 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>200674</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>202876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9446,11 +9482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77905280"/>
-        <c:axId val="77284480"/>
+        <c:axId val="71224704"/>
+        <c:axId val="70931584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77905280"/>
+        <c:axId val="71224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9460,7 +9496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77284480"/>
+        <c:crossAx val="70931584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9468,7 +9504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77284480"/>
+        <c:axId val="70931584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9479,7 +9515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77905280"/>
+        <c:crossAx val="71224704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9673,9 +9709,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C230"/>
-  <sortState ref="A2:C230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C231"/>
+  <sortState ref="A2:C231">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9688,9 +9724,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C229" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C229"/>
-  <sortState ref="A2:C229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C230"/>
+  <sortState ref="A2:C230">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9703,9 +9739,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C238"/>
-  <sortState ref="A2:C238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C239"/>
+  <sortState ref="A2:C239">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -10004,7 +10040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O230"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12556,6 +12592,17 @@
         <v>426</v>
       </c>
     </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>474</v>
+      </c>
+      <c r="B231">
+        <v>15449</v>
+      </c>
+      <c r="C231">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12568,7 +12615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15100,6 +15147,17 @@
         <v>199</v>
       </c>
     </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>475</v>
+      </c>
+      <c r="B230">
+        <v>15449</v>
+      </c>
+      <c r="C230">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15111,7 +15169,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17744,6 +17802,17 @@
         <v>8718</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>475</v>
+      </c>
+      <c r="B239">
+        <v>202876</v>
+      </c>
+      <c r="C239">
+        <v>8762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$230</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$231</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$239</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$231</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$232</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$240</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="478">
   <si>
     <t>date</t>
   </si>
@@ -1463,6 +1463,12 @@
   </si>
   <si>
     <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
   </si>
 </sst>
 </file>
@@ -2063,9 +2069,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$231</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$232</c:f>
               <c:strCache>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2755,16 +2761,19 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$231</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3454,6 +3463,9 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>15449</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,11 +3482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70376832"/>
-        <c:axId val="70677632"/>
+        <c:axId val="64806272"/>
+        <c:axId val="65107072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70376832"/>
+        <c:axId val="64806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70677632"/>
+        <c:crossAx val="65107072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3504,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70677632"/>
+        <c:axId val="65107072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70376832"/>
+        <c:crossAx val="64806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3591,9 +3603,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$231</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$232</c:f>
               <c:strCache>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4283,16 +4295,19 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$231</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4982,6 +4997,9 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4998,11 +5016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70698112"/>
-        <c:axId val="70699648"/>
+        <c:axId val="65131648"/>
+        <c:axId val="65133184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70698112"/>
+        <c:axId val="65131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5012,7 +5030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70699648"/>
+        <c:crossAx val="65133184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5020,7 +5038,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70699648"/>
+        <c:axId val="65133184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +5049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70698112"/>
+        <c:crossAx val="65131648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5086,9 +5104,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$230</c:f>
+              <c:f>'Case Changes'!$A$2:$A$231</c:f>
               <c:strCache>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5775,16 +5793,19 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$230</c:f>
+              <c:f>'Case Changes'!$C$2:$C$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6471,6 +6492,9 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6487,11 +6511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70868992"/>
-        <c:axId val="70870528"/>
+        <c:axId val="65302528"/>
+        <c:axId val="65304064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70868992"/>
+        <c:axId val="65302528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,7 +6524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70870528"/>
+        <c:crossAx val="65304064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6508,7 +6532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70870528"/>
+        <c:axId val="65304064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,7 +6543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70868992"/>
+        <c:crossAx val="65302528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6571,9 +6595,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$239</c:f>
+              <c:f>State!$A$2:$A$240</c:f>
               <c:strCache>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7287,16 +7311,19 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$239</c:f>
+              <c:f>State!$C$2:$C$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8010,6 +8037,9 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>8762</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8027,9 +8057,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$239</c:f>
+              <c:f>State!$A$2:$A$240</c:f>
               <c:strCache>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8743,16 +8773,19 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$239</c:f>
+              <c:f>State!$B$2:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9466,6 +9499,9 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>202876</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>205517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9482,11 +9518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71224704"/>
-        <c:axId val="70931584"/>
+        <c:axId val="65654144"/>
+        <c:axId val="65365120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71224704"/>
+        <c:axId val="65654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9496,7 +9532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70931584"/>
+        <c:crossAx val="65365120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9504,7 +9540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70931584"/>
+        <c:axId val="65365120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9515,7 +9551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71224704"/>
+        <c:crossAx val="65654144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9709,9 +9745,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C231"/>
-  <sortState ref="A2:C231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C232"/>
+  <sortState ref="A2:C232">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9724,9 +9760,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C230"/>
-  <sortState ref="A2:C230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C231"/>
+  <sortState ref="A2:C231">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9739,9 +9775,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C239"/>
-  <sortState ref="A2:C239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C240"/>
+  <sortState ref="A2:C240">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -10040,7 +10076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -12603,6 +12639,17 @@
         <v>428</v>
       </c>
     </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>476</v>
+      </c>
+      <c r="B232">
+        <v>15622</v>
+      </c>
+      <c r="C232">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12615,7 +12662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15158,6 +15205,17 @@
         <v>149</v>
       </c>
     </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>477</v>
+      </c>
+      <c r="B231">
+        <v>15622</v>
+      </c>
+      <c r="C231">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15169,7 +15227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -17813,6 +17871,17 @@
         <v>8762</v>
       </c>
     </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240">
+        <v>205517</v>
+      </c>
+      <c r="C240">
+        <v>8784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$231</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$232</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$240</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$232</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$233</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$241</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="480">
   <si>
     <t>date</t>
   </si>
@@ -1469,6 +1469,12 @@
   </si>
   <si>
     <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
   </si>
 </sst>
 </file>
@@ -2069,9 +2075,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$232</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$233</c:f>
               <c:strCache>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2764,16 +2770,19 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$232</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3466,6 +3475,9 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>15622</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,11 +3494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64806272"/>
-        <c:axId val="65107072"/>
+        <c:axId val="101777408"/>
+        <c:axId val="101778944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64806272"/>
+        <c:axId val="101777408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +3508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65107072"/>
+        <c:crossAx val="101778944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3504,7 +3516,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65107072"/>
+        <c:axId val="101778944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64806272"/>
+        <c:crossAx val="101777408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,9 +3615,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$232</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$233</c:f>
               <c:strCache>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4298,16 +4310,19 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$232</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5000,6 +5015,9 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5016,11 +5034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65131648"/>
-        <c:axId val="65133184"/>
+        <c:axId val="101803520"/>
+        <c:axId val="101805056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65131648"/>
+        <c:axId val="101803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65133184"/>
+        <c:crossAx val="101805056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5038,7 +5056,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65133184"/>
+        <c:axId val="101805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65131648"/>
+        <c:crossAx val="101803520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,9 +5122,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$231</c:f>
+              <c:f>'Case Changes'!$A$2:$A$232</c:f>
               <c:strCache>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5796,16 +5814,19 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$231</c:f>
+              <c:f>'Case Changes'!$C$2:$C$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="230"/>
+                <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6495,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,11 +6535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65302528"/>
-        <c:axId val="65304064"/>
+        <c:axId val="101917056"/>
+        <c:axId val="101918592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65302528"/>
+        <c:axId val="101917056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6524,7 +6548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65304064"/>
+        <c:crossAx val="101918592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6532,7 +6556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65304064"/>
+        <c:axId val="101918592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,7 +6567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65302528"/>
+        <c:crossAx val="101917056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6595,9 +6619,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$240</c:f>
+              <c:f>State!$A$2:$A$241</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7314,16 +7338,19 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$240</c:f>
+              <c:f>State!$C$2:$C$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8040,6 +8067,9 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>8812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8057,9 +8087,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$240</c:f>
+              <c:f>State!$A$2:$A$241</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8776,16 +8806,19 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$240</c:f>
+              <c:f>State!$B$2:$B$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9502,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>205517</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>208027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9518,11 +9554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65654144"/>
-        <c:axId val="65365120"/>
+        <c:axId val="102699008"/>
+        <c:axId val="102700544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65654144"/>
+        <c:axId val="102699008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9532,7 +9568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65365120"/>
+        <c:crossAx val="102700544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9540,7 +9576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65365120"/>
+        <c:axId val="102700544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9551,7 +9587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65654144"/>
+        <c:crossAx val="102699008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9745,9 +9781,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C232"/>
-  <sortState ref="A2:C232">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C233"/>
+  <sortState ref="A2:C233">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9760,9 +9796,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C231" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C231"/>
-  <sortState ref="A2:C231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C232"/>
+  <sortState ref="A2:C232">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9775,9 +9811,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C240"/>
-  <sortState ref="A2:C240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C241" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C241"/>
+  <sortState ref="A2:C241">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -10076,7 +10112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O232"/>
+  <dimension ref="A1:O233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -10085,9 +10121,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -12648,6 +12683,17 @@
       </c>
       <c r="C232">
         <v>435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>478</v>
+      </c>
+      <c r="B233">
+        <v>15796</v>
+      </c>
+      <c r="C233">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -12662,7 +12708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -12671,8 +12717,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15214,6 +15260,17 @@
       </c>
       <c r="C231">
         <v>173</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>479</v>
+      </c>
+      <c r="B232">
+        <v>15796</v>
+      </c>
+      <c r="C232">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -15227,7 +15284,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -15235,9 +15292,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -17880,6 +17936,17 @@
       </c>
       <c r="C240">
         <v>8784</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>479</v>
+      </c>
+      <c r="B241">
+        <v>208027</v>
+      </c>
+      <c r="C241">
+        <v>8812</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -12,9 +12,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$232</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$233</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$241</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$233</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$234</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$242</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="482">
   <si>
     <t>date</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
   </si>
 </sst>
 </file>
@@ -2075,9 +2081,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$233</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2773,16 +2779,19 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$233</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3478,6 +3487,9 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>15796</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,11 +3506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101777408"/>
-        <c:axId val="101778944"/>
+        <c:axId val="68218240"/>
+        <c:axId val="68519040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101777408"/>
+        <c:axId val="68218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101778944"/>
+        <c:crossAx val="68519040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3516,7 +3528,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101778944"/>
+        <c:axId val="68519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101777408"/>
+        <c:crossAx val="68218240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,9 +3627,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$233</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4313,16 +4325,19 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$233</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5017,6 +5032,9 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="231">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
@@ -5034,11 +5052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101803520"/>
-        <c:axId val="101805056"/>
+        <c:axId val="68539520"/>
+        <c:axId val="68541056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101803520"/>
+        <c:axId val="68539520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101805056"/>
+        <c:crossAx val="68541056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,7 +5074,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101805056"/>
+        <c:axId val="68541056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101803520"/>
+        <c:crossAx val="68539520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5122,9 +5140,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$232</c:f>
+              <c:f>'Case Changes'!$A$2:$A$233</c:f>
               <c:strCache>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5817,16 +5835,19 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$232</c:f>
+              <c:f>'Case Changes'!$C$2:$C$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="231"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6519,6 +6540,9 @@
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,11 +6559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101917056"/>
-        <c:axId val="101918592"/>
+        <c:axId val="68718592"/>
+        <c:axId val="68720128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101917056"/>
+        <c:axId val="68718592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101918592"/>
+        <c:crossAx val="68720128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101918592"/>
+        <c:axId val="68720128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +6591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101917056"/>
+        <c:crossAx val="68718592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6619,9 +6643,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$241</c:f>
+              <c:f>State!$A$2:$A$242</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7341,16 +7365,19 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$241</c:f>
+              <c:f>State!$C$2:$C$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8070,6 +8097,9 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>8812</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>8817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8087,9 +8117,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$241</c:f>
+              <c:f>State!$A$2:$A$242</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8809,16 +8839,19 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$241</c:f>
+              <c:f>State!$B$2:$B$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9538,6 +9571,9 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>208027</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>209936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9554,11 +9590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102699008"/>
-        <c:axId val="102700544"/>
+        <c:axId val="69070208"/>
+        <c:axId val="68777088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102699008"/>
+        <c:axId val="69070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9568,7 +9604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102700544"/>
+        <c:crossAx val="68777088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9576,7 +9612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102700544"/>
+        <c:axId val="68777088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9587,7 +9623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102699008"/>
+        <c:crossAx val="69070208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9781,9 +9817,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C233"/>
-  <sortState ref="A2:C233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C234" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C234"/>
+  <sortState ref="A2:C234">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9796,9 +9832,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C232" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C232"/>
-  <sortState ref="A2:C232">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C233"/>
+  <sortState ref="A2:C233">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9811,9 +9847,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C241" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C241"/>
-  <sortState ref="A2:C241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C242" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C242"/>
+  <sortState ref="A2:C242">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
@@ -10112,7 +10148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O233"/>
+  <dimension ref="A1:O234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -10121,8 +10157,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -12693,6 +12730,17 @@
         <v>15796</v>
       </c>
       <c r="C233">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>480</v>
+      </c>
+      <c r="B234">
+        <v>15940</v>
+      </c>
+      <c r="C234">
         <v>434</v>
       </c>
     </row>
@@ -12708,7 +12756,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -12717,8 +12765,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15271,6 +15319,17 @@
       </c>
       <c r="C232">
         <v>174</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>481</v>
+      </c>
+      <c r="B233">
+        <v>15940</v>
+      </c>
+      <c r="C233">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -15284,7 +15343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -15292,8 +15351,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -17947,6 +18007,17 @@
       </c>
       <c r="C241">
         <v>8812</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>481</v>
+      </c>
+      <c r="B242">
+        <v>209936</v>
+      </c>
+      <c r="C242">
+        <v>8817</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -3506,11 +3506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68218240"/>
-        <c:axId val="68519040"/>
+        <c:axId val="101392384"/>
+        <c:axId val="101393920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68218240"/>
+        <c:axId val="101392384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,7 +3520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68519040"/>
+        <c:crossAx val="101393920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3528,7 +3528,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68519040"/>
+        <c:axId val="101393920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68218240"/>
+        <c:crossAx val="101392384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5052,11 +5052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68539520"/>
-        <c:axId val="68541056"/>
+        <c:axId val="101414400"/>
+        <c:axId val="101415936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68539520"/>
+        <c:axId val="101414400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68541056"/>
+        <c:crossAx val="101415936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5074,7 +5074,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68541056"/>
+        <c:axId val="101415936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5085,7 +5085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68539520"/>
+        <c:crossAx val="101414400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6559,11 +6559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68718592"/>
-        <c:axId val="68720128"/>
+        <c:axId val="101200256"/>
+        <c:axId val="101201792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68718592"/>
+        <c:axId val="101200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6572,7 +6572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68720128"/>
+        <c:crossAx val="101201792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6580,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68720128"/>
+        <c:axId val="101201792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6591,7 +6591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68718592"/>
+        <c:crossAx val="101200256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9590,11 +9590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69070208"/>
-        <c:axId val="68777088"/>
+        <c:axId val="101982208"/>
+        <c:axId val="101983744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69070208"/>
+        <c:axId val="101982208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9604,7 +9604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68777088"/>
+        <c:crossAx val="101983744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9612,7 +9612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68777088"/>
+        <c:axId val="101983744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9623,7 +9623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69070208"/>
+        <c:crossAx val="101982208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10157,9 +10157,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -12765,8 +12764,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15351,9 +15350,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6887C-8984-4D24-83CB-5F044F901EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9795" activeTab="2"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -13,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$233</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$234</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$175</definedName>
     <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$242</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,21 +27,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;ACDelta&quot;" commandType="3"/>
   </connection>
-  <connection id="2" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;AlleghenyCountyCases&quot;" commandType="3"/>
   </connection>
-  <connection id="3" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;PACaseDeathCount&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="423">
   <si>
     <t>date</t>
   </si>
@@ -1096,132 +1102,6 @@
     <t>09/03/2020</t>
   </si>
   <si>
-    <t>09/04/2020</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>09/09/2020</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>09/11/2020</t>
-  </si>
-  <si>
-    <t>09/12/2020</t>
-  </si>
-  <si>
-    <t>09/13/2020</t>
-  </si>
-  <si>
-    <t>09/14/2020</t>
-  </si>
-  <si>
-    <t>09/15/2020</t>
-  </si>
-  <si>
-    <t>09/16/2020</t>
-  </si>
-  <si>
-    <t>09/17/2020</t>
-  </si>
-  <si>
-    <t>09/18/2020</t>
-  </si>
-  <si>
-    <t>09/19/2020</t>
-  </si>
-  <si>
-    <t>09/20/2020</t>
-  </si>
-  <si>
-    <t>09/21/2020</t>
-  </si>
-  <si>
-    <t>09/22/2020</t>
-  </si>
-  <si>
-    <t>09/23/2020</t>
-  </si>
-  <si>
-    <t>09/24/2020</t>
-  </si>
-  <si>
-    <t>09/25/2020</t>
-  </si>
-  <si>
-    <t>09/26/2020</t>
-  </si>
-  <si>
-    <t>09/27/2020</t>
-  </si>
-  <si>
-    <t>09/28/2020</t>
-  </si>
-  <si>
-    <t>09/29/2020</t>
-  </si>
-  <si>
-    <t>09/30/2020</t>
-  </si>
-  <si>
-    <t>10/01/2020</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>10/03/2020</t>
-  </si>
-  <si>
-    <t>10/04/2020</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>10/06/2020</t>
-  </si>
-  <si>
-    <t>10/07/2020</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>10/09/2020</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>10/12/2020</t>
-  </si>
-  <si>
-    <t>10/13/2020</t>
-  </si>
-  <si>
-    <t>10/14/2020</t>
-  </si>
-  <si>
-    <t>10/15/2020</t>
-  </si>
-  <si>
     <t>06/30/2020</t>
   </si>
   <si>
@@ -1381,103 +1261,52 @@
     <t>2020-10-15</t>
   </si>
   <si>
-    <t>10/16/2020</t>
-  </si>
-  <si>
     <t>2020-10-16</t>
   </si>
   <si>
-    <t>10/17/2020</t>
-  </si>
-  <si>
     <t>2020-10-17</t>
   </si>
   <si>
-    <t>10/18/2020</t>
-  </si>
-  <si>
     <t>2020-10-18</t>
   </si>
   <si>
-    <t>10/19/2020</t>
-  </si>
-  <si>
     <t>2020-10-19</t>
   </si>
   <si>
-    <t>10/20/2020</t>
-  </si>
-  <si>
     <t>2020-10-20</t>
   </si>
   <si>
-    <t>10/21/2020</t>
-  </si>
-  <si>
     <t>2020-10-21</t>
   </si>
   <si>
-    <t>10/22/2020</t>
-  </si>
-  <si>
     <t>2020-10-22</t>
   </si>
   <si>
-    <t>10/23/2020</t>
-  </si>
-  <si>
     <t>2020-10-23</t>
   </si>
   <si>
-    <t>10/24/2020</t>
-  </si>
-  <si>
     <t>2020-10-24</t>
   </si>
   <si>
-    <t>10/25/2020</t>
-  </si>
-  <si>
     <t>2020-10-25</t>
   </si>
   <si>
     <t>2020-10-26</t>
   </si>
   <si>
-    <t>10/26/2020</t>
-  </si>
-  <si>
-    <t>10/27/2020</t>
-  </si>
-  <si>
     <t>2020-10-27</t>
   </si>
   <si>
-    <t>10/28/2020</t>
-  </si>
-  <si>
     <t>2020-10-28</t>
   </si>
   <si>
-    <t>10/29/2020</t>
-  </si>
-  <si>
     <t>2020-10-29</t>
   </si>
   <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
     <t>2020-10-30</t>
   </si>
   <si>
-    <t>10/31/2020</t>
-  </si>
-  <si>
     <t>2020-10-31</t>
-  </si>
-  <si>
-    <t>11/01/2020</t>
   </si>
   <si>
     <t>2020-11-01</t>
@@ -1486,7 +1315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2020,12 +1849,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2081,9 +1913,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$234</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$175</c:f>
               <c:strCache>
-                <c:ptCount val="233"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2605,193 +2437,16 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>09/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>09/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>09/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>09/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>09/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>09/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>09/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>09/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>09/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>09/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>09/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>09/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>09/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>09/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>09/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>09/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>09/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>09/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>09/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>09/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>09/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>09/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>09/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>09/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>09/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>09/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>09/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>09/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>10/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>10/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>10/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>10/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>10/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>10/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>10/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>10/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>10/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>10/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>10/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>10/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>10/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>10/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>10/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>10/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>10/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>10/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>10/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>10/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>10/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>10/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>10/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$234</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3313,188 +2968,16 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>10549</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10641</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10709</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10771</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10810</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10847</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>10915</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>10969</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>11069</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>11126</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>11126</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>11268</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>11358</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>11431</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>11510</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>11578</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>11663</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>11737</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>11779</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>11821</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>11867</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>11927</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>11995</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>12101</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>12162</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12234</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12305</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12348</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12454</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12527</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12527</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>12731</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>12777</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>12854</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>12897</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>13024</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>13102</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13183</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13280</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13362</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13436</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>13533</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>13672</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>13821</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>13959</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>14075</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>14174</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>14277</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>14396</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>14529</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>14687</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>14818</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>14922</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>14995</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15101</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>15300</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>15449</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>15622</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>15796</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>15940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D41-41BB-8279-C53845499BD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3504,7 +2987,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101392384"/>
         <c:axId val="101393920"/>
@@ -3516,7 +2998,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3561,7 +3043,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3627,9 +3109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$234</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$175</c:f>
               <c:strCache>
-                <c:ptCount val="233"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4151,193 +3633,16 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>09/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>09/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>09/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>09/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>09/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>09/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>09/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>09/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>09/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>09/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>09/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>09/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>09/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>09/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>09/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>09/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>09/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>09/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>09/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>09/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>09/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>09/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>09/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>09/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>09/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>09/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>09/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>09/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>10/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>10/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>10/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>10/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>10/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>10/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>10/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>10/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>10/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>10/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>10/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>10/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>10/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>10/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>10/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>10/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>10/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>10/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>10/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>10/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>10/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>10/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>10/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$234</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4859,188 +4164,16 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC01-4D05-B713-0E9AD430FAF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5050,7 +4183,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101414400"/>
         <c:axId val="101415936"/>
@@ -5107,7 +4239,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6548,6 +5680,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E44-43A9-A116-CEA3D2CA4682}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6557,7 +5694,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101200256"/>
         <c:axId val="101201792"/>
@@ -6569,6 +5705,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6613,7 +5750,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8105,6 +7242,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D96-4DD4-A714-53F569FB6253}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9579,6 +8721,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D96-4DD4-A714-53F569FB6253}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9588,7 +8735,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101982208"/>
         <c:axId val="101983744"/>
@@ -9630,7 +8776,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9662,7 +8807,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9692,7 +8843,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9727,7 +8884,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9762,7 +8925,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9781,7 +8950,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9793,7 +8962,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 ACDelta" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 ACDelta" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
@@ -9805,7 +8974,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 PACaseDeathCount" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 PACaseDeathCount" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9817,45 +8986,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C234" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C234"/>
-  <sortState ref="A2:C234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C175" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C175" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C175">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="deaths" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="deaths" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C233"/>
-  <sortState ref="A2:C233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C233" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C233">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="Date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Cases" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Delta" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Cases" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Delta" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C242" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C242"/>
-  <sortState ref="A2:C242">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C242" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C242" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
     <sortCondition ref="A1:A7284"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="4" uniqueName="4" name="positive" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="death" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="positive" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="death" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9904,7 +9073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9937,9 +9106,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9972,6 +9158,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10147,8 +9350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
@@ -11370,7 +10573,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="B110">
         <v>2760</v>
@@ -11381,7 +10584,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="B111">
         <v>2870</v>
@@ -11392,7 +10595,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="B112">
         <v>3103</v>
@@ -11403,7 +10606,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="B113">
         <v>3280</v>
@@ -11414,7 +10617,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="B114">
         <v>3430</v>
@@ -11425,7 +10628,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="B115">
         <v>3557</v>
@@ -11436,7 +10639,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="B116">
         <v>3775</v>
@@ -11447,7 +10650,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="B117">
         <v>3979</v>
@@ -11458,7 +10661,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="B118">
         <v>4209</v>
@@ -11469,7 +10672,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="B119">
         <v>4367</v>
@@ -11480,7 +10683,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="B120">
         <v>4547</v>
@@ -11491,7 +10694,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B121">
         <v>4762</v>
@@ -11502,7 +10705,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="B122">
         <v>4962</v>
@@ -11513,7 +10716,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="B123">
         <v>5033</v>
@@ -11524,7 +10727,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="B124">
         <v>5364</v>
@@ -11535,7 +10738,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="B125">
         <v>5610</v>
@@ -11546,7 +10749,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="B126">
         <v>5750</v>
@@ -11557,7 +10760,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="B127">
         <v>5990</v>
@@ -11568,7 +10771,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="B128">
         <v>6125</v>
@@ -11579,7 +10782,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="B129">
         <v>6263</v>
@@ -11590,7 +10793,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="B130">
         <v>6435</v>
@@ -11601,7 +10804,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B131">
         <v>6574</v>
@@ -11612,7 +10815,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="B132">
         <v>6670</v>
@@ -11623,7 +10826,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="B133">
         <v>6817</v>
@@ -11634,7 +10837,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B134">
         <v>7015</v>
@@ -11645,7 +10848,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="B135">
         <v>7161</v>
@@ -11656,7 +10859,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B136">
         <v>7294</v>
@@ -11667,7 +10870,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="B137">
         <v>7474</v>
@@ -11678,7 +10881,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="B138">
         <v>7593</v>
@@ -11689,7 +10892,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="B139">
         <v>7718</v>
@@ -11700,7 +10903,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="B140">
         <v>7850</v>
@@ -11711,7 +10914,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="B141">
         <v>8094</v>
@@ -11722,7 +10925,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="B142">
         <v>8160</v>
@@ -11733,7 +10936,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="B143">
         <v>8242</v>
@@ -11744,7 +10947,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="B144">
         <v>8310</v>
@@ -11755,7 +10958,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="B145">
         <v>8442</v>
@@ -11766,7 +10969,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="B146">
         <v>8512</v>
@@ -11777,7 +10980,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="B147">
         <v>8612</v>
@@ -11788,7 +10991,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="B148">
         <v>8709</v>
@@ -11799,7 +11002,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B149">
         <v>8796</v>
@@ -11810,7 +11013,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="B150">
         <v>8857</v>
@@ -11821,7 +11024,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="B151">
         <v>8932</v>
@@ -11832,7 +11035,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="B152">
         <v>9008</v>
@@ -11843,7 +11046,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B153">
         <v>9078</v>
@@ -11854,7 +11057,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="B154">
         <v>9192</v>
@@ -11865,7 +11068,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="B155">
         <v>9282</v>
@@ -11876,7 +11079,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="B156">
         <v>9359</v>
@@ -11887,7 +11090,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="B157">
         <v>9433</v>
@@ -11898,7 +11101,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="B158">
         <v>9504</v>
@@ -11909,7 +11112,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="B159">
         <v>9549</v>
@@ -11920,7 +11123,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="B160">
         <v>9576</v>
@@ -11931,7 +11134,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="B161">
         <v>9676</v>
@@ -12092,655 +11295,6 @@
       </c>
       <c r="C175">
         <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>353</v>
-      </c>
-      <c r="B176">
-        <v>10641</v>
-      </c>
-      <c r="C176">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>354</v>
-      </c>
-      <c r="B177">
-        <v>10709</v>
-      </c>
-      <c r="C177">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>355</v>
-      </c>
-      <c r="B178">
-        <v>10771</v>
-      </c>
-      <c r="C178">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>356</v>
-      </c>
-      <c r="B179">
-        <v>10810</v>
-      </c>
-      <c r="C179">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>357</v>
-      </c>
-      <c r="B180">
-        <v>10847</v>
-      </c>
-      <c r="C180">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>358</v>
-      </c>
-      <c r="B181">
-        <v>10915</v>
-      </c>
-      <c r="C181">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>359</v>
-      </c>
-      <c r="B182">
-        <v>10969</v>
-      </c>
-      <c r="C182">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>360</v>
-      </c>
-      <c r="B183">
-        <v>11069</v>
-      </c>
-      <c r="C183">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>361</v>
-      </c>
-      <c r="B184">
-        <v>11126</v>
-      </c>
-      <c r="C184">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>362</v>
-      </c>
-      <c r="B185">
-        <v>11126</v>
-      </c>
-      <c r="C185">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186">
-        <v>11268</v>
-      </c>
-      <c r="C186">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187">
-        <v>11358</v>
-      </c>
-      <c r="C187">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>365</v>
-      </c>
-      <c r="B188">
-        <v>11431</v>
-      </c>
-      <c r="C188">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>366</v>
-      </c>
-      <c r="B189">
-        <v>11510</v>
-      </c>
-      <c r="C189">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>367</v>
-      </c>
-      <c r="B190">
-        <v>11578</v>
-      </c>
-      <c r="C190">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>368</v>
-      </c>
-      <c r="B191">
-        <v>11663</v>
-      </c>
-      <c r="C191">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>369</v>
-      </c>
-      <c r="B192">
-        <v>11737</v>
-      </c>
-      <c r="C192">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>370</v>
-      </c>
-      <c r="B193">
-        <v>11779</v>
-      </c>
-      <c r="C193">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>371</v>
-      </c>
-      <c r="B194">
-        <v>11821</v>
-      </c>
-      <c r="C194">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>372</v>
-      </c>
-      <c r="B195">
-        <v>11867</v>
-      </c>
-      <c r="C195">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>373</v>
-      </c>
-      <c r="B196">
-        <v>11927</v>
-      </c>
-      <c r="C196">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>374</v>
-      </c>
-      <c r="B197">
-        <v>11995</v>
-      </c>
-      <c r="C197">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>375</v>
-      </c>
-      <c r="B198">
-        <v>12101</v>
-      </c>
-      <c r="C198">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>376</v>
-      </c>
-      <c r="B199">
-        <v>12162</v>
-      </c>
-      <c r="C199">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>377</v>
-      </c>
-      <c r="B200">
-        <v>12234</v>
-      </c>
-      <c r="C200">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>378</v>
-      </c>
-      <c r="B201">
-        <v>12305</v>
-      </c>
-      <c r="C201">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>379</v>
-      </c>
-      <c r="B202">
-        <v>12348</v>
-      </c>
-      <c r="C202">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>380</v>
-      </c>
-      <c r="B203">
-        <v>12454</v>
-      </c>
-      <c r="C203">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>381</v>
-      </c>
-      <c r="B204">
-        <v>12527</v>
-      </c>
-      <c r="C204">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>382</v>
-      </c>
-      <c r="B205">
-        <v>12527</v>
-      </c>
-      <c r="C205">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>383</v>
-      </c>
-      <c r="B206">
-        <v>12731</v>
-      </c>
-      <c r="C206">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>384</v>
-      </c>
-      <c r="B207">
-        <v>12777</v>
-      </c>
-      <c r="C207">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>385</v>
-      </c>
-      <c r="B208">
-        <v>12854</v>
-      </c>
-      <c r="C208">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>386</v>
-      </c>
-      <c r="B209">
-        <v>12897</v>
-      </c>
-      <c r="C209">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>387</v>
-      </c>
-      <c r="B210">
-        <v>13024</v>
-      </c>
-      <c r="C210">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>388</v>
-      </c>
-      <c r="B211">
-        <v>13102</v>
-      </c>
-      <c r="C211">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>389</v>
-      </c>
-      <c r="B212">
-        <v>13183</v>
-      </c>
-      <c r="C212">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>390</v>
-      </c>
-      <c r="B213">
-        <v>13280</v>
-      </c>
-      <c r="C213">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>391</v>
-      </c>
-      <c r="B214">
-        <v>13362</v>
-      </c>
-      <c r="C214">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>392</v>
-      </c>
-      <c r="B215">
-        <v>13436</v>
-      </c>
-      <c r="C215">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>393</v>
-      </c>
-      <c r="B216">
-        <v>13533</v>
-      </c>
-      <c r="C216">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>394</v>
-      </c>
-      <c r="B217">
-        <v>13672</v>
-      </c>
-      <c r="C217">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>448</v>
-      </c>
-      <c r="B218">
-        <v>13821</v>
-      </c>
-      <c r="C218">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>450</v>
-      </c>
-      <c r="B219">
-        <v>13959</v>
-      </c>
-      <c r="C219">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>452</v>
-      </c>
-      <c r="B220">
-        <v>14075</v>
-      </c>
-      <c r="C220">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>454</v>
-      </c>
-      <c r="B221">
-        <v>14174</v>
-      </c>
-      <c r="C221">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>456</v>
-      </c>
-      <c r="B222">
-        <v>14277</v>
-      </c>
-      <c r="C222">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>458</v>
-      </c>
-      <c r="B223">
-        <v>14396</v>
-      </c>
-      <c r="C223">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>460</v>
-      </c>
-      <c r="B224">
-        <v>14529</v>
-      </c>
-      <c r="C224">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>462</v>
-      </c>
-      <c r="B225">
-        <v>14687</v>
-      </c>
-      <c r="C225">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>464</v>
-      </c>
-      <c r="B226">
-        <v>14818</v>
-      </c>
-      <c r="C226">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>466</v>
-      </c>
-      <c r="B227">
-        <v>14922</v>
-      </c>
-      <c r="C227">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>469</v>
-      </c>
-      <c r="B228">
-        <v>14995</v>
-      </c>
-      <c r="C228">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>470</v>
-      </c>
-      <c r="B229">
-        <v>15101</v>
-      </c>
-      <c r="C229">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>472</v>
-      </c>
-      <c r="B230">
-        <v>15300</v>
-      </c>
-      <c r="C230">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>474</v>
-      </c>
-      <c r="B231">
-        <v>15449</v>
-      </c>
-      <c r="C231">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>476</v>
-      </c>
-      <c r="B232">
-        <v>15622</v>
-      </c>
-      <c r="C232">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>478</v>
-      </c>
-      <c r="B233">
-        <v>15796</v>
-      </c>
-      <c r="C233">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>480</v>
-      </c>
-      <c r="B234">
-        <v>15940</v>
-      </c>
-      <c r="C234">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -12754,7 +11308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15135,7 +13689,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="B216">
         <v>13672</v>
@@ -15146,7 +13700,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="B217">
         <v>13821</v>
@@ -15157,7 +13711,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="B218">
         <v>13959</v>
@@ -15168,7 +13722,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B219">
         <v>14075</v>
@@ -15179,7 +13733,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="B220">
         <v>14174</v>
@@ -15190,7 +13744,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="B221">
         <v>14277</v>
@@ -15201,7 +13755,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="B222">
         <v>14396</v>
@@ -15212,7 +13766,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="B223">
         <v>14529</v>
@@ -15223,7 +13777,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="B224">
         <v>14687</v>
@@ -15234,7 +13788,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="B225">
         <v>14818</v>
@@ -15245,7 +13799,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="B226">
         <v>14922</v>
@@ -15256,7 +13810,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="B227">
         <v>14995</v>
@@ -15267,7 +13821,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="B228">
         <v>15101</v>
@@ -15278,7 +13832,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="B229">
         <v>15300</v>
@@ -15289,7 +13843,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="B230">
         <v>15449</v>
@@ -15300,7 +13854,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B231">
         <v>15622</v>
@@ -15311,7 +13865,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="B232">
         <v>15796</v>
@@ -15322,7 +13876,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="B233">
         <v>15940</v>
@@ -15341,7 +13895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -17822,7 +16376,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="B225">
         <v>177520</v>
@@ -17833,7 +16387,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="B226">
         <v>179086</v>
@@ -17844,7 +16398,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="B227">
         <v>180943</v>
@@ -17855,7 +16409,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B228">
         <v>182212</v>
@@ -17866,7 +16420,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="B229">
         <v>183315</v>
@@ -17877,7 +16431,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="B230">
         <v>184872</v>
@@ -17888,7 +16442,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="B231">
         <v>186297</v>
@@ -17899,7 +16453,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="B232">
         <v>188360</v>
@@ -17910,7 +16464,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="B233">
         <v>190579</v>
@@ -17921,7 +16475,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="B234">
         <v>192622</v>
@@ -17932,7 +16486,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="B235">
         <v>194288</v>
@@ -17943,7 +16497,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="B236">
         <v>195695</v>
@@ -17954,7 +16508,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="B237">
         <v>198446</v>
@@ -17965,7 +16519,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="B238">
         <v>200674</v>
@@ -17976,7 +16530,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="B239">
         <v>202876</v>
@@ -17987,7 +16541,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B240">
         <v>205517</v>
@@ -17998,7 +16552,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="B241">
         <v>208027</v>
@@ -18009,7 +16563,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="B242">
         <v>209936</v>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6887C-8984-4D24-83CB-5F044F901EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9045686-7093-4BFF-A6A7-57CB3D9B6F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$233</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$175</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$242</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$235</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$236</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$244</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="486">
   <si>
     <t>date</t>
   </si>
@@ -1310,6 +1310,195 @@
   </si>
   <si>
     <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>09/27/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>10/13/2020</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>09/19/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/28/2020</t>
+  </si>
+  <si>
+    <t>09/29/2020</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>10/14/2020</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/15/2020</t>
+  </si>
+  <si>
+    <t>09/16/2020</t>
+  </si>
+  <si>
+    <t>09/23/2020</t>
+  </si>
+  <si>
+    <t>09/24/2020</t>
+  </si>
+  <si>
+    <t>09/25/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>10/18/2020</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>09/13/2020</t>
+  </si>
+  <si>
+    <t>09/14/2020</t>
+  </si>
+  <si>
+    <t>09/21/2020</t>
+  </si>
+  <si>
+    <t>09/22/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>10/16/2020</t>
+  </si>
+  <si>
+    <t>10/17/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
   </si>
 </sst>
 </file>
@@ -1913,9 +2102,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$175</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$236</c:f>
               <c:strCache>
-                <c:ptCount val="174"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2437,16 +2626,199 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$175</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2968,6 +3340,189 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>10549</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10641</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10709</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10771</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10810</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10847</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>10915</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10969</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11069</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11268</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11358</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11431</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11510</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11578</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11663</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11737</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11779</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11821</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11867</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11927</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>11995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12101</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12162</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12234</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12305</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12348</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12454</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12731</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12777</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12854</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12897</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13024</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13102</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>13183</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13280</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13362</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13436</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13672</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13821</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13959</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>14075</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>14174</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>14277</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>14396</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14529</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>14687</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14818</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>14922</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14995</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15101</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15449</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15622</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15796</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15940</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>16060</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>16210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,9 +3664,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$175</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$236</c:f>
               <c:strCache>
-                <c:ptCount val="174"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3633,16 +4188,199 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$175</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4164,6 +4902,189 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,9 +5193,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$233</c:f>
+              <c:f>'Case Changes'!$A$2:$A$235</c:f>
               <c:strCache>
-                <c:ptCount val="232"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -4970,16 +5891,22 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$233</c:f>
+              <c:f>'Case Changes'!$C$2:$C$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
+                <c:ptCount val="234"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5675,6 +6602,12 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,9 +6713,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$242</c:f>
+              <c:f>State!$A$2:$A$244</c:f>
               <c:strCache>
-                <c:ptCount val="241"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -6505,16 +7438,22 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$242</c:f>
+              <c:f>State!$C$2:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7237,6 +8176,12 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>8817</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>8823</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7259,9 +8204,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$242</c:f>
+              <c:f>State!$A$2:$A$244</c:f>
               <c:strCache>
-                <c:ptCount val="241"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7984,16 +8929,22 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$242</c:f>
+              <c:f>State!$B$2:$B$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -8716,6 +9667,12 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>209936</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>211996</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>214871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8986,9 +9943,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C175" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C175" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C236" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C236">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9001,9 +9958,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C233" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C233" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C235" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C235" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C235">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9016,10 +9973,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C242" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C242" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
-    <sortCondition ref="A1:A7284"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C244" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C244" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C244">
+    <sortCondition ref="A1:A7286"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -9351,9 +10308,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
@@ -11297,6 +12254,677 @@
         <v>344</v>
       </c>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>437</v>
+      </c>
+      <c r="B176">
+        <v>10641</v>
+      </c>
+      <c r="C176">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>467</v>
+      </c>
+      <c r="B177">
+        <v>10709</v>
+      </c>
+      <c r="C177">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>468</v>
+      </c>
+      <c r="B178">
+        <v>10771</v>
+      </c>
+      <c r="C178">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>452</v>
+      </c>
+      <c r="B179">
+        <v>10810</v>
+      </c>
+      <c r="C179">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>453</v>
+      </c>
+      <c r="B180">
+        <v>10847</v>
+      </c>
+      <c r="C180">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>423</v>
+      </c>
+      <c r="B181">
+        <v>10915</v>
+      </c>
+      <c r="C181">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>424</v>
+      </c>
+      <c r="B182">
+        <v>10969</v>
+      </c>
+      <c r="C182">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>438</v>
+      </c>
+      <c r="B183">
+        <v>11069</v>
+      </c>
+      <c r="C183">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>439</v>
+      </c>
+      <c r="B184">
+        <v>11126</v>
+      </c>
+      <c r="C184">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>469</v>
+      </c>
+      <c r="B185">
+        <v>11126</v>
+      </c>
+      <c r="C185">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>470</v>
+      </c>
+      <c r="B186">
+        <v>11268</v>
+      </c>
+      <c r="C186">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>454</v>
+      </c>
+      <c r="B187">
+        <v>11358</v>
+      </c>
+      <c r="C187">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>455</v>
+      </c>
+      <c r="B188">
+        <v>11431</v>
+      </c>
+      <c r="C188">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189">
+        <v>11510</v>
+      </c>
+      <c r="C189">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>426</v>
+      </c>
+      <c r="B190">
+        <v>11578</v>
+      </c>
+      <c r="C190">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>440</v>
+      </c>
+      <c r="B191">
+        <v>11663</v>
+      </c>
+      <c r="C191">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192">
+        <v>11737</v>
+      </c>
+      <c r="C192">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>471</v>
+      </c>
+      <c r="B193">
+        <v>11779</v>
+      </c>
+      <c r="C193">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>472</v>
+      </c>
+      <c r="B194">
+        <v>11821</v>
+      </c>
+      <c r="C194">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>456</v>
+      </c>
+      <c r="B195">
+        <v>11867</v>
+      </c>
+      <c r="C195">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>457</v>
+      </c>
+      <c r="B196">
+        <v>11927</v>
+      </c>
+      <c r="C196">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>458</v>
+      </c>
+      <c r="B197">
+        <v>11995</v>
+      </c>
+      <c r="C197">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>427</v>
+      </c>
+      <c r="B198">
+        <v>12101</v>
+      </c>
+      <c r="C198">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>428</v>
+      </c>
+      <c r="B199">
+        <v>12162</v>
+      </c>
+      <c r="C199">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>442</v>
+      </c>
+      <c r="B200">
+        <v>12234</v>
+      </c>
+      <c r="C200">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>443</v>
+      </c>
+      <c r="B201">
+        <v>12305</v>
+      </c>
+      <c r="C201">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>473</v>
+      </c>
+      <c r="B202">
+        <v>12348</v>
+      </c>
+      <c r="C202">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>474</v>
+      </c>
+      <c r="B203">
+        <v>12454</v>
+      </c>
+      <c r="C203">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>459</v>
+      </c>
+      <c r="B204">
+        <v>12527</v>
+      </c>
+      <c r="C204">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>460</v>
+      </c>
+      <c r="B205">
+        <v>12527</v>
+      </c>
+      <c r="C205">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>429</v>
+      </c>
+      <c r="B206">
+        <v>12731</v>
+      </c>
+      <c r="C206">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>430</v>
+      </c>
+      <c r="B207">
+        <v>12777</v>
+      </c>
+      <c r="C207">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>444</v>
+      </c>
+      <c r="B208">
+        <v>12854</v>
+      </c>
+      <c r="C208">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>445</v>
+      </c>
+      <c r="B209">
+        <v>12897</v>
+      </c>
+      <c r="C209">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>475</v>
+      </c>
+      <c r="B210">
+        <v>13024</v>
+      </c>
+      <c r="C210">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>476</v>
+      </c>
+      <c r="B211">
+        <v>13102</v>
+      </c>
+      <c r="C211">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>461</v>
+      </c>
+      <c r="B212">
+        <v>13183</v>
+      </c>
+      <c r="C212">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>462</v>
+      </c>
+      <c r="B213">
+        <v>13280</v>
+      </c>
+      <c r="C213">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214">
+        <v>13362</v>
+      </c>
+      <c r="C214">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215">
+        <v>13436</v>
+      </c>
+      <c r="C215">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>446</v>
+      </c>
+      <c r="B216">
+        <v>13533</v>
+      </c>
+      <c r="C216">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>447</v>
+      </c>
+      <c r="B217">
+        <v>13672</v>
+      </c>
+      <c r="C217">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>477</v>
+      </c>
+      <c r="B218">
+        <v>13821</v>
+      </c>
+      <c r="C218">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>478</v>
+      </c>
+      <c r="B219">
+        <v>13959</v>
+      </c>
+      <c r="C219">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>463</v>
+      </c>
+      <c r="B220">
+        <v>14075</v>
+      </c>
+      <c r="C220">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>464</v>
+      </c>
+      <c r="B221">
+        <v>14174</v>
+      </c>
+      <c r="C221">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222">
+        <v>14277</v>
+      </c>
+      <c r="C222">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>434</v>
+      </c>
+      <c r="B223">
+        <v>14396</v>
+      </c>
+      <c r="C223">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224">
+        <v>14529</v>
+      </c>
+      <c r="C224">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>449</v>
+      </c>
+      <c r="B225">
+        <v>14687</v>
+      </c>
+      <c r="C225">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>479</v>
+      </c>
+      <c r="B226">
+        <v>14818</v>
+      </c>
+      <c r="C226">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>480</v>
+      </c>
+      <c r="B227">
+        <v>14922</v>
+      </c>
+      <c r="C227">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228">
+        <v>14995</v>
+      </c>
+      <c r="C228">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>466</v>
+      </c>
+      <c r="B229">
+        <v>15101</v>
+      </c>
+      <c r="C229">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>435</v>
+      </c>
+      <c r="B230">
+        <v>15300</v>
+      </c>
+      <c r="C230">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>436</v>
+      </c>
+      <c r="B231">
+        <v>15449</v>
+      </c>
+      <c r="C231">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>450</v>
+      </c>
+      <c r="B232">
+        <v>15622</v>
+      </c>
+      <c r="C232">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>451</v>
+      </c>
+      <c r="B233">
+        <v>15796</v>
+      </c>
+      <c r="C233">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>481</v>
+      </c>
+      <c r="B234">
+        <v>15940</v>
+      </c>
+      <c r="C234">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>482</v>
+      </c>
+      <c r="B235">
+        <v>16060</v>
+      </c>
+      <c r="C235">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>483</v>
+      </c>
+      <c r="B236">
+        <v>16210</v>
+      </c>
+      <c r="C236">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11309,7 +12937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -13885,6 +15513,28 @@
         <v>144</v>
       </c>
     </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>485</v>
+      </c>
+      <c r="B234">
+        <v>16060</v>
+      </c>
+      <c r="C234">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235">
+        <v>16210</v>
+      </c>
+      <c r="C235">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13896,9 +15546,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -16572,6 +18222,28 @@
         <v>8817</v>
       </c>
     </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>485</v>
+      </c>
+      <c r="B243">
+        <v>211996</v>
+      </c>
+      <c r="C243">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244">
+        <v>214871</v>
+      </c>
+      <c r="C244">
+        <v>8855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9045686-7093-4BFF-A6A7-57CB3D9B6F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A68456-A0C5-484A-B0F5-BD218795BA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,18 @@
     <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$236</definedName>
     <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$244</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9829,15 +9840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10310,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A68456-A0C5-484A-B0F5-BD218795BA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5FB5C-986F-4DA8-8CEA-9B6E09A178CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$235</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$236</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$244</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$236</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$237</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="488">
   <si>
     <t>date</t>
   </si>
@@ -1510,6 +1510,12 @@
   </si>
   <si>
     <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
   </si>
 </sst>
 </file>
@@ -2113,9 +2119,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$236</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$237</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2820,16 +2826,19 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$236</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3534,6 +3543,9 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>16210</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>16410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,9 +3687,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$236</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$237</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4382,16 +4394,19 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$236</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5096,6 +5111,9 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,9 +5222,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$235</c:f>
+              <c:f>'Case Changes'!$A$2:$A$236</c:f>
               <c:strCache>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5908,16 +5926,19 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$235</c:f>
+              <c:f>'Case Changes'!$C$2:$C$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="234"/>
+                <c:ptCount val="235"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6619,6 +6640,9 @@
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6724,9 +6748,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$244</c:f>
+              <c:f>State!$A$2:$A$245</c:f>
               <c:strCache>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7455,16 +7479,19 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$244</c:f>
+              <c:f>State!$C$2:$C$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8193,6 +8220,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>8855</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8215,9 +8245,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$244</c:f>
+              <c:f>State!$A$2:$A$245</c:f>
               <c:strCache>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8946,16 +8976,19 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$244</c:f>
+              <c:f>State!$B$2:$B$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9684,6 +9717,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>214871</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>217666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9954,9 +9990,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C236" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C237" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C237">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -9969,9 +10005,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C235" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C235" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C236" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C236">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -9984,10 +10020,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C244" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C244" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C244">
-    <sortCondition ref="A1:A7286"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
+    <sortCondition ref="A1:A7287"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10319,7 +10355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O236"/>
+  <dimension ref="A1:O237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -12936,6 +12972,17 @@
         <v>437</v>
       </c>
     </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237">
+        <v>16410</v>
+      </c>
+      <c r="C237">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12948,7 +12995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15546,6 +15593,17 @@
         <v>150</v>
       </c>
     </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>487</v>
+      </c>
+      <c r="B236">
+        <v>16410</v>
+      </c>
+      <c r="C236">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15557,7 +15615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18255,6 +18313,17 @@
         <v>8855</v>
       </c>
     </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>487</v>
+      </c>
+      <c r="B245">
+        <v>217666</v>
+      </c>
+      <c r="C245">
+        <v>8890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5FB5C-986F-4DA8-8CEA-9B6E09A178CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD3488-5579-4540-B2DE-A644AA3BA3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -5217,9 +5217,6 @@
           <c:tx>
             <c:v>Case Changes</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Case Changes'!$A$2:$A$236</c:f>
@@ -6662,6 +6659,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101200256"/>
         <c:axId val="101201792"/>
@@ -10357,7 +10355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -12997,7 +12995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -15617,7 +15615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD3488-5579-4540-B2DE-A644AA3BA3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2FDAB-B685-45DA-8EDF-B4B50E44ACEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$236</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$237</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$245</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$237</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$238</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$246</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="490">
   <si>
     <t>date</t>
   </si>
@@ -1516,6 +1516,12 @@
   </si>
   <si>
     <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
   </si>
 </sst>
 </file>
@@ -2119,9 +2125,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$237</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$238</c:f>
               <c:strCache>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2829,16 +2835,19 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$237</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3546,6 +3555,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>16410</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>16599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,9 +3699,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$237</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$238</c:f>
               <c:strCache>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4397,16 +4409,19 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$237</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5113,6 +5128,9 @@
                   <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="235">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>442</c:v>
                 </c:pt>
               </c:numCache>
@@ -5219,9 +5237,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$236</c:f>
+              <c:f>'Case Changes'!$A$2:$A$237</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5926,16 +5944,19 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$236</c:f>
+              <c:f>'Case Changes'!$C$2:$C$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="236"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6640,6 +6661,9 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6746,9 +6770,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$245</c:f>
+              <c:f>State!$A$2:$A$246</c:f>
               <c:strCache>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7480,16 +7504,19 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$245</c:f>
+              <c:f>State!$C$2:$C$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8221,6 +8248,9 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>8890</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8243,9 +8273,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$245</c:f>
+              <c:f>State!$A$2:$A$246</c:f>
               <c:strCache>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8977,16 +9007,19 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$245</c:f>
+              <c:f>State!$B$2:$B$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9718,6 +9751,9 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>217666</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>220566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,9 +10024,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C237" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C238" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10003,9 +10039,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C236" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C236" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C237" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C237">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10018,10 +10054,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
-    <sortCondition ref="A1:A7287"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
+    <sortCondition ref="A1:A7288"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10353,7 +10389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O237"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView topLeftCell="G2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -12981,6 +13017,17 @@
         <v>442</v>
       </c>
     </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>488</v>
+      </c>
+      <c r="B238">
+        <v>16599</v>
+      </c>
+      <c r="C238">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12993,7 +13040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15602,6 +15649,17 @@
         <v>200</v>
       </c>
     </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>489</v>
+      </c>
+      <c r="B237">
+        <v>16599</v>
+      </c>
+      <c r="C237">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15613,7 +15671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18322,6 +18380,17 @@
         <v>8890</v>
       </c>
     </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>489</v>
+      </c>
+      <c r="B246">
+        <v>220566</v>
+      </c>
+      <c r="C246">
+        <v>8937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2FDAB-B685-45DA-8EDF-B4B50E44ACEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF2AC4-4E4C-42DD-ADA2-11DD89895B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -10391,7 +10391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O238"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -13042,7 +13042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -15673,7 +15673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF2AC4-4E4C-42DD-ADA2-11DD89895B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B12221-089C-44A2-A8BE-E3D2AD4AAF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$237</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$238</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$246</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$238</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$239</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="492">
   <si>
     <t>date</t>
   </si>
@@ -1522,6 +1522,12 @@
   </si>
   <si>
     <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
   </si>
 </sst>
 </file>
@@ -2125,9 +2131,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$238</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$239</c:f>
               <c:strCache>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2838,16 +2844,19 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$238</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3558,6 +3567,9 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>16599</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>16838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,9 +3711,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$238</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$239</c:f>
               <c:strCache>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4412,16 +4424,19 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$238</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5132,6 +5147,9 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5237,9 +5255,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$237</c:f>
+              <c:f>'Case Changes'!$A$2:$A$238</c:f>
               <c:strCache>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5947,16 +5965,19 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$237</c:f>
+              <c:f>'Case Changes'!$C$2:$C$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="236"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6664,6 +6685,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6770,9 +6794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$246</c:f>
+              <c:f>State!$A$2:$A$247</c:f>
               <c:strCache>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7507,16 +7531,19 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$246</c:f>
+              <c:f>State!$C$2:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8251,6 +8278,9 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>8937</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8273,9 +8303,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$246</c:f>
+              <c:f>State!$A$2:$A$247</c:f>
               <c:strCache>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9010,16 +9040,19 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$246</c:f>
+              <c:f>State!$B$2:$B$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9754,6 +9787,9 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>220566</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>223950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10024,9 +10060,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C238" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C239" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10039,9 +10075,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C237" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C237" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C238" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10054,10 +10090,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
-    <sortCondition ref="A1:A7288"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
+    <sortCondition ref="A1:A7289"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10389,7 +10425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O238"/>
+  <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -13028,6 +13064,17 @@
         <v>442</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>490</v>
+      </c>
+      <c r="B239">
+        <v>16838</v>
+      </c>
+      <c r="C239">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13040,7 +13087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15660,6 +15707,17 @@
         <v>189</v>
       </c>
     </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>491</v>
+      </c>
+      <c r="B238">
+        <v>16838</v>
+      </c>
+      <c r="C238">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15671,7 +15729,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18391,6 +18449,17 @@
         <v>8937</v>
       </c>
     </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>491</v>
+      </c>
+      <c r="B247">
+        <v>223950</v>
+      </c>
+      <c r="C247">
+        <v>8975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B12221-089C-44A2-A8BE-E3D2AD4AAF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7747D36-D986-4245-BD1C-4F7DC53C9053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$238</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$239</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$247</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$239</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$240</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$248</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="494">
   <si>
     <t>date</t>
   </si>
@@ -1528,6 +1528,12 @@
   </si>
   <si>
     <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
   </si>
 </sst>
 </file>
@@ -2131,9 +2137,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$239</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$240</c:f>
               <c:strCache>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2847,16 +2853,19 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$239</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3570,6 +3579,9 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>16838</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>17126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,9 +3723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$239</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$240</c:f>
               <c:strCache>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4427,16 +4439,19 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$239</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5150,6 +5165,9 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,9 +5273,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$238</c:f>
+              <c:f>'Case Changes'!$A$2:$A$239</c:f>
               <c:strCache>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5968,16 +5986,19 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$238</c:f>
+              <c:f>'Case Changes'!$C$2:$C$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6688,6 +6709,9 @@
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6794,9 +6818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$247</c:f>
+              <c:f>State!$A$2:$A$248</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7534,16 +7558,19 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$247</c:f>
+              <c:f>State!$C$2:$C$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8281,6 +8308,9 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>8975</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8303,9 +8333,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$247</c:f>
+              <c:f>State!$A$2:$A$248</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9043,16 +9073,19 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$247</c:f>
+              <c:f>State!$B$2:$B$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9790,6 +9823,9 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>223950</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>227985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10060,9 +10096,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C239" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10075,9 +10111,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C238" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C238" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C239" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10090,10 +10126,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
-    <sortCondition ref="A1:A7289"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C248" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C248" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C248">
+    <sortCondition ref="A1:A7290"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10425,7 +10461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O239"/>
+  <dimension ref="A1:O240"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -13075,6 +13111,17 @@
         <v>446</v>
       </c>
     </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>492</v>
+      </c>
+      <c r="B240">
+        <v>17126</v>
+      </c>
+      <c r="C240">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13087,7 +13134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15718,6 +15765,17 @@
         <v>239</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>493</v>
+      </c>
+      <c r="B239">
+        <v>17126</v>
+      </c>
+      <c r="C239">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15729,7 +15787,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18460,6 +18518,17 @@
         <v>8975</v>
       </c>
     </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>493</v>
+      </c>
+      <c r="B248">
+        <v>227985</v>
+      </c>
+      <c r="C248">
+        <v>9015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7747D36-D986-4245-BD1C-4F7DC53C9053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112E462-F21C-4893-87C1-5F747CCDAFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$239</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$240</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$248</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$240</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$241</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="496">
   <si>
     <t>date</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
   </si>
 </sst>
 </file>
@@ -2137,9 +2143,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$240</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$241</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2856,16 +2862,19 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$240</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3582,6 +3591,9 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>17126</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,9 +3735,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$240</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$241</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4442,16 +4454,19 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$240</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5167,6 +5182,9 @@
                   <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="238">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="239">
                   <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
@@ -5273,9 +5291,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$239</c:f>
+              <c:f>'Case Changes'!$A$2:$A$240</c:f>
               <c:strCache>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -5989,16 +6007,19 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$239</c:f>
+              <c:f>'Case Changes'!$C$2:$C$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="238"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6712,6 +6733,9 @@
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6818,9 +6842,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$248</c:f>
+              <c:f>State!$A$2:$A$249</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7561,16 +7585,19 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$248</c:f>
+              <c:f>State!$C$2:$C$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8311,6 +8338,9 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>9015</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8333,9 +8363,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$248</c:f>
+              <c:f>State!$A$2:$A$249</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9076,16 +9106,19 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$248</c:f>
+              <c:f>State!$B$2:$B$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9826,6 +9859,9 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>227985</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>230894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10096,9 +10132,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C241" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C241" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10111,9 +10147,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C239" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C239" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10126,10 +10162,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C248" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C248" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C248">
-    <sortCondition ref="A1:A7290"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C249" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C249" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C249">
+    <sortCondition ref="A1:A7291"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10461,7 +10497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O240"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -13122,6 +13158,17 @@
         <v>447</v>
       </c>
     </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>494</v>
+      </c>
+      <c r="B241">
+        <v>17386</v>
+      </c>
+      <c r="C241">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13134,7 +13181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15776,6 +15823,17 @@
         <v>288</v>
       </c>
     </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>495</v>
+      </c>
+      <c r="B240">
+        <v>17386</v>
+      </c>
+      <c r="C240">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15787,7 +15845,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18529,6 +18587,17 @@
         <v>9015</v>
       </c>
     </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>495</v>
+      </c>
+      <c r="B249">
+        <v>230894</v>
+      </c>
+      <c r="C249">
+        <v>9020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112E462-F21C-4893-87C1-5F747CCDAFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B57FB1-FA98-40C4-BACE-B982D695BD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$240</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$241</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$249</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$241</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$242</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$250</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="498">
   <si>
     <t>date</t>
   </si>
@@ -1540,6 +1540,12 @@
   </si>
   <si>
     <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
   </si>
 </sst>
 </file>
@@ -2143,9 +2149,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$241</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$242</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2865,16 +2871,19 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$241</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3594,6 +3603,9 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>17386</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>17656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3735,9 +3747,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$241</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$242</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4457,16 +4469,19 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$241</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5185,6 +5200,9 @@
                   <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="239">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="240">
                   <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
@@ -5291,9 +5309,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$240</c:f>
+              <c:f>'Case Changes'!$A$2:$A$241</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6010,16 +6028,19 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$240</c:f>
+              <c:f>'Case Changes'!$C$2:$C$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6736,6 +6757,9 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6842,9 +6866,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$249</c:f>
+              <c:f>State!$A$2:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7588,16 +7612,19 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$249</c:f>
+              <c:f>State!$C$2:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8341,6 +8368,9 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>9020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,9 +8393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$249</c:f>
+              <c:f>State!$A$2:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9109,16 +9139,19 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$249</c:f>
+              <c:f>State!$B$2:$B$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9862,6 +9895,9 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>230894</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>234296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10132,9 +10168,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C241" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C241" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C242" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C242" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10147,9 +10183,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C240" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C241" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C241" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10162,10 +10198,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C249" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C249" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C249">
-    <sortCondition ref="A1:A7291"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C250" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C250" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C250">
+    <sortCondition ref="A1:A7292"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10497,7 +10533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:O242"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -13169,6 +13205,17 @@
         <v>447</v>
       </c>
     </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>496</v>
+      </c>
+      <c r="B242">
+        <v>17656</v>
+      </c>
+      <c r="C242">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13181,7 +13228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -15834,6 +15881,17 @@
         <v>260</v>
       </c>
     </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>497</v>
+      </c>
+      <c r="B241">
+        <v>17656</v>
+      </c>
+      <c r="C241">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15845,7 +15903,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -18598,6 +18656,17 @@
         <v>9020</v>
       </c>
     </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>497</v>
+      </c>
+      <c r="B250">
+        <v>234296</v>
+      </c>
+      <c r="C250">
+        <v>9024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1811CA-6E6B-4C26-9D4A-BA47D9D13971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D206BC4-7219-4EFA-8D1E-71F354D7AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$243</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$244</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$252</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$244</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$245</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="504">
   <si>
     <t>date</t>
   </si>
@@ -1558,6 +1558,12 @@
   </si>
   <si>
     <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
   </si>
 </sst>
 </file>
@@ -2161,9 +2167,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$244</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$245</c:f>
               <c:strCache>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2892,16 +2898,19 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>11/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$244</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3630,6 +3639,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>18339</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>18751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,9 +3783,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$244</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$245</c:f>
               <c:strCache>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4502,16 +4514,19 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>11/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$244</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5240,6 +5255,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,9 +5363,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$243</c:f>
+              <c:f>'Case Changes'!$A$2:$A$244</c:f>
               <c:strCache>
-                <c:ptCount val="242"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6073,16 +6091,19 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$243</c:f>
+              <c:f>'Case Changes'!$C$2:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6808,6 +6829,9 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,9 +6938,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$252</c:f>
+              <c:f>State!$A$2:$A$253</c:f>
               <c:strCache>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7669,16 +7693,19 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$252</c:f>
+              <c:f>State!$C$2:$C$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8431,6 +8458,9 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>9145</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8453,9 +8483,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$252</c:f>
+              <c:f>State!$A$2:$A$253</c:f>
               <c:strCache>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9208,16 +9238,19 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$252</c:f>
+              <c:f>State!$B$2:$B$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -9970,6 +10003,9 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>243368</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>248856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10240,9 +10276,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C244" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C244" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C244">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10255,9 +10291,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C243" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C243" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C243">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C244" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C244" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C244">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10270,10 +10306,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C252" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C252" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C252">
-    <sortCondition ref="A1:A7294"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
+    <sortCondition ref="A1:A7295"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10605,7 +10641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13310,6 +13346,17 @@
         <v>453</v>
       </c>
     </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245">
+        <v>18751</v>
+      </c>
+      <c r="C245">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13322,9 +13369,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
@@ -16008,6 +16055,17 @@
         <v>366</v>
       </c>
     </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>502</v>
+      </c>
+      <c r="B244">
+        <v>18751</v>
+      </c>
+      <c r="C244">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16019,7 +16077,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -18805,6 +18863,17 @@
         <v>9145</v>
       </c>
     </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253">
+        <v>248856</v>
+      </c>
+      <c r="C253">
+        <v>9194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D206BC4-7219-4EFA-8D1E-71F354D7AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CC4223-0630-44EB-8A67-3308DC61A3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$244</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$245</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$253</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$245</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$246</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="506">
   <si>
     <t>date</t>
   </si>
@@ -1564,6 +1564,12 @@
   </si>
   <si>
     <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
   </si>
 </sst>
 </file>
@@ -2167,9 +2173,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$245</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$246</c:f>
               <c:strCache>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2901,16 +2907,19 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>11/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$245</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3642,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>18751</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>19129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,9 +3795,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$245</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$246</c:f>
               <c:strCache>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4517,16 +4529,19 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>11/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$245</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5258,6 +5273,9 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,9 +5381,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$244</c:f>
+              <c:f>'Case Changes'!$A$2:$A$245</c:f>
               <c:strCache>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6094,16 +6112,19 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$244</c:f>
+              <c:f>'Case Changes'!$C$2:$C$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6832,6 +6853,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6938,9 +6962,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$253</c:f>
+              <c:f>State!$A$2:$A$254</c:f>
               <c:strCache>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7696,16 +7720,19 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$253</c:f>
+              <c:f>State!$C$2:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8461,6 +8488,9 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>9194</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8483,9 +8513,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$253</c:f>
+              <c:f>State!$A$2:$A$254</c:f>
               <c:strCache>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9241,16 +9271,19 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$253</c:f>
+              <c:f>State!$B$2:$B$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10006,6 +10039,9 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>248856</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>254387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10276,9 +10312,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10291,9 +10327,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C244" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C244" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C244">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10306,10 +10342,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
-    <sortCondition ref="A1:A7295"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
+    <sortCondition ref="A1:A7296"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10641,9 +10677,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A210" workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -13357,6 +13393,17 @@
         <v>456</v>
       </c>
     </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>505</v>
+      </c>
+      <c r="B246">
+        <v>19129</v>
+      </c>
+      <c r="C246">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13369,7 +13416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16066,6 +16113,17 @@
         <v>412</v>
       </c>
     </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>504</v>
+      </c>
+      <c r="B245">
+        <v>19129</v>
+      </c>
+      <c r="C245">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16077,7 +16135,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -18874,6 +18932,17 @@
         <v>9194</v>
       </c>
     </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254">
+        <v>254387</v>
+      </c>
+      <c r="C254">
+        <v>9224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CC4223-0630-44EB-8A67-3308DC61A3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D138E-7988-4477-89EC-7FFA79340A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$245</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$246</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$254</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$246</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$247</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$255</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;ACDelta&quot;" commandType="3"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;AlleghenyCountyCases&quot;" commandType="3"/>
   </connection>
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="508">
   <si>
     <t>date</t>
   </si>
@@ -1570,6 +1570,12 @@
   </si>
   <si>
     <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
   </si>
 </sst>
 </file>
@@ -2173,9 +2179,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$246</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$247</c:f>
               <c:strCache>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2910,16 +2916,19 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$246</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3654,6 +3663,9 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>19129</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>19499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,9 +3807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$246</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$247</c:f>
               <c:strCache>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4532,16 +4544,19 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$246</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5275,6 +5290,9 @@
                   <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="244">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
@@ -5381,9 +5399,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$245</c:f>
+              <c:f>'Case Changes'!$A$2:$A$246</c:f>
               <c:strCache>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6115,16 +6133,19 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$245</c:f>
+              <c:f>'Case Changes'!$C$2:$C$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6856,6 +6877,9 @@
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,9 +6986,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$254</c:f>
+              <c:f>State!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7723,16 +7747,19 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$254</c:f>
+              <c:f>State!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8491,6 +8518,9 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>9224</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8513,9 +8543,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$254</c:f>
+              <c:f>State!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9274,16 +9304,19 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$254</c:f>
+              <c:f>State!$B$2:$B$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10042,6 +10075,9 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>254387</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>259938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10276,7 +10312,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" refreshOnLoad="1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -10312,9 +10348,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10327,9 +10363,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C245" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C245" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10342,10 +10378,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
-    <sortCondition ref="A1:A7296"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
+    <sortCondition ref="A1:A7297"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10677,9 +10713,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -13404,6 +13440,17 @@
         <v>458</v>
       </c>
     </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>507</v>
+      </c>
+      <c r="B247">
+        <v>19499</v>
+      </c>
+      <c r="C247">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13416,7 +13463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16124,6 +16171,17 @@
         <v>378</v>
       </c>
     </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>506</v>
+      </c>
+      <c r="B246">
+        <v>19499</v>
+      </c>
+      <c r="C246">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16135,9 +16193,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -18943,6 +19001,17 @@
         <v>9224</v>
       </c>
     </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255">
+        <v>259938</v>
+      </c>
+      <c r="C255">
+        <v>9274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D138E-7988-4477-89EC-7FFA79340A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EC7E2-5282-408D-923F-6ADF2031709F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$246</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$247</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$255</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$247</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$248</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$256</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="510">
   <si>
     <t>date</t>
   </si>
@@ -1576,6 +1576,12 @@
   </si>
   <si>
     <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
   </si>
 </sst>
 </file>
@@ -2179,9 +2185,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$247</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$248</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2919,16 +2925,19 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>11/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$247</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3666,6 +3675,9 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>19499</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>20026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,9 +3819,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$247</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$248</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4547,16 +4559,19 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>11/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$247</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5293,6 +5308,9 @@
                   <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="245">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
@@ -5399,9 +5417,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$246</c:f>
+              <c:f>'Case Changes'!$A$2:$A$247</c:f>
               <c:strCache>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6136,16 +6154,19 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$246</c:f>
+              <c:f>'Case Changes'!$C$2:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="245"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6880,6 +6901,9 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6986,9 +7010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$255</c:f>
+              <c:f>State!$A$2:$A$256</c:f>
               <c:strCache>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7750,16 +7774,19 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$255</c:f>
+              <c:f>State!$C$2:$C$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8521,6 +8548,9 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>9274</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8543,9 +8573,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$255</c:f>
+              <c:f>State!$A$2:$A$256</c:f>
               <c:strCache>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9307,16 +9337,19 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$255</c:f>
+              <c:f>State!$B$2:$B$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10078,6 +10111,9 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>259938</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>265137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10348,9 +10384,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C248" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C248" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C248">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10363,9 +10399,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C246" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C246" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C246">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10378,10 +10414,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
-    <sortCondition ref="A1:A7297"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
+    <sortCondition ref="A1:A7298"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10713,7 +10749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13451,6 +13487,17 @@
         <v>458</v>
       </c>
     </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>508</v>
+      </c>
+      <c r="B248">
+        <v>20026</v>
+      </c>
+      <c r="C248">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13463,7 +13510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16182,6 +16229,17 @@
         <v>370</v>
       </c>
     </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>509</v>
+      </c>
+      <c r="B247">
+        <v>20026</v>
+      </c>
+      <c r="C247">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16193,7 +16251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19012,6 +19070,17 @@
         <v>9274</v>
       </c>
     </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>509</v>
+      </c>
+      <c r="B256">
+        <v>265137</v>
+      </c>
+      <c r="C256">
+        <v>9312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EC7E2-5282-408D-923F-6ADF2031709F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFB99B-1E76-44A8-B443-479130FE0C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$247</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$248</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$256</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$249</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$250</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="514">
   <si>
     <t>date</t>
   </si>
@@ -789,6 +789,21 @@
     <t>11/10/2020</t>
   </si>
   <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1521,6 +1536,21 @@
     <t>2020-11-10</t>
   </si>
   <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -1554,34 +1584,16 @@
     <t>2020-03-14</t>
   </si>
   <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>2020-11-11</t>
-  </si>
-  <si>
-    <t>2020-11-12</t>
-  </si>
-  <si>
-    <t>11/12/2020</t>
-  </si>
-  <si>
-    <t>2020-11-13</t>
-  </si>
-  <si>
-    <t>11/13/2020</t>
-  </si>
-  <si>
-    <t>2020-11-14</t>
-  </si>
-  <si>
-    <t>11/14/2020</t>
-  </si>
-  <si>
-    <t>11/15/2020</t>
-  </si>
-  <si>
-    <t>2020-11-15</t>
+    <t>11/16/2020</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
   </si>
 </sst>
 </file>
@@ -2185,9 +2197,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$248</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2928,16 +2940,22 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$248</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3678,6 +3696,12 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>20026</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>20526</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>20814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,9 +3843,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$248</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4562,16 +4586,22 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$248</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5312,6 +5342,12 @@
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,9 +5453,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$247</c:f>
+              <c:f>'Case Changes'!$A$2:$A$249</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6157,16 +6193,22 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$247</c:f>
+              <c:f>'Case Changes'!$C$2:$C$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6904,6 +6946,12 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7010,9 +7058,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$256</c:f>
+              <c:f>State!$A$2:$A$258</c:f>
               <c:strCache>
-                <c:ptCount val="255"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7777,16 +7825,22 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$256</c:f>
+              <c:f>State!$C$2:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8551,6 +8605,12 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>9312</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9325</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8573,9 +8633,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$256</c:f>
+              <c:f>State!$A$2:$A$258</c:f>
               <c:strCache>
-                <c:ptCount val="255"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9340,16 +9400,22 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$256</c:f>
+              <c:f>State!$B$2:$B$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10114,6 +10180,12 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>265137</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>269613</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>275513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10384,9 +10456,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C248" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C248" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C250" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C250" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C250">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10399,9 +10471,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C247" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C247" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C249" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C249" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C249">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10414,10 +10486,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
-    <sortCondition ref="A1:A7298"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
+    <sortCondition ref="A1:A7300"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10749,7 +10821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13445,7 +13517,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="B244">
         <v>18339</v>
@@ -13456,7 +13528,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>503</v>
+        <v>246</v>
       </c>
       <c r="B245">
         <v>18751</v>
@@ -13467,7 +13539,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>505</v>
+        <v>247</v>
       </c>
       <c r="B246">
         <v>19129</v>
@@ -13478,7 +13550,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>507</v>
+        <v>248</v>
       </c>
       <c r="B247">
         <v>19499</v>
@@ -13489,13 +13561,35 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>508</v>
+        <v>249</v>
       </c>
       <c r="B248">
         <v>20026</v>
       </c>
       <c r="C248">
         <v>458</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>510</v>
+      </c>
+      <c r="B249">
+        <v>20526</v>
+      </c>
+      <c r="C249">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>512</v>
+      </c>
+      <c r="B250">
+        <v>20814</v>
+      </c>
+      <c r="C250">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -13510,7 +13604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -13525,18 +13619,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -13547,7 +13641,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -13558,7 +13652,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -13569,7 +13663,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -13580,7 +13674,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -13591,7 +13685,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -13602,7 +13696,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -13613,7 +13707,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -13624,7 +13718,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B10">
         <v>48</v>
@@ -13635,7 +13729,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -13646,7 +13740,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>88</v>
@@ -13657,7 +13751,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B13">
         <v>133</v>
@@ -13668,7 +13762,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B14">
         <v>158</v>
@@ -13679,7 +13773,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B15">
         <v>219</v>
@@ -13690,7 +13784,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B16">
         <v>265</v>
@@ -13701,7 +13795,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B17">
         <v>290</v>
@@ -13712,7 +13806,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B18">
         <v>325</v>
@@ -13723,7 +13817,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B19">
         <v>356</v>
@@ -13734,7 +13828,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B20">
         <v>419</v>
@@ -13745,7 +13839,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B21">
         <v>476</v>
@@ -13756,7 +13850,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B22">
         <v>552</v>
@@ -13767,7 +13861,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B23">
         <v>605</v>
@@ -13778,7 +13872,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B24">
         <v>642</v>
@@ -13789,7 +13883,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B25">
         <v>689</v>
@@ -13800,7 +13894,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B26">
         <v>720</v>
@@ -13811,7 +13905,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B27">
         <v>759</v>
@@ -13822,7 +13916,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B28">
         <v>788</v>
@@ -13833,7 +13927,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B29">
         <v>836</v>
@@ -13844,7 +13938,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B30">
         <v>857</v>
@@ -13855,7 +13949,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B31">
         <v>876</v>
@@ -13866,7 +13960,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B32">
         <v>893</v>
@@ -13877,7 +13971,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B33">
         <v>904</v>
@@ -13888,7 +13982,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B34">
         <v>925</v>
@@ -13899,7 +13993,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B35">
         <v>947</v>
@@ -13910,7 +14004,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36">
         <v>1009</v>
@@ -13921,7 +14015,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B37">
         <v>1035</v>
@@ -13932,7 +14026,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B38">
         <v>1042</v>
@@ -13943,7 +14037,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B39">
         <v>1059</v>
@@ -13954,7 +14048,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B40">
         <v>1088</v>
@@ -13965,7 +14059,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B41">
         <v>1149</v>
@@ -13976,7 +14070,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B42">
         <v>1177</v>
@@ -13987,7 +14081,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B43">
         <v>1198</v>
@@ -13998,7 +14092,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B44">
         <v>1211</v>
@@ -14009,7 +14103,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B45">
         <v>1224</v>
@@ -14020,7 +14114,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B46">
         <v>1235</v>
@@ -14031,7 +14125,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B47">
         <v>1273</v>
@@ -14042,7 +14136,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B48">
         <v>1289</v>
@@ -14053,7 +14147,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B49">
         <v>1319</v>
@@ -14064,7 +14158,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B50">
         <v>1333</v>
@@ -14075,7 +14169,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B51">
         <v>1345</v>
@@ -14086,7 +14180,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B52">
         <v>1365</v>
@@ -14097,7 +14191,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B53">
         <v>1375</v>
@@ -14108,7 +14202,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B54">
         <v>1394</v>
@@ -14119,7 +14213,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B55">
         <v>1439</v>
@@ -14130,7 +14224,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B56">
         <v>1455</v>
@@ -14141,7 +14235,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B57">
         <v>1486</v>
@@ -14152,7 +14246,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B58">
         <v>1503</v>
@@ -14163,7 +14257,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B59">
         <v>1511</v>
@@ -14174,7 +14268,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B60">
         <v>1526</v>
@@ -14185,7 +14279,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B61">
         <v>1545</v>
@@ -14196,7 +14290,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B62">
         <v>1551</v>
@@ -14207,7 +14301,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B63">
         <v>1582</v>
@@ -14218,7 +14312,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B64">
         <v>1595</v>
@@ -14229,7 +14323,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B65">
         <v>1603</v>
@@ -14240,7 +14334,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B66">
         <v>1641</v>
@@ -14251,7 +14345,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B67">
         <v>1658</v>
@@ -14262,7 +14356,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B68">
         <v>1687</v>
@@ -14273,7 +14367,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B69">
         <v>1718</v>
@@ -14284,7 +14378,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B70">
         <v>1739</v>
@@ -14295,7 +14389,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B71">
         <v>1753</v>
@@ -14306,7 +14400,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B72">
         <v>1777</v>
@@ -14317,7 +14411,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B73">
         <v>1805</v>
@@ -14328,7 +14422,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B74">
         <v>1816</v>
@@ -14339,7 +14433,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B75">
         <v>1828</v>
@@ -14350,7 +14444,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B76">
         <v>1851</v>
@@ -14361,7 +14455,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B77">
         <v>1870</v>
@@ -14372,7 +14466,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B78">
         <v>1897</v>
@@ -14383,7 +14477,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B79">
         <v>1911</v>
@@ -14394,7 +14488,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B80">
         <v>1919</v>
@@ -14405,7 +14499,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B81">
         <v>1928</v>
@@ -14416,7 +14510,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B82">
         <v>1952</v>
@@ -14427,7 +14521,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B83">
         <v>1965</v>
@@ -14438,7 +14532,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B84">
         <v>1973</v>
@@ -14449,7 +14543,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B85">
         <v>1989</v>
@@ -14460,7 +14554,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B86">
         <v>2003</v>
@@ -14471,7 +14565,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B87">
         <v>2008</v>
@@ -14482,7 +14576,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B88">
         <v>2027</v>
@@ -14493,7 +14587,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B89">
         <v>2034</v>
@@ -14504,7 +14598,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B90">
         <v>2055</v>
@@ -14515,7 +14609,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B91">
         <v>2065</v>
@@ -14526,7 +14620,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B92">
         <v>2076</v>
@@ -14537,7 +14631,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B93">
         <v>2079</v>
@@ -14548,7 +14642,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B94">
         <v>2086</v>
@@ -14559,7 +14653,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B95">
         <v>2113</v>
@@ -14570,7 +14664,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B96">
         <v>2113</v>
@@ -14581,7 +14675,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B97">
         <v>2122</v>
@@ -14592,7 +14686,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B98">
         <v>2139</v>
@@ -14603,7 +14697,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B99">
         <v>2159</v>
@@ -14614,7 +14708,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B100">
         <v>2175</v>
@@ -14625,7 +14719,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B101">
         <v>2220</v>
@@ -14636,7 +14730,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B102">
         <v>2239</v>
@@ -14647,7 +14741,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B103">
         <v>2284</v>
@@ -14658,7 +14752,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B104">
         <v>2321</v>
@@ -14669,7 +14763,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B105">
         <v>2382</v>
@@ -14680,7 +14774,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B106">
         <v>2472</v>
@@ -14691,7 +14785,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B107">
         <v>2568</v>
@@ -14702,7 +14796,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B108">
         <v>2651</v>
@@ -14713,7 +14807,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B109">
         <v>2760</v>
@@ -14724,7 +14818,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B110">
         <v>2870</v>
@@ -14735,7 +14829,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B111">
         <v>3103</v>
@@ -14746,7 +14840,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B112">
         <v>3280</v>
@@ -14757,7 +14851,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B113">
         <v>3430</v>
@@ -14768,7 +14862,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B114">
         <v>3557</v>
@@ -14779,7 +14873,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B115">
         <v>3775</v>
@@ -14790,7 +14884,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B116">
         <v>3979</v>
@@ -14801,7 +14895,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B117">
         <v>4209</v>
@@ -14812,7 +14906,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B118">
         <v>4367</v>
@@ -14823,7 +14917,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B119">
         <v>4547</v>
@@ -14834,7 +14928,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B120">
         <v>4762</v>
@@ -14845,7 +14939,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B121">
         <v>4962</v>
@@ -14856,7 +14950,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B122">
         <v>5033</v>
@@ -14867,7 +14961,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B123">
         <v>5364</v>
@@ -14878,7 +14972,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B124">
         <v>5610</v>
@@ -14889,7 +14983,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B125">
         <v>5750</v>
@@ -14900,7 +14994,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B126">
         <v>5990</v>
@@ -14911,7 +15005,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B127">
         <v>6125</v>
@@ -14922,7 +15016,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B128">
         <v>6263</v>
@@ -14933,7 +15027,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B129">
         <v>6435</v>
@@ -14944,7 +15038,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B130">
         <v>6574</v>
@@ -14955,7 +15049,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B131">
         <v>6670</v>
@@ -14966,7 +15060,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B132">
         <v>6817</v>
@@ -14977,7 +15071,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B133">
         <v>7015</v>
@@ -14988,7 +15082,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B134">
         <v>7161</v>
@@ -14999,7 +15093,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B135">
         <v>7294</v>
@@ -15010,7 +15104,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B136">
         <v>7474</v>
@@ -15021,7 +15115,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B137">
         <v>7593</v>
@@ -15032,7 +15126,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B138">
         <v>7718</v>
@@ -15043,7 +15137,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B139">
         <v>7850</v>
@@ -15054,7 +15148,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B140">
         <v>8094</v>
@@ -15065,7 +15159,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B141">
         <v>8160</v>
@@ -15076,7 +15170,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B142">
         <v>8242</v>
@@ -15087,7 +15181,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B143">
         <v>8310</v>
@@ -15098,7 +15192,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B144">
         <v>8442</v>
@@ -15109,7 +15203,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B145">
         <v>8512</v>
@@ -15120,7 +15214,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B146">
         <v>8612</v>
@@ -15131,7 +15225,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B147">
         <v>8709</v>
@@ -15142,7 +15236,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B148">
         <v>8796</v>
@@ -15153,7 +15247,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B149">
         <v>8857</v>
@@ -15164,7 +15258,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B150">
         <v>8932</v>
@@ -15175,7 +15269,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B151">
         <v>9008</v>
@@ -15186,7 +15280,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B152">
         <v>9078</v>
@@ -15197,7 +15291,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B153">
         <v>9192</v>
@@ -15208,7 +15302,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B154">
         <v>9282</v>
@@ -15219,7 +15313,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B155">
         <v>9359</v>
@@ -15230,7 +15324,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B156">
         <v>9433</v>
@@ -15241,7 +15335,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B157">
         <v>9504</v>
@@ -15252,7 +15346,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B158">
         <v>9549</v>
@@ -15263,7 +15357,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B159">
         <v>9576</v>
@@ -15274,7 +15368,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B160">
         <v>9676</v>
@@ -15285,7 +15379,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B161">
         <v>9756</v>
@@ -15296,7 +15390,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B162">
         <v>9817</v>
@@ -15307,7 +15401,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B163">
         <v>9903</v>
@@ -15318,7 +15412,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B164">
         <v>9932</v>
@@ -15329,7 +15423,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B165">
         <v>9990</v>
@@ -15340,7 +15434,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B166">
         <v>10004</v>
@@ -15351,7 +15445,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B167">
         <v>10065</v>
@@ -15362,7 +15456,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B168">
         <v>10128</v>
@@ -15373,7 +15467,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B169">
         <v>10211</v>
@@ -15384,7 +15478,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B170">
         <v>10310</v>
@@ -15395,7 +15489,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B171">
         <v>10347</v>
@@ -15406,7 +15500,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B172">
         <v>10376</v>
@@ -15417,7 +15511,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B173">
         <v>10444</v>
@@ -15428,7 +15522,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B174">
         <v>10549</v>
@@ -15439,7 +15533,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B175">
         <v>10641</v>
@@ -15450,7 +15544,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B176">
         <v>10709</v>
@@ -15461,7 +15555,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B177">
         <v>10771</v>
@@ -15472,7 +15566,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B178">
         <v>10810</v>
@@ -15483,7 +15577,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B179">
         <v>10847</v>
@@ -15494,7 +15588,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B180">
         <v>10915</v>
@@ -15505,7 +15599,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B181">
         <v>10969</v>
@@ -15516,7 +15610,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B182">
         <v>11069</v>
@@ -15527,7 +15621,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B183">
         <v>11126</v>
@@ -15538,7 +15632,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B184">
         <v>11126</v>
@@ -15549,7 +15643,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B185">
         <v>11268</v>
@@ -15560,7 +15654,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B186">
         <v>11358</v>
@@ -15571,7 +15665,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B187">
         <v>11431</v>
@@ -15582,7 +15676,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B188">
         <v>11510</v>
@@ -15593,7 +15687,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B189">
         <v>11578</v>
@@ -15604,7 +15698,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B190">
         <v>11663</v>
@@ -15615,7 +15709,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B191">
         <v>11737</v>
@@ -15626,7 +15720,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B192">
         <v>11779</v>
@@ -15637,7 +15731,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B193">
         <v>11821</v>
@@ -15648,7 +15742,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B194">
         <v>11867</v>
@@ -15659,7 +15753,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B195">
         <v>11927</v>
@@ -15670,7 +15764,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B196">
         <v>11995</v>
@@ -15681,7 +15775,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B197">
         <v>12101</v>
@@ -15692,7 +15786,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B198">
         <v>12162</v>
@@ -15703,7 +15797,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B199">
         <v>12234</v>
@@ -15714,7 +15808,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B200">
         <v>12305</v>
@@ -15725,7 +15819,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B201">
         <v>12348</v>
@@ -15736,7 +15830,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B202">
         <v>12454</v>
@@ -15747,7 +15841,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B203">
         <v>12527</v>
@@ -15758,7 +15852,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B204">
         <v>12527</v>
@@ -15769,7 +15863,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B205">
         <v>12731</v>
@@ -15780,7 +15874,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B206">
         <v>12777</v>
@@ -15791,7 +15885,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B207">
         <v>12854</v>
@@ -15802,7 +15896,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B208">
         <v>12897</v>
@@ -15813,7 +15907,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B209">
         <v>13024</v>
@@ -15824,7 +15918,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B210">
         <v>13102</v>
@@ -15835,7 +15929,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B211">
         <v>13183</v>
@@ -15846,7 +15940,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B212">
         <v>13280</v>
@@ -15857,7 +15951,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B213">
         <v>13362</v>
@@ -15868,7 +15962,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B214">
         <v>13436</v>
@@ -15879,7 +15973,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B215">
         <v>13533</v>
@@ -15890,7 +15984,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B216">
         <v>13672</v>
@@ -15901,7 +15995,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B217">
         <v>13821</v>
@@ -15912,7 +16006,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B218">
         <v>13959</v>
@@ -15923,7 +16017,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B219">
         <v>14075</v>
@@ -15934,7 +16028,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B220">
         <v>14174</v>
@@ -15945,7 +16039,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B221">
         <v>14277</v>
@@ -15956,7 +16050,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B222">
         <v>14396</v>
@@ -15967,7 +16061,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B223">
         <v>14529</v>
@@ -15978,7 +16072,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B224">
         <v>14687</v>
@@ -15989,7 +16083,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B225">
         <v>14818</v>
@@ -16000,7 +16094,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B226">
         <v>14922</v>
@@ -16011,7 +16105,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B227">
         <v>14995</v>
@@ -16022,7 +16116,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B228">
         <v>15101</v>
@@ -16033,7 +16127,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B229">
         <v>15300</v>
@@ -16044,7 +16138,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B230">
         <v>15449</v>
@@ -16055,7 +16149,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B231">
         <v>15622</v>
@@ -16066,7 +16160,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B232">
         <v>15796</v>
@@ -16077,7 +16171,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B233">
         <v>15940</v>
@@ -16088,7 +16182,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B234">
         <v>16060</v>
@@ -16099,7 +16193,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B235">
         <v>16210</v>
@@ -16110,7 +16204,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B236">
         <v>16410</v>
@@ -16121,7 +16215,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B237">
         <v>16599</v>
@@ -16132,7 +16226,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B238">
         <v>16838</v>
@@ -16143,7 +16237,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B239">
         <v>17126</v>
@@ -16154,7 +16248,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B240">
         <v>17386</v>
@@ -16165,7 +16259,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B241">
         <v>17656</v>
@@ -16176,7 +16270,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B242">
         <v>17973</v>
@@ -16187,7 +16281,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B243">
         <v>18339</v>
@@ -16198,7 +16292,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B244">
         <v>18751</v>
@@ -16209,7 +16303,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B245">
         <v>19129</v>
@@ -16220,7 +16314,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B246">
         <v>19499</v>
@@ -16231,13 +16325,35 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B247">
         <v>20026</v>
       </c>
       <c r="C247">
         <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>511</v>
+      </c>
+      <c r="B248">
+        <v>20526</v>
+      </c>
+      <c r="C248">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>513</v>
+      </c>
+      <c r="B249">
+        <v>20814</v>
+      </c>
+      <c r="C249">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -16251,7 +16367,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -16270,15 +16386,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -16289,7 +16405,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -16300,7 +16416,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -16311,7 +16427,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -16322,7 +16438,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -16333,7 +16449,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -16344,7 +16460,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -16355,7 +16471,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -16366,7 +16482,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B10">
         <v>47</v>
@@ -16377,7 +16493,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B11">
         <v>63</v>
@@ -16388,7 +16504,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B12">
         <v>76</v>
@@ -16399,7 +16515,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B13">
         <v>96</v>
@@ -16410,7 +16526,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B14">
         <v>133</v>
@@ -16421,7 +16537,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B15">
         <v>185</v>
@@ -16432,7 +16548,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B16">
         <v>268</v>
@@ -16443,7 +16559,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B17">
         <v>371</v>
@@ -16454,7 +16570,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B18">
         <v>479</v>
@@ -16465,7 +16581,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B19">
         <v>644</v>
@@ -16476,7 +16592,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B20">
         <v>851</v>
@@ -16487,7 +16603,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B21">
         <v>1127</v>
@@ -16498,7 +16614,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B22">
         <v>1687</v>
@@ -16509,7 +16625,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B23">
         <v>2218</v>
@@ -16520,7 +16636,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B24">
         <v>2751</v>
@@ -16531,7 +16647,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B25">
         <v>3394</v>
@@ -16542,7 +16658,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B26">
         <v>4087</v>
@@ -16553,7 +16669,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B27">
         <v>4843</v>
@@ -16564,7 +16680,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B28">
         <v>5805</v>
@@ -16575,7 +16691,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B29">
         <v>7016</v>
@@ -16586,7 +16702,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B30">
         <v>8420</v>
@@ -16597,7 +16713,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B31">
         <v>10017</v>
@@ -16608,7 +16724,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B32">
         <v>11510</v>
@@ -16619,7 +16735,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B33">
         <v>12980</v>
@@ -16630,7 +16746,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B34">
         <v>14559</v>
@@ -16641,7 +16757,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B35">
         <v>16239</v>
@@ -16652,7 +16768,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B36">
         <v>18228</v>
@@ -16663,7 +16779,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B37">
         <v>19979</v>
@@ -16674,7 +16790,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B38">
         <v>21655</v>
@@ -16685,7 +16801,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B39">
         <v>22833</v>
@@ -16696,7 +16812,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B40">
         <v>24199</v>
@@ -16707,7 +16823,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B41">
         <v>25345</v>
@@ -16718,7 +16834,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B42">
         <v>26490</v>
@@ -16729,7 +16845,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B43">
         <v>27735</v>
@@ -16740,7 +16856,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B44">
         <v>29441</v>
@@ -16751,7 +16867,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>31069</v>
@@ -16762,7 +16878,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B46">
         <v>32284</v>
@@ -16773,7 +16889,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B47">
         <v>33232</v>
@@ -16784,7 +16900,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B48">
         <v>34528</v>
@@ -16795,7 +16911,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B49">
         <v>35684</v>
@@ -16806,7 +16922,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B50">
         <v>37053</v>
@@ -16817,7 +16933,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B51">
         <v>38652</v>
@@ -16828,7 +16944,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B52">
         <v>40049</v>
@@ -16839,7 +16955,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B53">
         <v>41165</v>
@@ -16850,7 +16966,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B54">
         <v>42050</v>
@@ -16861,7 +16977,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B55">
         <v>43264</v>
@@ -16872,7 +16988,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B56">
         <v>44366</v>
@@ -16883,7 +16999,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B57">
         <v>45763</v>
@@ -16894,7 +17010,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B58">
         <v>46971</v>
@@ -16905,7 +17021,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B59">
         <v>48305</v>
@@ -16916,7 +17032,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B60">
         <v>49267</v>
@@ -16927,7 +17043,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B61">
         <v>50092</v>
@@ -16938,7 +17054,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B62">
         <v>50957</v>
@@ -16949,7 +17065,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B63">
         <v>51845</v>
@@ -16960,7 +17076,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B64">
         <v>52915</v>
@@ -16971,7 +17087,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B65">
         <v>54238</v>
@@ -16982,7 +17098,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B66">
         <v>55316</v>
@@ -16993,7 +17109,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B67">
         <v>56611</v>
@@ -17004,7 +17120,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B68">
         <v>57154</v>
@@ -17015,7 +17131,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B69">
         <v>57991</v>
@@ -17026,7 +17142,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B70">
         <v>58698</v>
@@ -17037,7 +17153,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B71">
         <v>59636</v>
@@ -17048,7 +17164,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B72">
         <v>60622</v>
@@ -17059,7 +17175,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B73">
         <v>61611</v>
@@ -17070,7 +17186,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B74">
         <v>62234</v>
@@ -17081,7 +17197,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B75">
         <v>63056</v>
@@ -17092,7 +17208,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B76">
         <v>63666</v>
@@ -17103,7 +17219,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B77">
         <v>63666</v>
@@ -17114,7 +17230,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B78">
         <v>65392</v>
@@ -17125,7 +17241,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B79">
         <v>66258</v>
@@ -17136,7 +17252,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B80">
         <v>66983</v>
@@ -17147,7 +17263,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B81">
         <v>67713</v>
@@ -17158,7 +17274,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B82">
         <v>68186</v>
@@ -17169,7 +17285,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B83">
         <v>68637</v>
@@ -17180,7 +17296,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B84">
         <v>69417</v>
@@ -17191,7 +17307,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B85">
         <v>70042</v>
@@ -17202,7 +17318,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B86">
         <v>71339</v>
@@ -17213,7 +17329,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B87">
         <v>72031</v>
@@ -17224,7 +17340,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B88">
         <v>72546</v>
@@ -17235,7 +17351,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B89">
         <v>72898</v>
@@ -17246,7 +17362,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B90">
         <v>73510</v>
@@ -17257,7 +17373,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B91">
         <v>74022</v>
@@ -17268,7 +17384,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B92">
         <v>74560</v>
@@ -17279,7 +17395,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B93">
         <v>75005</v>
@@ -17290,7 +17406,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B94">
         <v>75706</v>
@@ -17301,7 +17417,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B95">
         <v>76212</v>
@@ -17312,7 +17428,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B96">
         <v>76563</v>
@@ -17323,7 +17439,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B97">
         <v>77056</v>
@@ -17334,7 +17450,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B98">
         <v>77466</v>
@@ -17345,7 +17461,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B99">
         <v>77933</v>
@@ -17356,7 +17472,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B100">
         <v>77999</v>
@@ -17367,7 +17483,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B101">
         <v>78462</v>
@@ -17378,7 +17494,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B102">
         <v>78798</v>
@@ -17389,7 +17505,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B103">
         <v>79121</v>
@@ -17400,7 +17516,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B104">
         <v>79483</v>
@@ -17411,7 +17527,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B105">
         <v>79818</v>
@@ -17422,7 +17538,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B106">
         <v>80236</v>
@@ -17433,7 +17549,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B107">
         <v>80762</v>
@@ -17444,7 +17560,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B108">
         <v>81266</v>
@@ -17455,7 +17571,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B109">
         <v>81730</v>
@@ -17466,7 +17582,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B110">
         <v>82186</v>
@@ -17477,7 +17593,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B111">
         <v>82696</v>
@@ -17488,7 +17604,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B112">
         <v>83191</v>
@@ -17499,7 +17615,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B113">
         <v>83770</v>
@@ -17510,7 +17626,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B114">
         <v>84370</v>
@@ -17521,7 +17637,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B115">
         <v>84370</v>
@@ -17532,7 +17648,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B116">
         <v>85496</v>
@@ -17543,7 +17659,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B117">
         <v>85988</v>
@@ -17554,7 +17670,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B118">
         <v>86606</v>
@@ -17565,7 +17681,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B119">
         <v>87242</v>
@@ -17576,7 +17692,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B120">
         <v>88074</v>
@@ -17587,7 +17703,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B121">
         <v>88741</v>
@@ -17598,7 +17714,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B122">
         <v>89375</v>
@@ -17609,7 +17725,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B123">
         <v>89854</v>
@@ -17620,7 +17736,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B124">
         <v>90304</v>
@@ -17631,7 +17747,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B125">
         <v>91299</v>
@@ -17642,7 +17758,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B126">
         <v>92148</v>
@@ -17653,7 +17769,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B127">
         <v>92867</v>
@@ -17664,7 +17780,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B128">
         <v>93876</v>
@@ -17675,7 +17791,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B129">
         <v>94689</v>
@@ -17686,7 +17802,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B130">
         <v>95266</v>
@@ -17697,7 +17813,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B131">
         <v>95742</v>
@@ -17708,7 +17824,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B132">
         <v>96671</v>
@@ -17719,7 +17835,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B133">
         <v>97665</v>
@@ -17730,7 +17846,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B134">
         <v>98446</v>
@@ -17741,7 +17857,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B135">
         <v>99478</v>
@@ -17752,7 +17868,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B136">
         <v>100241</v>
@@ -17763,7 +17879,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B137">
         <v>101027</v>
@@ -17774,7 +17890,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B138">
         <v>101738</v>
@@ -17785,7 +17901,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B139">
         <v>102765</v>
@@ -17796,7 +17912,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B140">
         <v>103396</v>
@@ -17807,7 +17923,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B141">
         <v>104358</v>
@@ -17818,7 +17934,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B142">
         <v>105571</v>
@@ -17829,7 +17945,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B143">
         <v>106625</v>
@@ -17840,7 +17956,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B144">
         <v>107425</v>
@@ -17851,7 +17967,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B145">
         <v>108264</v>
@@ -17862,7 +17978,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B146">
         <v>109384</v>
@@ -17873,7 +17989,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B147">
         <v>110218</v>
@@ -17884,7 +18000,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B148">
         <v>111078</v>
@@ -17895,7 +18011,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B149">
         <v>112048</v>
@@ -17906,7 +18022,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B150">
         <v>112936</v>
@@ -17917,7 +18033,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B151">
         <v>113590</v>
@@ -17928,7 +18044,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B152">
         <v>114155</v>
@@ -17939,7 +18055,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B153">
         <v>115009</v>
@@ -17950,7 +18066,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B154">
         <v>115714</v>
@@ -17961,7 +18077,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B155">
         <v>116521</v>
@@ -17972,7 +18088,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B156">
         <v>117279</v>
@@ -17983,7 +18099,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B157">
         <v>118092</v>
@@ -17994,7 +18110,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B158">
         <v>118852</v>
@@ -18005,7 +18121,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B159">
         <v>119453</v>
@@ -18016,7 +18132,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B160">
         <v>120281</v>
@@ -18027,7 +18143,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B161">
         <v>121130</v>
@@ -18038,7 +18154,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B162">
         <v>122121</v>
@@ -18049,7 +18165,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B163">
         <v>122950</v>
@@ -18060,7 +18176,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B164">
         <v>123800</v>
@@ -18071,7 +18187,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B165">
         <v>124460</v>
@@ -18082,7 +18198,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B166">
         <v>124844</v>
@@ -18093,7 +18209,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B167">
         <v>125579</v>
@@ -18104,7 +18220,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B168">
         <v>126149</v>
@@ -18115,7 +18231,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B169">
         <v>126940</v>
@@ -18126,7 +18242,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B170">
         <v>127633</v>
@@ -18137,7 +18253,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B171">
         <v>128429</v>
@@ -18148,7 +18264,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B172">
         <v>129048</v>
@@ -18159,7 +18275,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B173">
         <v>129474</v>
@@ -18170,7 +18286,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B174">
         <v>130035</v>
@@ -18181,7 +18297,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B175">
         <v>130536</v>
@@ -18192,7 +18308,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B176">
         <v>131156</v>
@@ -18203,7 +18319,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B177">
         <v>131991</v>
@@ -18214,7 +18330,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B178">
         <v>132834</v>
@@ -18225,7 +18341,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B179">
         <v>133504</v>
@@ -18236,7 +18352,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B180">
         <v>134025</v>
@@ -18247,7 +18363,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B181">
         <v>134795</v>
@@ -18258,7 +18374,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B182">
         <v>135611</v>
@@ -18269,7 +18385,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B183">
         <v>136771</v>
@@ -18280,7 +18396,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B184">
         <v>137662</v>
@@ -18291,7 +18407,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B185">
         <v>138625</v>
@@ -18302,7 +18418,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B186">
         <v>139316</v>
@@ -18313,7 +18429,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B187">
         <v>139863</v>
@@ -18324,7 +18440,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B188">
         <v>140359</v>
@@ -18335,7 +18451,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B189">
         <v>141290</v>
@@ -18346,7 +18462,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B190">
         <v>141877</v>
@@ -18357,7 +18473,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B191">
         <v>142885</v>
@@ -18368,7 +18484,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B192">
         <v>143805</v>
@@ -18379,7 +18495,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B193">
         <v>143881</v>
@@ -18390,7 +18506,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B194">
         <v>145063</v>
@@ -18401,7 +18517,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B195">
         <v>146214</v>
@@ -18412,7 +18528,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B196">
         <v>146990</v>
@@ -18423,7 +18539,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B197">
         <v>147923</v>
@@ -18434,7 +18550,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B198">
         <v>148683</v>
@@ -18445,7 +18561,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B199">
         <v>149845</v>
@@ -18456,7 +18572,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B200">
         <v>150578</v>
@@ -18467,7 +18583,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B201">
         <v>150812</v>
@@ -18478,7 +18594,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B202">
         <v>151646</v>
@@ -18489,7 +18605,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B203">
         <v>152544</v>
@@ -18500,7 +18616,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B204">
         <v>153397</v>
@@ -18511,7 +18627,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B205">
         <v>154203</v>
@@ -18522,7 +18638,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B206">
         <v>155232</v>
@@ -18533,7 +18649,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B207">
         <v>156150</v>
@@ -18544,7 +18660,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B208">
         <v>156826</v>
@@ -18555,7 +18671,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B209">
         <v>157814</v>
@@ -18566,7 +18682,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B210">
         <v>158967</v>
@@ -18577,7 +18693,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B211">
         <v>160123</v>
@@ -18588,7 +18704,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B212">
         <v>161284</v>
@@ -18599,7 +18715,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B213">
         <v>161284</v>
@@ -18610,7 +18726,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B214">
         <v>163535</v>
@@ -18621,7 +18737,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B215">
         <v>164207</v>
@@ -18632,7 +18748,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B216">
         <v>165243</v>
@@ -18643,7 +18759,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B217">
         <v>166552</v>
@@ -18654,7 +18770,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B218">
         <v>167928</v>
@@ -18665,7 +18781,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B219">
         <v>169308</v>
@@ -18676,7 +18792,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B220">
         <v>171050</v>
@@ -18687,7 +18803,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B221">
         <v>172216</v>
@@ -18698,7 +18814,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B222">
         <v>173304</v>
@@ -18709,7 +18825,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B223">
         <v>174646</v>
@@ -18720,7 +18836,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B224">
         <v>175922</v>
@@ -18731,7 +18847,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B225">
         <v>177520</v>
@@ -18742,7 +18858,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B226">
         <v>179086</v>
@@ -18753,7 +18869,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B227">
         <v>180943</v>
@@ -18764,7 +18880,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B228">
         <v>182212</v>
@@ -18775,7 +18891,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B229">
         <v>183315</v>
@@ -18786,7 +18902,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B230">
         <v>184872</v>
@@ -18797,7 +18913,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B231">
         <v>186297</v>
@@ -18808,7 +18924,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B232">
         <v>188360</v>
@@ -18819,7 +18935,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B233">
         <v>190579</v>
@@ -18830,7 +18946,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B234">
         <v>192622</v>
@@ -18841,7 +18957,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B235">
         <v>194288</v>
@@ -18852,7 +18968,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B236">
         <v>195695</v>
@@ -18863,7 +18979,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B237">
         <v>198446</v>
@@ -18874,7 +18990,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B238">
         <v>200674</v>
@@ -18885,7 +19001,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B239">
         <v>202876</v>
@@ -18896,7 +19012,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B240">
         <v>205517</v>
@@ -18907,7 +19023,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B241">
         <v>208027</v>
@@ -18918,7 +19034,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B242">
         <v>209936</v>
@@ -18929,7 +19045,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B243">
         <v>211996</v>
@@ -18940,7 +19056,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B244">
         <v>214871</v>
@@ -18951,7 +19067,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B245">
         <v>217666</v>
@@ -18962,7 +19078,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B246">
         <v>220566</v>
@@ -18973,7 +19089,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B247">
         <v>223950</v>
@@ -18984,7 +19100,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B248">
         <v>227985</v>
@@ -18995,7 +19111,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B249">
         <v>230894</v>
@@ -19006,7 +19122,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B250">
         <v>234296</v>
@@ -19017,7 +19133,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B251">
         <v>238657</v>
@@ -19028,7 +19144,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B252">
         <v>243368</v>
@@ -19039,7 +19155,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B253">
         <v>248856</v>
@@ -19050,7 +19166,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B254">
         <v>254387</v>
@@ -19061,7 +19177,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B255">
         <v>259938</v>
@@ -19072,13 +19188,35 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B256">
         <v>265137</v>
       </c>
       <c r="C256">
         <v>9312</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>511</v>
+      </c>
+      <c r="B257">
+        <v>269613</v>
+      </c>
+      <c r="C257">
+        <v>9325</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258">
+        <v>275513</v>
+      </c>
+      <c r="C258">
+        <v>9355</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFB99B-1E76-44A8-B443-479130FE0C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632548A7-0282-43F5-A68D-1B45C2832B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$249</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$250</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$258</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$250</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$251</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="516">
   <si>
     <t>date</t>
   </si>
@@ -1594,6 +1594,12 @@
   </si>
   <si>
     <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>11/18/2020</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
   </si>
 </sst>
 </file>
@@ -2197,9 +2203,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$250</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$251</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2946,16 +2952,19 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>11/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$250</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3702,6 +3711,9 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>20814</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>21434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,9 +3855,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$250</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$251</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4592,16 +4604,19 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>11/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$250</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5348,6 +5363,9 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5453,9 +5471,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$249</c:f>
+              <c:f>'Case Changes'!$A$2:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6199,16 +6217,19 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$249</c:f>
+              <c:f>'Case Changes'!$C$2:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="249"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6952,6 +6973,9 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7058,9 +7082,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$258</c:f>
+              <c:f>State!$A$2:$A$259</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7831,16 +7855,19 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$258</c:f>
+              <c:f>State!$C$2:$C$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8611,6 +8638,9 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>9355</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8633,9 +8663,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$258</c:f>
+              <c:f>State!$A$2:$A$259</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9406,16 +9436,19 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$258</c:f>
+              <c:f>State!$B$2:$B$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10186,6 +10219,9 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>275513</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>281852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10456,9 +10492,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C250" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C250" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C251" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C251" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C251">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10471,9 +10507,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C249" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C249" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C250" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C250" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C250">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10486,10 +10522,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
-    <sortCondition ref="A1:A7300"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
+    <sortCondition ref="A1:A7301"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10821,7 +10857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13592,6 +13628,17 @@
         <v>462</v>
       </c>
     </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>514</v>
+      </c>
+      <c r="B251">
+        <v>21434</v>
+      </c>
+      <c r="C251">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13604,7 +13651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16356,6 +16403,17 @@
         <v>288</v>
       </c>
     </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>515</v>
+      </c>
+      <c r="B250">
+        <v>21434</v>
+      </c>
+      <c r="C250">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16367,7 +16425,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19219,6 +19277,17 @@
         <v>9355</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259">
+        <v>281852</v>
+      </c>
+      <c r="C259">
+        <v>9465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632548A7-0282-43F5-A68D-1B45C2832B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8894E76-81D6-4DB4-AA42-CCBBC80771C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$250</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$251</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$259</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$251</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$252</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$260</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="518">
   <si>
     <t>date</t>
   </si>
@@ -1600,6 +1600,12 @@
   </si>
   <si>
     <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
   </si>
 </sst>
 </file>
@@ -2203,9 +2209,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$251</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2955,16 +2961,19 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>11/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$251</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3714,6 +3723,9 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>21434</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>22043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,9 +3867,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$251</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4607,16 +4619,19 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>11/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$251</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5365,6 +5380,9 @@
                   <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="249">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -5471,9 +5489,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$250</c:f>
+              <c:f>'Case Changes'!$A$2:$A$251</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6220,16 +6238,19 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$250</c:f>
+              <c:f>'Case Changes'!$C$2:$C$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6976,6 +6997,9 @@
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,9 +7106,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$259</c:f>
+              <c:f>State!$A$2:$A$260</c:f>
               <c:strCache>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7858,16 +7882,19 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$259</c:f>
+              <c:f>State!$C$2:$C$260</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8641,6 +8668,9 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>9465</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,9 +8693,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$259</c:f>
+              <c:f>State!$A$2:$A$260</c:f>
               <c:strCache>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9439,16 +9469,19 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$259</c:f>
+              <c:f>State!$B$2:$B$260</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10222,6 +10255,9 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>281852</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>288978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10492,9 +10528,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C251" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C251" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C252" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C252" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C252">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10507,9 +10543,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C250" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C250" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C251" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C251" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C251">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10522,10 +10558,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
-    <sortCondition ref="A1:A7301"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
+    <sortCondition ref="A1:A7302"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10857,7 +10893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13639,6 +13675,17 @@
         <v>465</v>
       </c>
     </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>516</v>
+      </c>
+      <c r="B252">
+        <v>22043</v>
+      </c>
+      <c r="C252">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13651,7 +13698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16414,6 +16461,17 @@
         <v>620</v>
       </c>
     </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>517</v>
+      </c>
+      <c r="B251">
+        <v>22043</v>
+      </c>
+      <c r="C251">
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16425,7 +16483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19288,6 +19346,17 @@
         <v>9465</v>
       </c>
     </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260">
+        <v>288978</v>
+      </c>
+      <c r="C260">
+        <v>9581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8894E76-81D6-4DB4-AA42-CCBBC80771C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59915E6-1310-405E-93F0-DAA103F5B895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$251</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$252</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$260</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$252</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$253</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="520">
   <si>
     <t>date</t>
   </si>
@@ -1606,6 +1606,12 @@
   </si>
   <si>
     <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
   </si>
 </sst>
 </file>
@@ -2209,9 +2215,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$252</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$253</c:f>
               <c:strCache>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2964,16 +2970,19 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$252</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3726,6 +3735,9 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>22043</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>22527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,9 +3879,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$252</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$253</c:f>
               <c:strCache>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4622,16 +4634,19 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$252</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5384,6 +5399,9 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5489,9 +5507,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$251</c:f>
+              <c:f>'Case Changes'!$A$2:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6241,16 +6259,19 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$251</c:f>
+              <c:f>'Case Changes'!$C$2:$C$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7000,6 +7021,9 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7106,9 +7130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$260</c:f>
+              <c:f>State!$A$2:$A$261</c:f>
               <c:strCache>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7885,16 +7909,19 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$260</c:f>
+              <c:f>State!$C$2:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8671,6 +8698,9 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>9581</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>9689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8693,9 +8723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$260</c:f>
+              <c:f>State!$A$2:$A$261</c:f>
               <c:strCache>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9472,16 +9502,19 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$260</c:f>
+              <c:f>State!$B$2:$B$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10258,6 +10291,9 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>288978</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>295786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10528,9 +10564,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C252" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C252" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10543,9 +10579,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C251" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C251" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C252" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C252" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C252">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10558,10 +10594,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
-    <sortCondition ref="A1:A7302"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
+    <sortCondition ref="A1:A7303"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10893,7 +10929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O252"/>
+  <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13686,6 +13722,17 @@
         <v>465</v>
       </c>
     </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>518</v>
+      </c>
+      <c r="B253">
+        <v>22527</v>
+      </c>
+      <c r="C253">
+        <v>468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13698,7 +13745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16472,6 +16519,17 @@
         <v>609</v>
       </c>
     </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>519</v>
+      </c>
+      <c r="B252">
+        <v>22527</v>
+      </c>
+      <c r="C252">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16483,7 +16541,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19357,6 +19415,17 @@
         <v>9581</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>519</v>
+      </c>
+      <c r="B261">
+        <v>295786</v>
+      </c>
+      <c r="C261">
+        <v>9689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59915E6-1310-405E-93F0-DAA103F5B895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BA8418-951F-4122-9308-4FA3805F9929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$252</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$253</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$261</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$253</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$254</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="522">
   <si>
     <t>date</t>
   </si>
@@ -1612,6 +1612,12 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
   </si>
 </sst>
 </file>
@@ -2215,9 +2221,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$253</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$254</c:f>
               <c:strCache>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2973,16 +2979,19 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>11/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$253</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3738,6 +3747,9 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>22527</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,9 +3891,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$253</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$254</c:f>
               <c:strCache>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4637,16 +4649,19 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>11/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$253</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5402,6 +5417,9 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5507,9 +5525,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$252</c:f>
+              <c:f>'Case Changes'!$A$2:$A$253</c:f>
               <c:strCache>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6262,16 +6280,19 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$252</c:f>
+              <c:f>'Case Changes'!$C$2:$C$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7024,6 +7045,9 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7130,9 +7154,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$261</c:f>
+              <c:f>State!$A$2:$A$262</c:f>
               <c:strCache>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7912,16 +7936,19 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$261</c:f>
+              <c:f>State!$C$2:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8701,6 +8728,9 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>9689</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8723,9 +8753,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$261</c:f>
+              <c:f>State!$A$2:$A$262</c:f>
               <c:strCache>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9505,16 +9535,19 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$261</c:f>
+              <c:f>State!$B$2:$B$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10294,6 +10327,9 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>295786</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>302564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10564,9 +10600,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10579,9 +10615,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C252" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C252" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10594,10 +10630,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
-    <sortCondition ref="A1:A7303"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C262" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C262" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
+    <sortCondition ref="A1:A7304"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10929,7 +10965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13733,6 +13769,17 @@
         <v>468</v>
       </c>
     </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>520</v>
+      </c>
+      <c r="B254">
+        <v>23121</v>
+      </c>
+      <c r="C254">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13745,7 +13792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16530,6 +16577,17 @@
         <v>484</v>
       </c>
     </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>521</v>
+      </c>
+      <c r="B253">
+        <v>23121</v>
+      </c>
+      <c r="C253">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16541,7 +16599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19426,6 +19484,17 @@
         <v>9689</v>
       </c>
     </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262">
+        <v>302564</v>
+      </c>
+      <c r="C262">
+        <v>9801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BA8418-951F-4122-9308-4FA3805F9929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBEC8E-0461-4906-A445-1C7FF441FDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$253</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$254</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$262</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$254</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$255</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$263</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="524">
   <si>
     <t>date</t>
   </si>
@@ -1618,6 +1618,12 @@
   </si>
   <si>
     <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
   </si>
 </sst>
 </file>
@@ -2221,9 +2227,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$254</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2982,16 +2988,19 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$254</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3750,6 +3759,9 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>23121</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,9 +3903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$254</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4652,16 +4664,19 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$254</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5419,6 +5434,9 @@
                   <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="252">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
@@ -5525,9 +5543,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$253</c:f>
+              <c:f>'Case Changes'!$A$2:$A$254</c:f>
               <c:strCache>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6283,16 +6301,19 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$253</c:f>
+              <c:f>'Case Changes'!$C$2:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="252"/>
+                <c:ptCount val="253"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7048,6 +7069,9 @@
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,9 +7178,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$262</c:f>
+              <c:f>State!$A$2:$A$263</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7939,16 +7963,19 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$262</c:f>
+              <c:f>State!$C$2:$C$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8731,6 +8758,9 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>9801</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8753,9 +8783,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$262</c:f>
+              <c:f>State!$A$2:$A$263</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9538,16 +9568,19 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$262</c:f>
+              <c:f>State!$B$2:$B$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10330,6 +10363,9 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>302564</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>309639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10600,9 +10636,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10615,9 +10651,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C253" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C253" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10630,10 +10666,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C262" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
-    <sortCondition ref="A1:A7304"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C263" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C263" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C263">
+    <sortCondition ref="A1:A7305"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10965,7 +11001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O254"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13780,6 +13816,17 @@
         <v>482</v>
       </c>
     </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>522</v>
+      </c>
+      <c r="B255">
+        <v>23697</v>
+      </c>
+      <c r="C255">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13792,7 +13839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16588,6 +16635,17 @@
         <v>594</v>
       </c>
     </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>523</v>
+      </c>
+      <c r="B254">
+        <v>23697</v>
+      </c>
+      <c r="C254">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16599,7 +16657,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19495,6 +19553,17 @@
         <v>9801</v>
       </c>
     </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263">
+        <v>309639</v>
+      </c>
+      <c r="C263">
+        <v>9842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBEC8E-0461-4906-A445-1C7FF441FDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685E9A0-B995-4D6D-A58A-9965FA0E6775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$254</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$255</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$263</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$255</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$256</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="526">
   <si>
     <t>date</t>
   </si>
@@ -1624,6 +1624,12 @@
   </si>
   <si>
     <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -2227,9 +2233,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$255</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$256</c:f>
               <c:strCache>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2991,16 +2997,19 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$255</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3762,6 +3771,9 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>23697</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>24083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,9 +3915,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$255</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$256</c:f>
               <c:strCache>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4667,16 +4679,19 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$255</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5437,6 +5452,9 @@
                   <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="253">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="254">
                   <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
@@ -5543,9 +5561,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$254</c:f>
+              <c:f>'Case Changes'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6304,16 +6322,19 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$254</c:f>
+              <c:f>'Case Changes'!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="253"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7072,6 +7093,9 @@
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7178,9 +7202,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$263</c:f>
+              <c:f>State!$A$2:$A$264</c:f>
               <c:strCache>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7966,16 +7990,19 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$263</c:f>
+              <c:f>State!$C$2:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8761,6 +8788,9 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>9842</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8783,9 +8813,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$263</c:f>
+              <c:f>State!$A$2:$A$264</c:f>
               <c:strCache>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9571,16 +9601,19 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$263</c:f>
+              <c:f>State!$B$2:$B$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10366,6 +10399,9 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>309639</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>314401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10636,9 +10672,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10651,9 +10687,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C254" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C254" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10666,10 +10702,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C263" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C263" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C263">
-    <sortCondition ref="A1:A7305"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
+    <sortCondition ref="A1:A7306"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11001,7 +11037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O255"/>
+  <dimension ref="A1:O256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13827,6 +13863,17 @@
         <v>482</v>
       </c>
     </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>524</v>
+      </c>
+      <c r="B256">
+        <v>24083</v>
+      </c>
+      <c r="C256">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13839,7 +13886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16646,6 +16693,17 @@
         <v>576</v>
       </c>
     </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>525</v>
+      </c>
+      <c r="B255">
+        <v>24083</v>
+      </c>
+      <c r="C255">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16657,7 +16715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19564,6 +19622,17 @@
         <v>9842</v>
       </c>
     </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264">
+        <v>314401</v>
+      </c>
+      <c r="C264">
+        <v>9870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685E9A0-B995-4D6D-A58A-9965FA0E6775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDEF40C-C936-44C7-96F4-6AA9AF518BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$255</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$256</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$264</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$256</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$257</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$265</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="528">
   <si>
     <t>date</t>
   </si>
@@ -1630,6 +1630,12 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
   </si>
 </sst>
 </file>
@@ -2233,9 +2239,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$256</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$257</c:f>
               <c:strCache>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3000,16 +3006,19 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$256</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3774,6 +3783,9 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>24083</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>24624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3915,9 +3927,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$256</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$257</c:f>
               <c:strCache>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4682,16 +4694,19 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$256</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5456,6 +5471,9 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,9 +5579,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$255</c:f>
+              <c:f>'Case Changes'!$A$2:$A$256</c:f>
               <c:strCache>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6325,16 +6343,19 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$255</c:f>
+              <c:f>'Case Changes'!$C$2:$C$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7096,6 +7117,9 @@
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,9 +7226,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$264</c:f>
+              <c:f>State!$A$2:$A$265</c:f>
               <c:strCache>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -7993,16 +8017,19 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$264</c:f>
+              <c:f>State!$C$2:$C$265</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8791,6 +8818,9 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>9870</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8813,9 +8843,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$264</c:f>
+              <c:f>State!$A$2:$A$265</c:f>
               <c:strCache>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9604,16 +9634,19 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$264</c:f>
+              <c:f>State!$B$2:$B$265</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10402,6 +10435,9 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>314401</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>321070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10672,9 +10708,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C257" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C257" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C257">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10687,9 +10723,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C255" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C255" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10702,10 +10738,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
-    <sortCondition ref="A1:A7306"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
+    <sortCondition ref="A1:A7307"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11037,9 +11073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O256"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -13874,6 +13910,17 @@
         <v>482</v>
       </c>
     </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>526</v>
+      </c>
+      <c r="B257">
+        <v>24624</v>
+      </c>
+      <c r="C257">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13886,7 +13933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16704,6 +16751,17 @@
         <v>386</v>
       </c>
     </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>527</v>
+      </c>
+      <c r="B256">
+        <v>24624</v>
+      </c>
+      <c r="C256">
+        <v>541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16715,9 +16773,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -19633,6 +19691,17 @@
         <v>9870</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265">
+        <v>321070</v>
+      </c>
+      <c r="C265">
+        <v>9951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDEF40C-C936-44C7-96F4-6AA9AF518BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDADE2F-D514-4F9D-BA88-C820306E2A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$256</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$257</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$265</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$257</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$258</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="530">
   <si>
     <t>date</t>
   </si>
@@ -1636,6 +1636,12 @@
   </si>
   <si>
     <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>11/25/2020</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -2239,9 +2245,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$257</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$258</c:f>
               <c:strCache>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3009,16 +3015,19 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$257</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3786,6 +3795,9 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>24624</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,9 +3939,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$257</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$258</c:f>
               <c:strCache>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4697,16 +4709,19 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$257</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5474,6 +5489,9 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5579,9 +5597,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$256</c:f>
+              <c:f>'Case Changes'!$A$2:$A$257</c:f>
               <c:strCache>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6346,16 +6364,19 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$256</c:f>
+              <c:f>'Case Changes'!$C$2:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7120,6 +7141,9 @@
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7226,9 +7250,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$265</c:f>
+              <c:f>State!$A$2:$A$266</c:f>
               <c:strCache>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8020,16 +8044,19 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$265</c:f>
+              <c:f>State!$C$2:$C$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8821,6 +8848,9 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>9951</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>10095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8843,9 +8873,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$265</c:f>
+              <c:f>State!$A$2:$A$266</c:f>
               <c:strCache>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9637,16 +9667,19 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$265</c:f>
+              <c:f>State!$B$2:$B$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10438,6 +10471,9 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>321070</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>327829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10708,9 +10744,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C257" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C257" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C257">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10723,9 +10759,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C256" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C256" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C257" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C257" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C257">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10738,10 +10774,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
-    <sortCondition ref="A1:A7307"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
+    <sortCondition ref="A1:A7308"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11073,7 +11109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -13921,6 +13957,17 @@
         <v>486</v>
       </c>
     </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>528</v>
+      </c>
+      <c r="B258">
+        <v>25179</v>
+      </c>
+      <c r="C258">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13933,7 +13980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16762,6 +16809,17 @@
         <v>541</v>
       </c>
     </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>529</v>
+      </c>
+      <c r="B257">
+        <v>25179</v>
+      </c>
+      <c r="C257">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16773,7 +16831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19702,6 +19760,17 @@
         <v>9951</v>
       </c>
     </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>529</v>
+      </c>
+      <c r="B266">
+        <v>327829</v>
+      </c>
+      <c r="C266">
+        <v>10095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDADE2F-D514-4F9D-BA88-C820306E2A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800C95A-FE9C-4FF3-BBA4-20C8332160EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$257</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$258</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$266</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$258</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$259</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="532">
   <si>
     <t>date</t>
   </si>
@@ -1642,6 +1642,12 @@
   </si>
   <si>
     <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
   </si>
 </sst>
 </file>
@@ -2245,9 +2251,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$258</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$259</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3018,16 +3024,19 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$258</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3798,6 +3807,9 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>25179</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,9 +3951,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$258</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$259</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4712,16 +4724,19 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$258</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5491,6 +5506,9 @@
                   <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="256">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>498</c:v>
                 </c:pt>
               </c:numCache>
@@ -5597,9 +5615,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$257</c:f>
+              <c:f>'Case Changes'!$A$2:$A$258</c:f>
               <c:strCache>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6367,16 +6385,19 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$257</c:f>
+              <c:f>'Case Changes'!$C$2:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7144,6 +7165,9 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,9 +7274,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$266</c:f>
+              <c:f>State!$A$2:$A$267</c:f>
               <c:strCache>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8047,16 +8071,19 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$266</c:f>
+              <c:f>State!$C$2:$C$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8851,6 +8878,9 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>10095</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,9 +8903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$266</c:f>
+              <c:f>State!$A$2:$A$267</c:f>
               <c:strCache>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9670,16 +9700,19 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$266</c:f>
+              <c:f>State!$B$2:$B$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10474,6 +10507,9 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>327829</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>336254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10744,9 +10780,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10759,9 +10795,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C257" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C257" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C257">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10774,10 +10810,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
-    <sortCondition ref="A1:A7308"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
+    <sortCondition ref="A1:A7309"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11109,9 +11145,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O258"/>
+  <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -13968,6 +14004,17 @@
         <v>498</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>530</v>
+      </c>
+      <c r="B259">
+        <v>25952</v>
+      </c>
+      <c r="C259">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13980,7 +14027,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16820,6 +16867,17 @@
         <v>555</v>
       </c>
     </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>531</v>
+      </c>
+      <c r="B258">
+        <v>25952</v>
+      </c>
+      <c r="C258">
+        <v>773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16831,9 +16889,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -19771,6 +19829,17 @@
         <v>10095</v>
       </c>
     </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267">
+        <v>336254</v>
+      </c>
+      <c r="C267">
+        <v>10213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800C95A-FE9C-4FF3-BBA4-20C8332160EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81936AF-2982-4945-BACC-37C2946C790D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$258</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$259</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$267</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$259</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$260</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="534">
   <si>
     <t>date</t>
   </si>
@@ -1648,6 +1648,12 @@
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
@@ -2251,9 +2257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$259</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$260</c:f>
               <c:strCache>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3027,16 +3033,19 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$259</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$260</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3810,6 +3819,9 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>25952</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>26821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3951,9 +3963,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$259</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$260</c:f>
               <c:strCache>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4727,16 +4739,19 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$259</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$260</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5510,6 +5525,9 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,9 +5633,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$258</c:f>
+              <c:f>'Case Changes'!$A$2:$A$259</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6388,16 +6406,19 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$258</c:f>
+              <c:f>'Case Changes'!$C$2:$C$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7168,6 +7189,9 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7274,9 +7298,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$267</c:f>
+              <c:f>State!$A$2:$A$268</c:f>
               <c:strCache>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8074,16 +8098,19 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$267</c:f>
+              <c:f>State!$C$2:$C$268</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8881,6 +8908,9 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>10213</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>10234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8903,9 +8933,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$267</c:f>
+              <c:f>State!$A$2:$A$268</c:f>
               <c:strCache>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9703,16 +9733,19 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$267</c:f>
+              <c:f>State!$B$2:$B$268</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10510,6 +10543,9 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>336254</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>343614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10780,9 +10816,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10795,9 +10831,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C258" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C258" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C258">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10810,10 +10846,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
-    <sortCondition ref="A1:A7309"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
+    <sortCondition ref="A1:A7310"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11145,7 +11181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O259"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14015,6 +14051,17 @@
         <v>498</v>
       </c>
     </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>532</v>
+      </c>
+      <c r="B260">
+        <v>26821</v>
+      </c>
+      <c r="C260">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14027,7 +14074,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16878,6 +16925,17 @@
         <v>773</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>533</v>
+      </c>
+      <c r="B259">
+        <v>26821</v>
+      </c>
+      <c r="C259">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16889,7 +16947,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19840,6 +19898,17 @@
         <v>10213</v>
       </c>
     </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>533</v>
+      </c>
+      <c r="B268">
+        <v>343614</v>
+      </c>
+      <c r="C268">
+        <v>10234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81936AF-2982-4945-BACC-37C2946C790D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB2578-1FD8-45F3-A25B-C28564A351C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$259</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$260</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$268</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$260</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$261</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$269</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="536">
   <si>
     <t>date</t>
   </si>
@@ -1654,6 +1654,12 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -2257,9 +2263,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$260</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$261</c:f>
               <c:strCache>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3036,16 +3042,19 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$260</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3822,6 +3831,9 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>26821</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>27484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,9 +3975,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$260</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$261</c:f>
               <c:strCache>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4742,16 +4754,19 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$260</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5528,6 +5543,9 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5633,9 +5651,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$259</c:f>
+              <c:f>'Case Changes'!$A$2:$A$260</c:f>
               <c:strCache>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6409,16 +6427,19 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$259</c:f>
+              <c:f>'Case Changes'!$C$2:$C$260</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
+                <c:ptCount val="259"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7192,6 +7213,9 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,9 +7322,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$268</c:f>
+              <c:f>State!$A$2:$A$269</c:f>
               <c:strCache>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8101,16 +8125,19 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$268</c:f>
+              <c:f>State!$C$2:$C$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8911,6 +8938,9 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>10234</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>10275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8933,9 +8963,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$268</c:f>
+              <c:f>State!$A$2:$A$269</c:f>
               <c:strCache>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9736,16 +9766,19 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$268</c:f>
+              <c:f>State!$B$2:$B$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10546,6 +10579,9 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>343614</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>351667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10816,9 +10852,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10831,9 +10867,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C259" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C259" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10846,10 +10882,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
-    <sortCondition ref="A1:A7310"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
+    <sortCondition ref="A1:A7311"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11181,7 +11217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:O261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14062,6 +14098,17 @@
         <v>504</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>534</v>
+      </c>
+      <c r="B261">
+        <v>27484</v>
+      </c>
+      <c r="C261">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14074,7 +14121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16936,6 +16983,17 @@
         <v>869</v>
       </c>
     </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>535</v>
+      </c>
+      <c r="B260">
+        <v>27484</v>
+      </c>
+      <c r="C260">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16947,7 +17005,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19909,6 +19967,17 @@
         <v>10234</v>
       </c>
     </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269">
+        <v>351667</v>
+      </c>
+      <c r="C269">
+        <v>10275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB2578-1FD8-45F3-A25B-C28564A351C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D24359-84FD-4395-952B-918DB3F713F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$260</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$261</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$269</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$261</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$262</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="538">
   <si>
     <t>date</t>
   </si>
@@ -1660,6 +1660,12 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
   </si>
 </sst>
 </file>
@@ -2263,9 +2269,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$261</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$262</c:f>
               <c:strCache>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3045,16 +3051,19 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$261</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3834,6 +3843,9 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>28004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3975,9 +3987,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$261</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$262</c:f>
               <c:strCache>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4757,16 +4769,19 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$261</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5545,6 +5560,9 @@
                   <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="259">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
@@ -5651,9 +5669,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$260</c:f>
+              <c:f>'Case Changes'!$A$2:$A$261</c:f>
               <c:strCache>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6430,16 +6448,19 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$260</c:f>
+              <c:f>'Case Changes'!$C$2:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="259"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7216,6 +7237,9 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7322,9 +7346,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$269</c:f>
+              <c:f>State!$A$2:$A$270</c:f>
               <c:strCache>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8128,16 +8152,19 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$269</c:f>
+              <c:f>State!$C$2:$C$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8941,6 +8968,9 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>10275</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8963,9 +8993,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$269</c:f>
+              <c:f>State!$A$2:$A$270</c:f>
               <c:strCache>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9769,16 +9799,19 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$269</c:f>
+              <c:f>State!$B$2:$B$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10582,6 +10615,9 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>351667</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>357196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10852,9 +10888,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C262" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C262" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10867,9 +10903,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C260" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C260" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10882,10 +10918,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
-    <sortCondition ref="A1:A7311"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
+    <sortCondition ref="A1:A7312"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11217,7 +11253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O261"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14109,6 +14145,17 @@
         <v>505</v>
       </c>
     </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>536</v>
+      </c>
+      <c r="B262">
+        <v>28004</v>
+      </c>
+      <c r="C262">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14121,7 +14168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -16994,6 +17041,17 @@
         <v>663</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>537</v>
+      </c>
+      <c r="B261">
+        <v>28004</v>
+      </c>
+      <c r="C261">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17005,7 +17063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -19978,6 +20036,17 @@
         <v>10275</v>
       </c>
     </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>537</v>
+      </c>
+      <c r="B270">
+        <v>357196</v>
+      </c>
+      <c r="C270">
+        <v>10351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D24359-84FD-4395-952B-918DB3F713F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E63A1-724E-43FB-8E5B-9E77886346BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$261</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$262</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$270</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$262</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$263</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$271</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="540">
   <si>
     <t>date</t>
   </si>
@@ -1666,6 +1666,12 @@
   </si>
   <si>
     <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -2269,9 +2275,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$262</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$263</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3054,16 +3060,19 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$262</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3846,6 +3855,9 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>28004</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>28404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,9 +3999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$262</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$263</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4772,16 +4784,19 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$262</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="262"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5564,6 +5579,9 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,9 +5687,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$261</c:f>
+              <c:f>'Case Changes'!$A$2:$A$262</c:f>
               <c:strCache>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6451,16 +6469,19 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$261</c:f>
+              <c:f>'Case Changes'!$C$2:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7240,6 +7261,9 @@
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,9 +7370,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$270</c:f>
+              <c:f>State!$A$2:$A$271</c:f>
               <c:strCache>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8155,16 +8179,19 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$270</c:f>
+              <c:f>State!$C$2:$C$271</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8971,6 +8998,9 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>10351</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>10383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8993,9 +9023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$270</c:f>
+              <c:f>State!$A$2:$A$271</c:f>
               <c:strCache>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9802,16 +9832,19 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$270</c:f>
+              <c:f>State!$B$2:$B$271</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10618,6 +10651,9 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>357196</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>361464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10888,9 +10924,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C262" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C263" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C263" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C263">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="3">
@@ -10903,9 +10939,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C261" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C261" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C262" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C262" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10918,10 +10954,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
-    <sortCondition ref="A1:A7312"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C271" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C271" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
+    <sortCondition ref="A1:A7313"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11253,7 +11289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O262"/>
+  <dimension ref="A1:O263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14156,6 +14192,17 @@
         <v>505</v>
       </c>
     </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>538</v>
+      </c>
+      <c r="B263">
+        <v>28404</v>
+      </c>
+      <c r="C263">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14168,7 +14215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17052,6 +17099,17 @@
         <v>520</v>
       </c>
     </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>539</v>
+      </c>
+      <c r="B262">
+        <v>28404</v>
+      </c>
+      <c r="C262">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17063,7 +17121,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20047,6 +20105,17 @@
         <v>10351</v>
       </c>
     </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>539</v>
+      </c>
+      <c r="B271">
+        <v>361464</v>
+      </c>
+      <c r="C271">
+        <v>10383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008A5C0E-7BC7-4FC9-ABBA-923A71722550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62625E-C004-4699-8CAE-94C91226AC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$263</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$54</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$264</definedName>
     <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;ACDelta&quot;" commandType="3"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;AlleghenyCountyCases&quot;" commandType="3"/>
   </connection>
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="542">
   <si>
     <t>date</t>
   </si>
@@ -1048,6 +1048,636 @@
   </si>
   <si>
     <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>05/07/2020</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>05/09/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>05/13/2020</t>
+  </si>
+  <si>
+    <t>05/14/2020</t>
+  </si>
+  <si>
+    <t>05/15/2020</t>
+  </si>
+  <si>
+    <t>05/16/2020</t>
+  </si>
+  <si>
+    <t>05/17/2020</t>
+  </si>
+  <si>
+    <t>05/18/2020</t>
+  </si>
+  <si>
+    <t>05/19/2020</t>
+  </si>
+  <si>
+    <t>05/20/2020</t>
+  </si>
+  <si>
+    <t>05/21/2020</t>
+  </si>
+  <si>
+    <t>05/22/2020</t>
+  </si>
+  <si>
+    <t>05/23/2020</t>
+  </si>
+  <si>
+    <t>05/24/2020</t>
+  </si>
+  <si>
+    <t>05/25/2020</t>
+  </si>
+  <si>
+    <t>05/26/2020</t>
+  </si>
+  <si>
+    <t>05/27/2020</t>
+  </si>
+  <si>
+    <t>05/28/2020</t>
+  </si>
+  <si>
+    <t>05/29/2020</t>
+  </si>
+  <si>
+    <t>05/30/2020</t>
+  </si>
+  <si>
+    <t>05/31/2020</t>
+  </si>
+  <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
+  </si>
+  <si>
+    <t>11/25/2020</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
+  </si>
+  <si>
+    <t>12/01/2020</t>
+  </si>
+  <si>
+    <t>06/04/2020</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>06/06/2020</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>06/12/2020</t>
+  </si>
+  <si>
+    <t>06/13/2020</t>
+  </si>
+  <si>
+    <t>06/14/2020</t>
+  </si>
+  <si>
+    <t>06/15/2020</t>
+  </si>
+  <si>
+    <t>06/16/2020</t>
+  </si>
+  <si>
+    <t>06/17/2020</t>
+  </si>
+  <si>
+    <t>06/18/2020</t>
+  </si>
+  <si>
+    <t>06/19/2020</t>
+  </si>
+  <si>
+    <t>06/20/2020</t>
+  </si>
+  <si>
+    <t>06/21/2020</t>
+  </si>
+  <si>
+    <t>06/22/2020</t>
+  </si>
+  <si>
+    <t>06/23/2020</t>
+  </si>
+  <si>
+    <t>06/24/2020</t>
+  </si>
+  <si>
+    <t>06/25/2020</t>
+  </si>
+  <si>
+    <t>06/26/2020</t>
+  </si>
+  <si>
+    <t>06/27/2020</t>
+  </si>
+  <si>
+    <t>06/28/2020</t>
+  </si>
+  <si>
+    <t>06/29/2020</t>
+  </si>
+  <si>
+    <t>06/30/2020</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>07/02/2020</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>07/04/2020</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>07/13/2020</t>
+  </si>
+  <si>
+    <t>07/14/2020</t>
+  </si>
+  <si>
+    <t>07/15/2020</t>
+  </si>
+  <si>
+    <t>07/16/2020</t>
+  </si>
+  <si>
+    <t>07/17/2020</t>
+  </si>
+  <si>
+    <t>07/18/2020</t>
+  </si>
+  <si>
+    <t>07/19/2020</t>
+  </si>
+  <si>
+    <t>07/20/2020</t>
+  </si>
+  <si>
+    <t>07/21/2020</t>
+  </si>
+  <si>
+    <t>07/22/2020</t>
+  </si>
+  <si>
+    <t>07/23/2020</t>
+  </si>
+  <si>
+    <t>07/24/2020</t>
+  </si>
+  <si>
+    <t>07/25/2020</t>
+  </si>
+  <si>
+    <t>07/26/2020</t>
+  </si>
+  <si>
+    <t>07/27/2020</t>
+  </si>
+  <si>
+    <t>07/28/2020</t>
+  </si>
+  <si>
+    <t>07/29/2020</t>
+  </si>
+  <si>
+    <t>07/30/2020</t>
+  </si>
+  <si>
+    <t>07/31/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>08/08/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>08/11/2020</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>08/13/2020</t>
+  </si>
+  <si>
+    <t>08/14/2020</t>
+  </si>
+  <si>
+    <t>08/15/2020</t>
+  </si>
+  <si>
+    <t>08/16/2020</t>
+  </si>
+  <si>
+    <t>08/17/2020</t>
+  </si>
+  <si>
+    <t>08/18/2020</t>
+  </si>
+  <si>
+    <t>08/19/2020</t>
+  </si>
+  <si>
+    <t>08/20/2020</t>
+  </si>
+  <si>
+    <t>08/21/2020</t>
+  </si>
+  <si>
+    <t>08/22/2020</t>
+  </si>
+  <si>
+    <t>08/23/2020</t>
+  </si>
+  <si>
+    <t>08/24/2020</t>
+  </si>
+  <si>
+    <t>08/25/2020</t>
+  </si>
+  <si>
+    <t>08/26/2020</t>
+  </si>
+  <si>
+    <t>08/27/2020</t>
+  </si>
+  <si>
+    <t>08/28/2020</t>
+  </si>
+  <si>
+    <t>08/29/2020</t>
+  </si>
+  <si>
+    <t>08/30/2020</t>
+  </si>
+  <si>
+    <t>08/31/2020</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>09/13/2020</t>
+  </si>
+  <si>
+    <t>09/14/2020</t>
+  </si>
+  <si>
+    <t>09/15/2020</t>
+  </si>
+  <si>
+    <t>09/16/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>09/19/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/21/2020</t>
+  </si>
+  <si>
+    <t>09/22/2020</t>
+  </si>
+  <si>
+    <t>09/23/2020</t>
+  </si>
+  <si>
+    <t>09/24/2020</t>
+  </si>
+  <si>
+    <t>09/25/2020</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>09/27/2020</t>
+  </si>
+  <si>
+    <t>09/28/2020</t>
+  </si>
+  <si>
+    <t>09/29/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>10/13/2020</t>
+  </si>
+  <si>
+    <t>10/14/2020</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>10/16/2020</t>
+  </si>
+  <si>
+    <t>10/17/2020</t>
+  </si>
+  <si>
+    <t>10/18/2020</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
+  </si>
+  <si>
+    <t>11/16/2020</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>11/18/2020</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>11/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1651,9 +2281,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$54</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$264</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -1812,16 +2442,646 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>05/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>05/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>05/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>05/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>05/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>05/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>05/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>05/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>05/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>05/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>05/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>05/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>05/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>05/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>05/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>05/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>05/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>05/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>05/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>05/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>05/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>05/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>05/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>05/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>05/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>05/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>05/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>06/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>06/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>06/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>06/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>06/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>06/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>06/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>06/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>06/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>06/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>06/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>06/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>06/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>06/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>06/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>06/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>06/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>06/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>06/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>06/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>06/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>06/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>06/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>06/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>06/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>06/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>06/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>06/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>06/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>07/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>07/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>07/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>07/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>07/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>07/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>07/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>07/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>07/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>07/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>07/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>07/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>07/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>07/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>07/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>07/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>07/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>07/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>07/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>07/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>07/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>07/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>07/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>07/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>07/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>07/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>07/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>07/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>07/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>07/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>08/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>08/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>08/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>08/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>08/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>08/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>08/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>08/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>08/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>08/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>08/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>08/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>08/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>08/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>08/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>08/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>08/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>08/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>08/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>08/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>08/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>08/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>08/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>08/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>08/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>08/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>08/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>08/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>08/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>08/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>08/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>09/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>09/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>11/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>12/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$54</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1980,6 +3240,636 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1658</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3103</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3979</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4209</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4547</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4762</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4962</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5033</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5364</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6125</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6263</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6435</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6574</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6817</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7015</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7161</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7294</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7474</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7593</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7718</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8094</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8242</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8310</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8442</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8512</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8612</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8709</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8796</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8857</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8932</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9008</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9078</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9192</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9282</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9359</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9433</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9504</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9549</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9576</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9676</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9756</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9903</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9932</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10065</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10128</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10211</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10310</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10347</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10376</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10444</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10549</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10641</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10709</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10771</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10810</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10847</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>10915</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10969</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11069</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11268</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11358</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11431</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11510</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11578</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11663</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11737</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11779</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11821</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11867</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11927</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>11995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12101</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12162</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12234</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12305</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12348</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12454</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12731</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12777</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12854</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12897</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13024</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13102</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>13183</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13280</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13362</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13436</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13672</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13821</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13959</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>14075</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>14174</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>14277</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>14396</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14529</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>14687</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14818</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>14922</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14995</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15101</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15449</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15622</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15796</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15940</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>16060</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>16210</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>16410</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>16599</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>16838</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>17126</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17386</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>17656</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>17973</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>18339</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>18751</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>19129</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>19499</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>20026</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>20526</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>20814</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>21434</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>22043</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>22527</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23121</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23697</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>24083</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>24624</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25179</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25952</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>26821</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>28004</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>28404</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>29007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,9 +4011,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$54</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$264</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -2282,16 +4172,646 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>05/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>05/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>05/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>05/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>05/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>05/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>05/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>05/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>05/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>05/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>05/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>05/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>05/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>05/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>05/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>05/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>05/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>05/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>05/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>05/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>05/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>05/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>05/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>05/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>05/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>05/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>05/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>06/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>06/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>06/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>06/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>06/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>06/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>06/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>06/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>06/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>06/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>06/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>06/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>06/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>06/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>06/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>06/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>06/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>06/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>06/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>06/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>06/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>06/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>06/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>06/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>06/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>06/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>06/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>06/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>06/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>07/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>07/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>07/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>07/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>07/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>07/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>07/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>07/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>07/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>07/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>07/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>07/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>07/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>07/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>07/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>07/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>07/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>07/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>07/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>07/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>07/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>07/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>07/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>07/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>07/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>07/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>07/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>07/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>07/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>07/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>08/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>08/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>08/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>08/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>08/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>08/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>08/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>08/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>08/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>08/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>08/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>08/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>08/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>08/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>08/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>08/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>08/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>08/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>08/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>08/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>08/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>08/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>08/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>08/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>08/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>08/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>08/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>08/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>08/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>08/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>08/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>09/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>09/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>11/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>12/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$54</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2450,6 +4970,636 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7774,7 +10924,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" refreshOnLoad="1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 AlleghenyCountyCases_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -7810,9 +10960,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C54" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -8175,7 +11325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -8787,14 +11937,2318 @@
         <v>109</v>
       </c>
     </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>332</v>
+      </c>
+      <c r="B55">
+        <v>1394</v>
+      </c>
+      <c r="C55">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56">
+        <v>1439</v>
+      </c>
+      <c r="C56">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57">
+        <v>1455</v>
+      </c>
+      <c r="C57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58">
+        <v>1486</v>
+      </c>
+      <c r="C58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59">
+        <v>1503</v>
+      </c>
+      <c r="C59">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60">
+        <v>1511</v>
+      </c>
+      <c r="C60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61">
+        <v>1526</v>
+      </c>
+      <c r="C61">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>339</v>
+      </c>
+      <c r="B62">
+        <v>1545</v>
+      </c>
+      <c r="C62">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63">
+        <v>1551</v>
+      </c>
+      <c r="C63">
+        <v>139</v>
+      </c>
+    </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64">
+        <v>1582</v>
+      </c>
+      <c r="C64">
+        <v>141</v>
+      </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65">
+        <v>1595</v>
+      </c>
+      <c r="C65">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66">
+        <v>1603</v>
+      </c>
+      <c r="C66">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67">
+        <v>1641</v>
+      </c>
+      <c r="C67">
+        <v>143</v>
+      </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68">
+        <v>1658</v>
+      </c>
+      <c r="C68">
+        <v>145</v>
+      </c>
       <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69">
+        <v>1687</v>
+      </c>
+      <c r="C69">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70">
+        <v>1718</v>
+      </c>
+      <c r="C70">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71">
+        <v>1739</v>
+      </c>
+      <c r="C71">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72">
+        <v>1753</v>
+      </c>
+      <c r="C72">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73">
+        <v>1777</v>
+      </c>
+      <c r="C73">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>351</v>
+      </c>
+      <c r="B74">
+        <v>1805</v>
+      </c>
+      <c r="C74">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75">
+        <v>1816</v>
+      </c>
+      <c r="C75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76">
+        <v>1828</v>
+      </c>
+      <c r="C76">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77">
+        <v>1851</v>
+      </c>
+      <c r="C77">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78">
+        <v>1870</v>
+      </c>
+      <c r="C78">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79">
+        <v>1897</v>
+      </c>
+      <c r="C79">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80">
+        <v>1911</v>
+      </c>
+      <c r="C80">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81">
+        <v>1919</v>
+      </c>
+      <c r="C81">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82">
+        <v>1928</v>
+      </c>
+      <c r="C82">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83">
+        <v>1952</v>
+      </c>
+      <c r="C83">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>370</v>
+      </c>
+      <c r="B84">
+        <v>1965</v>
+      </c>
+      <c r="C84">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85">
+        <v>1973</v>
+      </c>
+      <c r="C85">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>372</v>
+      </c>
+      <c r="B86">
+        <v>1989</v>
+      </c>
+      <c r="C86">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>373</v>
+      </c>
+      <c r="B87">
+        <v>2003</v>
+      </c>
+      <c r="C87">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88">
+        <v>2008</v>
+      </c>
+      <c r="C88">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89">
+        <v>2027</v>
+      </c>
+      <c r="C89">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90">
+        <v>2034</v>
+      </c>
+      <c r="C90">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>377</v>
+      </c>
+      <c r="B91">
+        <v>2055</v>
+      </c>
+      <c r="C91">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92">
+        <v>2065</v>
+      </c>
+      <c r="C92">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93">
+        <v>2076</v>
+      </c>
+      <c r="C93">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94">
+        <v>2079</v>
+      </c>
+      <c r="C94">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>381</v>
+      </c>
+      <c r="B95">
+        <v>2086</v>
+      </c>
+      <c r="C95">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96">
+        <v>2113</v>
+      </c>
+      <c r="C96">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97">
+        <v>2113</v>
+      </c>
+      <c r="C97">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98">
+        <v>2122</v>
+      </c>
+      <c r="C98">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99">
+        <v>2139</v>
+      </c>
+      <c r="C99">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100">
+        <v>2159</v>
+      </c>
+      <c r="C100">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101">
+        <v>2175</v>
+      </c>
+      <c r="C101">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102">
+        <v>2220</v>
+      </c>
+      <c r="C102">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>389</v>
+      </c>
+      <c r="B103">
+        <v>2239</v>
+      </c>
+      <c r="C103">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104">
+        <v>2284</v>
+      </c>
+      <c r="C104">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>391</v>
+      </c>
+      <c r="B105">
+        <v>2321</v>
+      </c>
+      <c r="C105">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>392</v>
+      </c>
+      <c r="B106">
+        <v>2382</v>
+      </c>
+      <c r="C106">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107">
+        <v>2472</v>
+      </c>
+      <c r="C107">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>394</v>
+      </c>
+      <c r="B108">
+        <v>2568</v>
+      </c>
+      <c r="C108">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109">
+        <v>2651</v>
+      </c>
+      <c r="C109">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>396</v>
+      </c>
+      <c r="B110">
+        <v>2760</v>
+      </c>
+      <c r="C110">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>397</v>
+      </c>
+      <c r="B111">
+        <v>2870</v>
+      </c>
+      <c r="C111">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>398</v>
+      </c>
+      <c r="B112">
+        <v>3103</v>
+      </c>
+      <c r="C112">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113">
+        <v>3280</v>
+      </c>
+      <c r="C113">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>400</v>
+      </c>
+      <c r="B114">
+        <v>3430</v>
+      </c>
+      <c r="C114">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>401</v>
+      </c>
+      <c r="B115">
+        <v>3557</v>
+      </c>
+      <c r="C115">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>402</v>
+      </c>
+      <c r="B116">
+        <v>3775</v>
+      </c>
+      <c r="C116">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>403</v>
+      </c>
+      <c r="B117">
+        <v>3979</v>
+      </c>
+      <c r="C117">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118">
+        <v>4209</v>
+      </c>
+      <c r="C118">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>405</v>
+      </c>
+      <c r="B119">
+        <v>4367</v>
+      </c>
+      <c r="C119">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>406</v>
+      </c>
+      <c r="B120">
+        <v>4547</v>
+      </c>
+      <c r="C120">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>407</v>
+      </c>
+      <c r="B121">
+        <v>4762</v>
+      </c>
+      <c r="C121">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122">
+        <v>4962</v>
+      </c>
+      <c r="C122">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>409</v>
+      </c>
+      <c r="B123">
+        <v>5033</v>
+      </c>
+      <c r="C123">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>410</v>
+      </c>
+      <c r="B124">
+        <v>5364</v>
+      </c>
+      <c r="C124">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125">
+        <v>5610</v>
+      </c>
+      <c r="C125">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126">
+        <v>5750</v>
+      </c>
+      <c r="C126">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127">
+        <v>5990</v>
+      </c>
+      <c r="C127">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>414</v>
+      </c>
+      <c r="B128">
+        <v>6125</v>
+      </c>
+      <c r="C128">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129">
+        <v>6263</v>
+      </c>
+      <c r="C129">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>416</v>
+      </c>
+      <c r="B130">
+        <v>6435</v>
+      </c>
+      <c r="C130">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>417</v>
+      </c>
+      <c r="B131">
+        <v>6574</v>
+      </c>
+      <c r="C131">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>418</v>
+      </c>
+      <c r="B132">
+        <v>6670</v>
+      </c>
+      <c r="C132">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>419</v>
+      </c>
+      <c r="B133">
+        <v>6817</v>
+      </c>
+      <c r="C133">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134">
+        <v>7015</v>
+      </c>
+      <c r="C134">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135">
+        <v>7161</v>
+      </c>
+      <c r="C135">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>422</v>
+      </c>
+      <c r="B136">
+        <v>7294</v>
+      </c>
+      <c r="C136">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B137">
+        <v>7474</v>
+      </c>
+      <c r="C137">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>424</v>
+      </c>
+      <c r="B138">
+        <v>7593</v>
+      </c>
+      <c r="C138">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>425</v>
+      </c>
+      <c r="B139">
+        <v>7718</v>
+      </c>
+      <c r="C139">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>426</v>
+      </c>
+      <c r="B140">
+        <v>7850</v>
+      </c>
+      <c r="C140">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141">
+        <v>8094</v>
+      </c>
+      <c r="C141">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>428</v>
+      </c>
+      <c r="B142">
+        <v>8160</v>
+      </c>
+      <c r="C142">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>429</v>
+      </c>
+      <c r="B143">
+        <v>8242</v>
+      </c>
+      <c r="C143">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>430</v>
+      </c>
+      <c r="B144">
+        <v>8310</v>
+      </c>
+      <c r="C144">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145">
+        <v>8442</v>
+      </c>
+      <c r="C145">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146">
+        <v>8512</v>
+      </c>
+      <c r="C146">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>433</v>
+      </c>
+      <c r="B147">
+        <v>8612</v>
+      </c>
+      <c r="C147">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>434</v>
+      </c>
+      <c r="B148">
+        <v>8709</v>
+      </c>
+      <c r="C148">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>435</v>
+      </c>
+      <c r="B149">
+        <v>8796</v>
+      </c>
+      <c r="C149">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>436</v>
+      </c>
+      <c r="B150">
+        <v>8857</v>
+      </c>
+      <c r="C150">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>437</v>
+      </c>
+      <c r="B151">
+        <v>8932</v>
+      </c>
+      <c r="C151">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>438</v>
+      </c>
+      <c r="B152">
+        <v>9008</v>
+      </c>
+      <c r="C152">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153">
+        <v>9078</v>
+      </c>
+      <c r="C153">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>440</v>
+      </c>
+      <c r="B154">
+        <v>9192</v>
+      </c>
+      <c r="C154">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>441</v>
+      </c>
+      <c r="B155">
+        <v>9282</v>
+      </c>
+      <c r="C155">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>442</v>
+      </c>
+      <c r="B156">
+        <v>9359</v>
+      </c>
+      <c r="C156">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157">
+        <v>9433</v>
+      </c>
+      <c r="C157">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>444</v>
+      </c>
+      <c r="B158">
+        <v>9504</v>
+      </c>
+      <c r="C158">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>445</v>
+      </c>
+      <c r="B159">
+        <v>9549</v>
+      </c>
+      <c r="C159">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>446</v>
+      </c>
+      <c r="B160">
+        <v>9576</v>
+      </c>
+      <c r="C160">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>447</v>
+      </c>
+      <c r="B161">
+        <v>9676</v>
+      </c>
+      <c r="C161">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>448</v>
+      </c>
+      <c r="B162">
+        <v>9756</v>
+      </c>
+      <c r="C162">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>449</v>
+      </c>
+      <c r="B163">
+        <v>9817</v>
+      </c>
+      <c r="C163">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>450</v>
+      </c>
+      <c r="B164">
+        <v>9903</v>
+      </c>
+      <c r="C164">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>451</v>
+      </c>
+      <c r="B165">
+        <v>9932</v>
+      </c>
+      <c r="C165">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>452</v>
+      </c>
+      <c r="B166">
+        <v>9990</v>
+      </c>
+      <c r="C166">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>453</v>
+      </c>
+      <c r="B167">
+        <v>10004</v>
+      </c>
+      <c r="C167">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168">
+        <v>10065</v>
+      </c>
+      <c r="C168">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>455</v>
+      </c>
+      <c r="B169">
+        <v>10128</v>
+      </c>
+      <c r="C169">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>456</v>
+      </c>
+      <c r="B170">
+        <v>10211</v>
+      </c>
+      <c r="C170">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>457</v>
+      </c>
+      <c r="B171">
+        <v>10310</v>
+      </c>
+      <c r="C171">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>458</v>
+      </c>
+      <c r="B172">
+        <v>10347</v>
+      </c>
+      <c r="C172">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173">
+        <v>10376</v>
+      </c>
+      <c r="C173">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>460</v>
+      </c>
+      <c r="B174">
+        <v>10444</v>
+      </c>
+      <c r="C174">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>461</v>
+      </c>
+      <c r="B175">
+        <v>10549</v>
+      </c>
+      <c r="C175">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>462</v>
+      </c>
+      <c r="B176">
+        <v>10641</v>
+      </c>
+      <c r="C176">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>463</v>
+      </c>
+      <c r="B177">
+        <v>10709</v>
+      </c>
+      <c r="C177">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>464</v>
+      </c>
+      <c r="B178">
+        <v>10771</v>
+      </c>
+      <c r="C178">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>465</v>
+      </c>
+      <c r="B179">
+        <v>10810</v>
+      </c>
+      <c r="C179">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>466</v>
+      </c>
+      <c r="B180">
+        <v>10847</v>
+      </c>
+      <c r="C180">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>467</v>
+      </c>
+      <c r="B181">
+        <v>10915</v>
+      </c>
+      <c r="C181">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>468</v>
+      </c>
+      <c r="B182">
+        <v>10969</v>
+      </c>
+      <c r="C182">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>469</v>
+      </c>
+      <c r="B183">
+        <v>11069</v>
+      </c>
+      <c r="C183">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>470</v>
+      </c>
+      <c r="B184">
+        <v>11126</v>
+      </c>
+      <c r="C184">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>471</v>
+      </c>
+      <c r="B185">
+        <v>11126</v>
+      </c>
+      <c r="C185">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>472</v>
+      </c>
+      <c r="B186">
+        <v>11268</v>
+      </c>
+      <c r="C186">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>473</v>
+      </c>
+      <c r="B187">
+        <v>11358</v>
+      </c>
+      <c r="C187">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>474</v>
+      </c>
+      <c r="B188">
+        <v>11431</v>
+      </c>
+      <c r="C188">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>475</v>
+      </c>
+      <c r="B189">
+        <v>11510</v>
+      </c>
+      <c r="C189">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>476</v>
+      </c>
+      <c r="B190">
+        <v>11578</v>
+      </c>
+      <c r="C190">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>477</v>
+      </c>
+      <c r="B191">
+        <v>11663</v>
+      </c>
+      <c r="C191">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>478</v>
+      </c>
+      <c r="B192">
+        <v>11737</v>
+      </c>
+      <c r="C192">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>479</v>
+      </c>
+      <c r="B193">
+        <v>11779</v>
+      </c>
+      <c r="C193">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>480</v>
+      </c>
+      <c r="B194">
+        <v>11821</v>
+      </c>
+      <c r="C194">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>481</v>
+      </c>
+      <c r="B195">
+        <v>11867</v>
+      </c>
+      <c r="C195">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>482</v>
+      </c>
+      <c r="B196">
+        <v>11927</v>
+      </c>
+      <c r="C196">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>483</v>
+      </c>
+      <c r="B197">
+        <v>11995</v>
+      </c>
+      <c r="C197">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>484</v>
+      </c>
+      <c r="B198">
+        <v>12101</v>
+      </c>
+      <c r="C198">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>485</v>
+      </c>
+      <c r="B199">
+        <v>12162</v>
+      </c>
+      <c r="C199">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>486</v>
+      </c>
+      <c r="B200">
+        <v>12234</v>
+      </c>
+      <c r="C200">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>487</v>
+      </c>
+      <c r="B201">
+        <v>12305</v>
+      </c>
+      <c r="C201">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>488</v>
+      </c>
+      <c r="B202">
+        <v>12348</v>
+      </c>
+      <c r="C202">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>489</v>
+      </c>
+      <c r="B203">
+        <v>12454</v>
+      </c>
+      <c r="C203">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>490</v>
+      </c>
+      <c r="B204">
+        <v>12527</v>
+      </c>
+      <c r="C204">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>491</v>
+      </c>
+      <c r="B205">
+        <v>12527</v>
+      </c>
+      <c r="C205">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>492</v>
+      </c>
+      <c r="B206">
+        <v>12731</v>
+      </c>
+      <c r="C206">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>493</v>
+      </c>
+      <c r="B207">
+        <v>12777</v>
+      </c>
+      <c r="C207">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>494</v>
+      </c>
+      <c r="B208">
+        <v>12854</v>
+      </c>
+      <c r="C208">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>495</v>
+      </c>
+      <c r="B209">
+        <v>12897</v>
+      </c>
+      <c r="C209">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>496</v>
+      </c>
+      <c r="B210">
+        <v>13024</v>
+      </c>
+      <c r="C210">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>497</v>
+      </c>
+      <c r="B211">
+        <v>13102</v>
+      </c>
+      <c r="C211">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>498</v>
+      </c>
+      <c r="B212">
+        <v>13183</v>
+      </c>
+      <c r="C212">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>499</v>
+      </c>
+      <c r="B213">
+        <v>13280</v>
+      </c>
+      <c r="C213">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>500</v>
+      </c>
+      <c r="B214">
+        <v>13362</v>
+      </c>
+      <c r="C214">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>501</v>
+      </c>
+      <c r="B215">
+        <v>13436</v>
+      </c>
+      <c r="C215">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>502</v>
+      </c>
+      <c r="B216">
+        <v>13533</v>
+      </c>
+      <c r="C216">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>503</v>
+      </c>
+      <c r="B217">
+        <v>13672</v>
+      </c>
+      <c r="C217">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>504</v>
+      </c>
+      <c r="B218">
+        <v>13821</v>
+      </c>
+      <c r="C218">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>505</v>
+      </c>
+      <c r="B219">
+        <v>13959</v>
+      </c>
+      <c r="C219">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>506</v>
+      </c>
+      <c r="B220">
+        <v>14075</v>
+      </c>
+      <c r="C220">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>507</v>
+      </c>
+      <c r="B221">
+        <v>14174</v>
+      </c>
+      <c r="C221">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>508</v>
+      </c>
+      <c r="B222">
+        <v>14277</v>
+      </c>
+      <c r="C222">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223">
+        <v>14396</v>
+      </c>
+      <c r="C223">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>510</v>
+      </c>
+      <c r="B224">
+        <v>14529</v>
+      </c>
+      <c r="C224">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>511</v>
+      </c>
+      <c r="B225">
+        <v>14687</v>
+      </c>
+      <c r="C225">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>512</v>
+      </c>
+      <c r="B226">
+        <v>14818</v>
+      </c>
+      <c r="C226">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>513</v>
+      </c>
+      <c r="B227">
+        <v>14922</v>
+      </c>
+      <c r="C227">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228">
+        <v>14995</v>
+      </c>
+      <c r="C228">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>515</v>
+      </c>
+      <c r="B229">
+        <v>15101</v>
+      </c>
+      <c r="C229">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>516</v>
+      </c>
+      <c r="B230">
+        <v>15300</v>
+      </c>
+      <c r="C230">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>517</v>
+      </c>
+      <c r="B231">
+        <v>15449</v>
+      </c>
+      <c r="C231">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>518</v>
+      </c>
+      <c r="B232">
+        <v>15622</v>
+      </c>
+      <c r="C232">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>519</v>
+      </c>
+      <c r="B233">
+        <v>15796</v>
+      </c>
+      <c r="C233">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>520</v>
+      </c>
+      <c r="B234">
+        <v>15940</v>
+      </c>
+      <c r="C234">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>521</v>
+      </c>
+      <c r="B235">
+        <v>16060</v>
+      </c>
+      <c r="C235">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>522</v>
+      </c>
+      <c r="B236">
+        <v>16210</v>
+      </c>
+      <c r="C236">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>523</v>
+      </c>
+      <c r="B237">
+        <v>16410</v>
+      </c>
+      <c r="C237">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>524</v>
+      </c>
+      <c r="B238">
+        <v>16599</v>
+      </c>
+      <c r="C238">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>525</v>
+      </c>
+      <c r="B239">
+        <v>16838</v>
+      </c>
+      <c r="C239">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>526</v>
+      </c>
+      <c r="B240">
+        <v>17126</v>
+      </c>
+      <c r="C240">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>527</v>
+      </c>
+      <c r="B241">
+        <v>17386</v>
+      </c>
+      <c r="C241">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>528</v>
+      </c>
+      <c r="B242">
+        <v>17656</v>
+      </c>
+      <c r="C242">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>529</v>
+      </c>
+      <c r="B243">
+        <v>17973</v>
+      </c>
+      <c r="C243">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>530</v>
+      </c>
+      <c r="B244">
+        <v>18339</v>
+      </c>
+      <c r="C244">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>531</v>
+      </c>
+      <c r="B245">
+        <v>18751</v>
+      </c>
+      <c r="C245">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>532</v>
+      </c>
+      <c r="B246">
+        <v>19129</v>
+      </c>
+      <c r="C246">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>533</v>
+      </c>
+      <c r="B247">
+        <v>19499</v>
+      </c>
+      <c r="C247">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>534</v>
+      </c>
+      <c r="B248">
+        <v>20026</v>
+      </c>
+      <c r="C248">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>535</v>
+      </c>
+      <c r="B249">
+        <v>20526</v>
+      </c>
+      <c r="C249">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>536</v>
+      </c>
+      <c r="B250">
+        <v>20814</v>
+      </c>
+      <c r="C250">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>537</v>
+      </c>
+      <c r="B251">
+        <v>21434</v>
+      </c>
+      <c r="C251">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>538</v>
+      </c>
+      <c r="B252">
+        <v>22043</v>
+      </c>
+      <c r="C252">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>539</v>
+      </c>
+      <c r="B253">
+        <v>22527</v>
+      </c>
+      <c r="C253">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>540</v>
+      </c>
+      <c r="B254">
+        <v>23121</v>
+      </c>
+      <c r="C254">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>541</v>
+      </c>
+      <c r="B255">
+        <v>23697</v>
+      </c>
+      <c r="C255">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>361</v>
+      </c>
+      <c r="B256">
+        <v>24083</v>
+      </c>
+      <c r="C256">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>362</v>
+      </c>
+      <c r="B257">
+        <v>24624</v>
+      </c>
+      <c r="C257">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>363</v>
+      </c>
+      <c r="B258">
+        <v>25179</v>
+      </c>
+      <c r="C258">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>364</v>
+      </c>
+      <c r="B259">
+        <v>25952</v>
+      </c>
+      <c r="C259">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>365</v>
+      </c>
+      <c r="B260">
+        <v>26821</v>
+      </c>
+      <c r="C260">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>366</v>
+      </c>
+      <c r="B261">
+        <v>27484</v>
+      </c>
+      <c r="C261">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>367</v>
+      </c>
+      <c r="B262">
+        <v>28004</v>
+      </c>
+      <c r="C262">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>368</v>
+      </c>
+      <c r="B263">
+        <v>28404</v>
+      </c>
+      <c r="C263">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>369</v>
+      </c>
+      <c r="B264">
+        <v>29007</v>
+      </c>
+      <c r="C264">
+        <v>518</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62625E-C004-4699-8CAE-94C91226AC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D2303-7769-4F16-9033-6C1E3AD9F227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -11327,7 +11327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -17181,7 +17181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D2303-7769-4F16-9033-6C1E3AD9F227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49500B-01BA-4A2A-810F-AF632702C602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$263</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$264</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$272</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$264</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$265</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$273</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="544">
   <si>
     <t>date</t>
   </si>
@@ -1678,6 +1678,12 @@
   </si>
   <si>
     <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>12/02/2020</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
@@ -2281,9 +2287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$264</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$265</c:f>
               <c:strCache>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3072,16 +3078,19 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>12/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$264</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$265</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3870,6 +3879,9 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>29007</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>29515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,9 +4023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$264</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$265</c:f>
               <c:strCache>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4802,16 +4814,19 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>12/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$264</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$265</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5600,6 +5615,9 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,9 +5723,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$263</c:f>
+              <c:f>'Case Changes'!$A$2:$A$264</c:f>
               <c:strCache>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6493,16 +6511,19 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$263</c:f>
+              <c:f>'Case Changes'!$C$2:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="263"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7288,6 +7309,9 @@
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7394,9 +7418,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$272</c:f>
+              <c:f>State!$A$2:$A$273</c:f>
               <c:strCache>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8209,16 +8233,19 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$272</c:f>
+              <c:f>State!$C$2:$C$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9031,6 +9058,9 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>10563</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>10757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,9 +9083,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$272</c:f>
+              <c:f>State!$A$2:$A$273</c:f>
               <c:strCache>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9868,16 +9898,19 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$272</c:f>
+              <c:f>State!$B$2:$B$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10690,6 +10723,9 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>367140</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>375431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10960,9 +10996,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -10975,9 +11011,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C263" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C263" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C263">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -10990,10 +11026,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C272" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C272" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
-    <sortCondition ref="A1:A7314"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
+    <sortCondition ref="A1:A7315"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11325,7 +11361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O264"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14250,6 +14286,17 @@
         <v>518</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>542</v>
+      </c>
+      <c r="B265">
+        <v>29515</v>
+      </c>
+      <c r="C265">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14262,7 +14309,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17168,6 +17215,17 @@
         <v>603</v>
       </c>
     </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>543</v>
+      </c>
+      <c r="B264">
+        <v>29515</v>
+      </c>
+      <c r="C264">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17179,7 +17237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20185,6 +20243,17 @@
         <v>10563</v>
       </c>
     </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>543</v>
+      </c>
+      <c r="B273">
+        <v>375431</v>
+      </c>
+      <c r="C273">
+        <v>10757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49500B-01BA-4A2A-810F-AF632702C602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC28215-B63E-4550-95B6-F664848D0A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$264</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$265</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$273</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$265</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$266</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
   <si>
     <t>date</t>
   </si>
@@ -1684,6 +1684,12 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
@@ -2287,9 +2293,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$265</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$266</c:f>
               <c:strCache>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3081,16 +3087,19 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>12/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$265</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3882,6 +3891,9 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>29515</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>30543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,9 +4035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$265</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$266</c:f>
               <c:strCache>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4817,16 +4829,19 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>12/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$265</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5618,6 +5633,9 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,9 +5741,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$264</c:f>
+              <c:f>'Case Changes'!$A$2:$A$265</c:f>
               <c:strCache>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6514,16 +6532,19 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$264</c:f>
+              <c:f>'Case Changes'!$C$2:$C$265</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="264"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7312,6 +7333,9 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7418,9 +7442,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$273</c:f>
+              <c:f>State!$A$2:$A$274</c:f>
               <c:strCache>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8236,16 +8260,19 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$273</c:f>
+              <c:f>State!$C$2:$C$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9061,6 +9088,9 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>10757</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>10944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9083,9 +9113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$273</c:f>
+              <c:f>State!$A$2:$A$274</c:f>
               <c:strCache>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9901,16 +9931,19 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$273</c:f>
+              <c:f>State!$B$2:$B$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10726,6 +10759,9 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>375431</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>386837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10996,9 +11032,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11011,9 +11047,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C264" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C264" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C264">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11026,10 +11062,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
-    <sortCondition ref="A1:A7315"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
+    <sortCondition ref="A1:A7316"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11361,7 +11397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14297,6 +14333,17 @@
         <v>536</v>
       </c>
     </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>544</v>
+      </c>
+      <c r="B266">
+        <v>30543</v>
+      </c>
+      <c r="C266">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14309,7 +14356,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17226,6 +17273,17 @@
         <v>508</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>545</v>
+      </c>
+      <c r="B265">
+        <v>30543</v>
+      </c>
+      <c r="C265">
+        <v>1028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17237,7 +17295,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20254,6 +20312,17 @@
         <v>10757</v>
       </c>
     </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274">
+        <v>386837</v>
+      </c>
+      <c r="C274">
+        <v>10944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC28215-B63E-4550-95B6-F664848D0A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90ED0F-E0B1-4DB5-9D10-930860EDFE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -11399,7 +11399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
     </sheetView>
   </sheetViews>
@@ -17297,7 +17297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90ED0F-E0B1-4DB5-9D10-930860EDFE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68998487-4386-458C-931D-C128C02F3AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$265</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$266</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$274</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$266</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$267</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$275</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="548">
   <si>
     <t>date</t>
   </si>
@@ -1690,6 +1690,12 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
   </si>
 </sst>
 </file>
@@ -2293,9 +2299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$266</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$267</c:f>
               <c:strCache>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3090,16 +3096,19 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$266</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3894,6 +3903,9 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>30543</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>31454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,9 +4047,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$266</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$267</c:f>
               <c:strCache>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4832,16 +4844,19 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$266</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5636,6 +5651,9 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5741,9 +5759,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$265</c:f>
+              <c:f>'Case Changes'!$A$2:$A$266</c:f>
               <c:strCache>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6535,16 +6553,19 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$265</c:f>
+              <c:f>'Case Changes'!$C$2:$C$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="264"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7336,6 +7357,9 @@
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7442,9 +7466,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$274</c:f>
+              <c:f>State!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8263,16 +8287,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$274</c:f>
+              <c:f>State!$C$2:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9091,6 +9118,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>10944</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>11113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9113,9 +9143,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$274</c:f>
+              <c:f>State!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9934,16 +9964,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$274</c:f>
+              <c:f>State!$B$2:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10762,6 +10795,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>386837</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>398600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11032,9 +11068,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11047,9 +11083,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C265" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C265" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11062,10 +11098,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
-    <sortCondition ref="A1:A7316"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
+    <sortCondition ref="A1:A7317"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11397,7 +11433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O266"/>
+  <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14344,6 +14380,17 @@
         <v>551</v>
       </c>
     </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>546</v>
+      </c>
+      <c r="B267">
+        <v>31454</v>
+      </c>
+      <c r="C267">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14356,7 +14403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17284,6 +17331,17 @@
         <v>1028</v>
       </c>
     </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>547</v>
+      </c>
+      <c r="B266">
+        <v>31454</v>
+      </c>
+      <c r="C266">
+        <v>911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17295,7 +17353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20323,6 +20381,17 @@
         <v>10944</v>
       </c>
     </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275">
+        <v>398600</v>
+      </c>
+      <c r="C275">
+        <v>11113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68998487-4386-458C-931D-C128C02F3AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BA939-2FE9-4EB3-9023-B4F3F7605360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$266</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$267</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$267</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$268</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$276</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="550">
   <si>
     <t>date</t>
   </si>
@@ -1696,6 +1696,12 @@
   </si>
   <si>
     <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
   </si>
 </sst>
 </file>
@@ -2299,9 +2305,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$267</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$268</c:f>
               <c:strCache>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3099,16 +3105,19 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>12/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$267</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$268</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3906,6 +3915,9 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>31454</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>32651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4047,9 +4059,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$267</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$268</c:f>
               <c:strCache>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4847,16 +4859,19 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>12/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$267</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$268</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5654,6 +5669,9 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5759,9 +5777,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$266</c:f>
+              <c:f>'Case Changes'!$A$2:$A$267</c:f>
               <c:strCache>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6556,16 +6574,19 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$266</c:f>
+              <c:f>'Case Changes'!$C$2:$C$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="266"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7360,6 +7381,9 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7466,9 +7490,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$275</c:f>
+              <c:f>State!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8290,16 +8314,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$275</c:f>
+              <c:f>State!$C$2:$C$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9121,6 +9148,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>11113</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>11262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,9 +9173,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$275</c:f>
+              <c:f>State!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9967,16 +9997,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$275</c:f>
+              <c:f>State!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10798,6 +10831,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>398600</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>411484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11068,9 +11104,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11083,9 +11119,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C266" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C266" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11098,10 +11134,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
-    <sortCondition ref="A1:A7317"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
+    <sortCondition ref="A1:A7318"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11433,7 +11469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O267"/>
+  <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14391,6 +14427,17 @@
         <v>570</v>
       </c>
     </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>548</v>
+      </c>
+      <c r="B268">
+        <v>32651</v>
+      </c>
+      <c r="C268">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14403,7 +14450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17342,6 +17389,17 @@
         <v>911</v>
       </c>
     </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>549</v>
+      </c>
+      <c r="B267">
+        <v>32651</v>
+      </c>
+      <c r="C267">
+        <v>1197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17353,7 +17411,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20392,6 +20450,17 @@
         <v>11113</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276">
+        <v>411484</v>
+      </c>
+      <c r="C276">
+        <v>11262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BA939-2FE9-4EB3-9023-B4F3F7605360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBB051-A8B7-4BBF-A25E-4DADB29C960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$267</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$268</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$268</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$269</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$277</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="552">
   <si>
     <t>date</t>
   </si>
@@ -1702,6 +1702,12 @@
   </si>
   <si>
     <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
   </si>
 </sst>
 </file>
@@ -2305,9 +2311,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$268</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$269</c:f>
               <c:strCache>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3108,16 +3114,19 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>12/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$268</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3918,6 +3927,9 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>32651</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>33505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,9 +4071,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$268</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$269</c:f>
               <c:strCache>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4862,16 +4874,19 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>12/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$268</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5671,6 +5686,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="266">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
@@ -5777,9 +5795,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$267</c:f>
+              <c:f>'Case Changes'!$A$2:$A$268</c:f>
               <c:strCache>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6577,16 +6595,19 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$267</c:f>
+              <c:f>'Case Changes'!$C$2:$C$268</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="266"/>
+                <c:ptCount val="267"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7384,6 +7405,9 @@
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7490,9 +7514,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$276</c:f>
+              <c:f>State!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8317,16 +8341,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$276</c:f>
+              <c:f>State!$C$2:$C$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9151,6 +9178,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>11262</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>11331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9173,9 +9203,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$276</c:f>
+              <c:f>State!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10000,16 +10030,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$276</c:f>
+              <c:f>State!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10834,6 +10867,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>411484</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>420114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11104,9 +11140,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11119,9 +11155,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C267" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11134,10 +11170,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
-    <sortCondition ref="A1:A7318"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
+    <sortCondition ref="A1:A7319"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11469,7 +11505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O268"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C243"/>
@@ -14438,6 +14474,17 @@
         <v>575</v>
       </c>
     </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>550</v>
+      </c>
+      <c r="B269">
+        <v>33505</v>
+      </c>
+      <c r="C269">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14450,7 +14497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E235" sqref="E235"/>
@@ -17400,6 +17447,17 @@
         <v>1197</v>
       </c>
     </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>551</v>
+      </c>
+      <c r="B268">
+        <v>33505</v>
+      </c>
+      <c r="C268">
+        <v>854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17411,7 +17469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -20461,6 +20519,17 @@
         <v>11262</v>
       </c>
     </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>551</v>
+      </c>
+      <c r="B277">
+        <v>420114</v>
+      </c>
+      <c r="C277">
+        <v>11331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBB051-A8B7-4BBF-A25E-4DADB29C960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495ACE86-67E4-4925-B190-F7B54FD0E43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -39,13 +39,13 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 ACDelta.odc" keepAlive="1" name="howe-hp_howehp Covid19 ACDelta" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;ACDelta&quot;" commandType="3"/>
   </connection>
   <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 AlleghenyCountyCases.odc" keepAlive="1" name="howe-hp_howehp Covid19 AlleghenyCountyCases" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;AlleghenyCountyCases&quot;" commandType="3"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 PACaseDeathCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 PACaseDeathCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;PACaseDeathCount&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -11116,7 +11116,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 ACDelta" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 ACDelta" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
@@ -11128,7 +11128,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 PACaseDeathCount" refreshOnLoad="1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 PACaseDeathCount" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -11508,7 +11508,7 @@
   <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C243"/>
+      <selection sqref="A1:C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14500,7 +14500,7 @@
   <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E235" sqref="E235"/>
+      <selection sqref="A1:C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17472,7 +17472,7 @@
   <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection sqref="A1:C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495ACE86-67E4-4925-B190-F7B54FD0E43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DD8AE6-9D08-49CE-8189-1BE0E23FF3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$268</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$269</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$269</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$270</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="554">
   <si>
     <t>date</t>
   </si>
@@ -1708,6 +1708,12 @@
   </si>
   <si>
     <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
   </si>
 </sst>
 </file>
@@ -2311,9 +2317,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$269</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$270</c:f>
               <c:strCache>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3117,16 +3123,19 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>12/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$269</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3930,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>33505</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>34121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,9 +4083,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$269</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$270</c:f>
               <c:strCache>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4877,16 +4889,19 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>12/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$269</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5689,6 +5704,9 @@
                   <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="267">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="268">
                   <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
@@ -5795,9 +5813,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$268</c:f>
+              <c:f>'Case Changes'!$A$2:$A$269</c:f>
               <c:strCache>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6598,16 +6616,19 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$268</c:f>
+              <c:f>'Case Changes'!$C$2:$C$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="267"/>
+                <c:ptCount val="268"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7408,6 +7429,9 @@
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7514,9 +7538,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$277</c:f>
+              <c:f>State!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8344,16 +8368,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$277</c:f>
+              <c:f>State!$C$2:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9181,6 +9208,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>11331</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>11373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9203,9 +9233,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$277</c:f>
+              <c:f>State!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10033,16 +10063,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$277</c:f>
+              <c:f>State!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10870,6 +10903,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>420114</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>426444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11140,9 +11176,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11155,9 +11191,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C268" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C268" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11170,10 +11206,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
-    <sortCondition ref="A1:A7319"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
+    <sortCondition ref="A1:A7320"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11505,7 +11541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O269"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14485,6 +14521,17 @@
         <v>575</v>
       </c>
     </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>552</v>
+      </c>
+      <c r="B270">
+        <v>34121</v>
+      </c>
+      <c r="C270">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14497,7 +14544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17458,6 +17505,17 @@
         <v>854</v>
       </c>
     </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>553</v>
+      </c>
+      <c r="B269">
+        <v>34121</v>
+      </c>
+      <c r="C269">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17469,7 +17527,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20530,6 +20588,17 @@
         <v>11331</v>
       </c>
     </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>553</v>
+      </c>
+      <c r="B278">
+        <v>426444</v>
+      </c>
+      <c r="C278">
+        <v>11373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DD8AE6-9D08-49CE-8189-1BE0E23FF3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D279B3CD-AB91-4696-BC4C-B5D94092EAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$269</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$270</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$270</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$271</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$279</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="556">
   <si>
     <t>date</t>
   </si>
@@ -1714,6 +1714,12 @@
   </si>
   <si>
     <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -2317,9 +2323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$270</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$271</c:f>
               <c:strCache>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3126,16 +3132,19 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>12/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$270</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$271</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3942,6 +3951,9 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>34814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,9 +4095,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$270</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$271</c:f>
               <c:strCache>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4892,16 +4904,19 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>12/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$270</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$271</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5708,6 +5723,9 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5813,9 +5831,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$269</c:f>
+              <c:f>'Case Changes'!$A$2:$A$270</c:f>
               <c:strCache>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6619,16 +6637,19 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$269</c:f>
+              <c:f>'Case Changes'!$C$2:$C$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="268"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7432,6 +7453,9 @@
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7538,9 +7562,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$278</c:f>
+              <c:f>State!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8371,16 +8395,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$278</c:f>
+              <c:f>State!$C$2:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9211,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>11373</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9233,9 +9263,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$278</c:f>
+              <c:f>State!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10066,16 +10096,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$278</c:f>
+              <c:f>State!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10906,6 +10939,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>426444</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>436614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11176,9 +11212,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C271" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C271" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11191,9 +11227,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C269" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C269" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11206,10 +11242,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
-    <sortCondition ref="A1:A7320"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
+    <sortCondition ref="A1:A7321"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11541,7 +11577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O270"/>
+  <dimension ref="A1:O271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14532,6 +14568,17 @@
         <v>575</v>
       </c>
     </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>554</v>
+      </c>
+      <c r="B271">
+        <v>34814</v>
+      </c>
+      <c r="C271">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14544,7 +14591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17516,6 +17563,17 @@
         <v>616</v>
       </c>
     </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>555</v>
+      </c>
+      <c r="B270">
+        <v>34814</v>
+      </c>
+      <c r="C270">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17527,7 +17585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20599,6 +20657,17 @@
         <v>11373</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>555</v>
+      </c>
+      <c r="B279">
+        <v>436614</v>
+      </c>
+      <c r="C279">
+        <v>11542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D279B3CD-AB91-4696-BC4C-B5D94092EAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244ACA62-2038-4973-B243-1C0EC61147D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$270</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$271</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$271</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$272</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$280</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="558">
   <si>
     <t>date</t>
   </si>
@@ -1720,6 +1720,12 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>12/09/2020</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -2323,9 +2329,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$271</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$272</c:f>
               <c:strCache>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3135,16 +3141,19 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>12/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$271</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3954,6 +3963,9 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>34814</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>35541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4095,9 +4107,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$271</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$272</c:f>
               <c:strCache>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4907,16 +4919,19 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>12/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$271</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5726,6 +5741,9 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,9 +5849,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$270</c:f>
+              <c:f>'Case Changes'!$A$2:$A$271</c:f>
               <c:strCache>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6640,16 +6658,19 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$270</c:f>
+              <c:f>'Case Changes'!$C$2:$C$271</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
+                <c:ptCount val="270"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7456,6 +7477,9 @@
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7562,9 +7586,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$279</c:f>
+              <c:f>State!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8398,16 +8422,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$279</c:f>
+              <c:f>State!$C$2:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9241,6 +9268,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>11542</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>11762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9263,9 +9293,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$279</c:f>
+              <c:f>State!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10099,16 +10129,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$279</c:f>
+              <c:f>State!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10942,6 +10975,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>436614</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>445317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11212,9 +11248,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C271" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C271" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C272" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C272" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11227,9 +11263,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C270" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C270" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C271" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C271" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11242,10 +11278,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
-    <sortCondition ref="A1:A7321"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
+    <sortCondition ref="A1:A7322"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11577,7 +11613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O271"/>
+  <dimension ref="A1:O272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14579,6 +14615,17 @@
         <v>588</v>
       </c>
     </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>556</v>
+      </c>
+      <c r="B272">
+        <v>35541</v>
+      </c>
+      <c r="C272">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14591,7 +14638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17574,6 +17621,17 @@
         <v>693</v>
       </c>
     </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>557</v>
+      </c>
+      <c r="B271">
+        <v>35541</v>
+      </c>
+      <c r="C271">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17585,7 +17643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20668,6 +20726,17 @@
         <v>11542</v>
       </c>
     </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280">
+        <v>445317</v>
+      </c>
+      <c r="C280">
+        <v>11762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244ACA62-2038-4973-B243-1C0EC61147D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838304F-CF1D-40D9-A144-E5244C9D6771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838304F-CF1D-40D9-A144-E5244C9D6771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35AC28E-8E23-4B77-9B9E-2BAC5562F8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$271</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$272</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$272</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$273</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$281</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="560">
   <si>
     <t>date</t>
   </si>
@@ -1726,6 +1726,12 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
   </si>
 </sst>
 </file>
@@ -2329,9 +2335,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$272</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$273</c:f>
               <c:strCache>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3144,16 +3150,19 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>12/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>12/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$272</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3966,6 +3975,9 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>35541</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>36707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4107,9 +4119,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$272</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$273</c:f>
               <c:strCache>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4922,16 +4934,19 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>12/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>12/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$272</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5744,6 +5759,9 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5849,9 +5867,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$271</c:f>
+              <c:f>'Case Changes'!$A$2:$A$272</c:f>
               <c:strCache>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6661,16 +6679,19 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$271</c:f>
+              <c:f>'Case Changes'!$C$2:$C$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="271"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7480,6 +7501,9 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7586,9 +7610,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$280</c:f>
+              <c:f>State!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8425,16 +8449,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$280</c:f>
+              <c:f>State!$C$2:$C$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9271,6 +9298,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>11762</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>12010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9293,9 +9323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$280</c:f>
+              <c:f>State!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10132,16 +10162,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$280</c:f>
+              <c:f>State!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -10978,6 +11011,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>445317</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>457289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11248,9 +11284,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C272" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C272" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11263,9 +11299,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C271" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C271" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C272" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C272" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11278,10 +11314,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
-    <sortCondition ref="A1:A7322"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
+    <sortCondition ref="A1:A7323"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11613,7 +11649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O272"/>
+  <dimension ref="A1:O273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14626,6 +14662,17 @@
         <v>619</v>
       </c>
     </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>558</v>
+      </c>
+      <c r="B273">
+        <v>36707</v>
+      </c>
+      <c r="C273">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14638,7 +14685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17632,6 +17679,17 @@
         <v>727</v>
       </c>
     </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>559</v>
+      </c>
+      <c r="B272">
+        <v>36707</v>
+      </c>
+      <c r="C272">
+        <v>1166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17643,7 +17701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20737,6 +20795,17 @@
         <v>11762</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>559</v>
+      </c>
+      <c r="B281">
+        <v>457289</v>
+      </c>
+      <c r="C281">
+        <v>12010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35AC28E-8E23-4B77-9B9E-2BAC5562F8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC13D62-EFAE-4B1E-A8D7-ED9A90D81C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$272</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$273</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$273</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$274</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$282</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="562">
   <si>
     <t>date</t>
   </si>
@@ -1732,6 +1732,12 @@
   </si>
   <si>
     <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
   </si>
 </sst>
 </file>
@@ -2335,9 +2341,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$273</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$274</c:f>
               <c:strCache>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3153,16 +3159,19 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>12/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$273</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3978,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>36707</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>38029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,9 +4131,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$273</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$274</c:f>
               <c:strCache>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4937,16 +4949,19 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>12/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$273</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5762,6 +5777,9 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5867,9 +5885,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$272</c:f>
+              <c:f>'Case Changes'!$A$2:$A$273</c:f>
               <c:strCache>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6682,16 +6700,19 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$272</c:f>
+              <c:f>'Case Changes'!$C$2:$C$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="271"/>
+                <c:ptCount val="272"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7504,6 +7525,9 @@
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7610,9 +7634,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$281</c:f>
+              <c:f>State!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8452,16 +8476,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$281</c:f>
+              <c:f>State!$C$2:$C$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9301,6 +9328,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>12010</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9323,9 +9353,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$281</c:f>
+              <c:f>State!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10165,16 +10195,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$281</c:f>
+              <c:f>State!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11014,6 +11047,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>457289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>470034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11284,9 +11320,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11299,9 +11335,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C272" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C272" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11314,10 +11350,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
-    <sortCondition ref="A1:A7323"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
+    <sortCondition ref="A1:A7324"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11649,7 +11685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O273"/>
+  <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14673,6 +14709,17 @@
         <v>635</v>
       </c>
     </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>560</v>
+      </c>
+      <c r="B274">
+        <v>38029</v>
+      </c>
+      <c r="C274">
+        <v>658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14685,7 +14732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17690,6 +17737,17 @@
         <v>1166</v>
       </c>
     </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>561</v>
+      </c>
+      <c r="B273">
+        <v>38029</v>
+      </c>
+      <c r="C273">
+        <v>1322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17701,7 +17759,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20806,6 +20864,17 @@
         <v>12010</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>561</v>
+      </c>
+      <c r="B282">
+        <v>470034</v>
+      </c>
+      <c r="C282">
+        <v>12235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC13D62-EFAE-4B1E-A8D7-ED9A90D81C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CE7F1-57BC-4FAB-898B-CD1D1356D148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CE7F1-57BC-4FAB-898B-CD1D1356D148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2570224-D496-4769-A3A7-FAAC3F10556B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$273</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$274</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$274</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$283</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="564">
   <si>
     <t>date</t>
   </si>
@@ -1738,6 +1738,12 @@
   </si>
   <si>
     <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
   </si>
 </sst>
 </file>
@@ -2341,9 +2347,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$274</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3162,16 +3168,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>12/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$274</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3990,6 +3999,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>38029</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4131,9 +4143,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$274</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4952,16 +4964,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>12/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$274</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5780,6 +5795,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,9 +5903,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$273</c:f>
+              <c:f>'Case Changes'!$A$2:$A$274</c:f>
               <c:strCache>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6703,16 +6721,19 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>2020-12-11</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-12-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$273</c:f>
+              <c:f>'Case Changes'!$C$2:$C$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7528,6 +7549,9 @@
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7634,9 +7658,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$282</c:f>
+              <c:f>State!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8479,16 +8503,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-12-11</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-12-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$282</c:f>
+              <c:f>State!$C$2:$C$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9331,6 +9358,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>12235</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9353,9 +9383,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$282</c:f>
+              <c:f>State!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10198,16 +10228,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-12-11</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-12-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$282</c:f>
+              <c:f>State!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11050,6 +11083,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>470034</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>481118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11320,9 +11356,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11335,9 +11371,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C273" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C273" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11350,10 +11386,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
-    <sortCondition ref="A1:A7324"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
+    <sortCondition ref="A1:A7325"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11685,7 +11721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O274"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14720,6 +14756,17 @@
         <v>658</v>
       </c>
     </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>562</v>
+      </c>
+      <c r="B275">
+        <v>39227</v>
+      </c>
+      <c r="C275">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14732,7 +14779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17748,6 +17795,17 @@
         <v>1322</v>
       </c>
     </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>563</v>
+      </c>
+      <c r="B274">
+        <v>39227</v>
+      </c>
+      <c r="C274">
+        <v>1198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17759,7 +17817,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20875,6 +20933,17 @@
         <v>12235</v>
       </c>
     </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>563</v>
+      </c>
+      <c r="B283">
+        <v>481118</v>
+      </c>
+      <c r="C283">
+        <v>12436</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2570224-D496-4769-A3A7-FAAC3F10556B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D01B4-7823-4128-AB87-FD032AFFD187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$274</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$275</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$284</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="566">
   <si>
     <t>date</t>
   </si>
@@ -1744,6 +1744,12 @@
   </si>
   <si>
     <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>12/13/2020</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
   </si>
 </sst>
 </file>
@@ -2347,9 +2353,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$275</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3171,16 +3177,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>12/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>12/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$275</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4002,6 +4011,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>39227</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,9 +4155,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$275</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4967,16 +4979,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>12/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>12/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$275</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5798,6 +5813,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5903,9 +5921,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$274</c:f>
+              <c:f>'Case Changes'!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6724,16 +6742,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-12-12</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-12-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$274</c:f>
+              <c:f>'Case Changes'!$C$2:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7552,6 +7573,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7658,9 +7682,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$283</c:f>
+              <c:f>State!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8506,16 +8530,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-12-12</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-12-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$283</c:f>
+              <c:f>State!$C$2:$C$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9361,6 +9388,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>12436</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>12565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9383,9 +9413,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$283</c:f>
+              <c:f>State!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10231,16 +10261,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-12-12</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-12-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$283</c:f>
+              <c:f>State!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11086,6 +11119,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>481118</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>491802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11356,9 +11392,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11371,9 +11407,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C274" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11386,10 +11422,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
-    <sortCondition ref="A1:A7325"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
+    <sortCondition ref="A1:A7326"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11721,7 +11757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O275"/>
+  <dimension ref="A1:O276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14767,6 +14803,17 @@
         <v>681</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>564</v>
+      </c>
+      <c r="B276">
+        <v>40124</v>
+      </c>
+      <c r="C276">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14779,7 +14826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17806,6 +17853,17 @@
         <v>1198</v>
       </c>
     </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>565</v>
+      </c>
+      <c r="B275">
+        <v>40124</v>
+      </c>
+      <c r="C275">
+        <v>897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17817,7 +17875,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -20944,6 +21002,17 @@
         <v>12436</v>
       </c>
     </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>565</v>
+      </c>
+      <c r="B284">
+        <v>491802</v>
+      </c>
+      <c r="C284">
+        <v>12565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D01B4-7823-4128-AB87-FD032AFFD187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EECB8-15BC-4B36-99DA-C972349554B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$275</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$276</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$285</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="568">
   <si>
     <t>date</t>
   </si>
@@ -1750,6 +1750,12 @@
   </si>
   <si>
     <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>12/14/2020</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -2353,9 +2359,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$276</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3180,16 +3186,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>12/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>12/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$276</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4014,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>40124</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>40874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,9 +4167,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$276</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4982,16 +4994,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>12/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>12/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$276</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5816,6 +5831,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5921,9 +5939,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$275</c:f>
+              <c:f>'Case Changes'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6745,16 +6763,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-12-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$275</c:f>
+              <c:f>'Case Changes'!$C$2:$C$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7576,6 +7597,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7682,9 +7706,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$284</c:f>
+              <c:f>State!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8533,16 +8557,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-12-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$284</c:f>
+              <c:f>State!$C$2:$C$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9391,6 +9418,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>12565</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>12620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9413,9 +9443,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$284</c:f>
+              <c:f>State!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10264,16 +10294,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-12-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$284</c:f>
+              <c:f>State!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11122,6 +11155,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>491802</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>499764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11392,9 +11428,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11407,9 +11443,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C275" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11422,10 +11458,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
-    <sortCondition ref="A1:A7326"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
+    <sortCondition ref="A1:A7327"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11757,7 +11793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14814,6 +14850,17 @@
         <v>691</v>
       </c>
     </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>566</v>
+      </c>
+      <c r="B277">
+        <v>40874</v>
+      </c>
+      <c r="C277">
+        <v>696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14826,7 +14873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17864,6 +17911,17 @@
         <v>897</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>567</v>
+      </c>
+      <c r="B276">
+        <v>40874</v>
+      </c>
+      <c r="C276">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17875,7 +17933,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21013,6 +21071,17 @@
         <v>12565</v>
       </c>
     </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>567</v>
+      </c>
+      <c r="B285">
+        <v>499764</v>
+      </c>
+      <c r="C285">
+        <v>12620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EECB8-15BC-4B36-99DA-C972349554B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A43FCC-ACB5-41BD-8B94-28E96D276420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$276</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$277</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$286</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="570">
   <si>
     <t>date</t>
   </si>
@@ -1756,6 +1756,12 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>12/15/2020</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -2359,9 +2365,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$277</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3189,16 +3195,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>12/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>12/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$277</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4026,6 +4035,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4167,9 +4179,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$277</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -4997,16 +5009,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>12/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>12/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$277</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5834,6 +5849,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5939,9 +5957,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$276</c:f>
+              <c:f>'Case Changes'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6766,16 +6784,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-12-14</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-12-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$276</c:f>
+              <c:f>'Case Changes'!$C$2:$C$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7600,6 +7621,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,9 +7730,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$285</c:f>
+              <c:f>State!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8560,16 +8584,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-12-14</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-12-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$285</c:f>
+              <c:f>State!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9421,6 +9448,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>12620</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>12890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9443,9 +9473,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$285</c:f>
+              <c:f>State!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10297,16 +10327,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-12-14</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-12-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$285</c:f>
+              <c:f>State!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11158,6 +11191,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>499764</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>509320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11428,9 +11464,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11443,9 +11479,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C276" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11458,10 +11494,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
-    <sortCondition ref="A1:A7327"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
+    <sortCondition ref="A1:A7328"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11793,7 +11829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O277"/>
+  <dimension ref="A1:O278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14861,6 +14897,17 @@
         <v>696</v>
       </c>
     </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>568</v>
+      </c>
+      <c r="B278">
+        <v>41933</v>
+      </c>
+      <c r="C278">
+        <v>717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14873,7 +14920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17922,6 +17969,17 @@
         <v>750</v>
       </c>
     </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>569</v>
+      </c>
+      <c r="B277">
+        <v>41933</v>
+      </c>
+      <c r="C277">
+        <v>1059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17933,7 +17991,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21082,6 +21140,17 @@
         <v>12620</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>569</v>
+      </c>
+      <c r="B286">
+        <v>509320</v>
+      </c>
+      <c r="C286">
+        <v>12890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A43FCC-ACB5-41BD-8B94-28E96D276420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAEBD71-4670-4C9A-A71E-39550DF3183E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$277</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$278</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$287</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="572">
   <si>
     <t>date</t>
   </si>
@@ -1762,6 +1762,12 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>12/16/2020</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
   </si>
 </sst>
 </file>
@@ -2365,9 +2371,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$278</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3198,16 +3204,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>12/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>12/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$278</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4038,6 +4047,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>41933</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>43007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4179,9 +4191,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$278</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5012,16 +5024,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>12/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>12/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$278</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5852,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5957,9 +5975,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$277</c:f>
+              <c:f>'Case Changes'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6787,16 +6805,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-12-15</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-12-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$277</c:f>
+              <c:f>'Case Changes'!$C$2:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7624,6 +7645,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,9 +7754,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$286</c:f>
+              <c:f>State!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8587,16 +8611,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-12-15</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-12-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$286</c:f>
+              <c:f>State!$C$2:$C$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9451,6 +9478,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>12890</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9473,9 +9503,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$286</c:f>
+              <c:f>State!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10330,16 +10360,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-12-15</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-12-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$286</c:f>
+              <c:f>State!$B$2:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11194,6 +11227,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>509320</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>519369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11464,9 +11500,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11479,9 +11515,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11494,10 +11530,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
-    <sortCondition ref="A1:A7328"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
+    <sortCondition ref="A1:A7329"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11829,7 +11865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14908,6 +14944,17 @@
         <v>717</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>570</v>
+      </c>
+      <c r="B279">
+        <v>43007</v>
+      </c>
+      <c r="C279">
+        <v>741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14920,7 +14967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -17980,6 +18027,17 @@
         <v>1059</v>
       </c>
     </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>571</v>
+      </c>
+      <c r="B278">
+        <v>43007</v>
+      </c>
+      <c r="C278">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17991,7 +18049,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21151,6 +21209,17 @@
         <v>12890</v>
       </c>
     </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>571</v>
+      </c>
+      <c r="B287">
+        <v>519369</v>
+      </c>
+      <c r="C287">
+        <v>13168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAEBD71-4670-4C9A-A71E-39550DF3183E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A0613-B800-4858-931D-49AB2ADFBBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$278</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$279</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="574">
   <si>
     <t>date</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>12/17/2020</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
   </si>
 </sst>
 </file>
@@ -2371,9 +2377,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$279</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3207,16 +3213,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>12/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$279</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4050,6 +4059,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>43857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,9 +4203,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$279</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5027,16 +5039,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>12/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$279</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5870,6 +5885,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,9 +5993,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$278</c:f>
+              <c:f>'Case Changes'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6808,16 +6826,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-12-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$278</c:f>
+              <c:f>'Case Changes'!$C$2:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7648,6 +7669,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7754,9 +7778,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$287</c:f>
+              <c:f>State!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8614,16 +8638,19 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-12-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$287</c:f>
+              <c:f>State!$C$2:$C$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9481,6 +9508,9 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>13168</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9503,9 +9533,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$287</c:f>
+              <c:f>State!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10363,16 +10393,19 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-12-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$287</c:f>
+              <c:f>State!$B$2:$B$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11230,6 +11263,9 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>519369</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>529335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11500,9 +11536,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11515,9 +11551,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C278" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11530,10 +11566,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
-    <sortCondition ref="A1:A7329"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
+    <sortCondition ref="A1:A7330"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11865,7 +11901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -14955,6 +14991,17 @@
         <v>741</v>
       </c>
     </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>572</v>
+      </c>
+      <c r="B280">
+        <v>43857</v>
+      </c>
+      <c r="C280">
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14967,7 +15014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18038,6 +18085,17 @@
         <v>1074</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>573</v>
+      </c>
+      <c r="B279">
+        <v>43857</v>
+      </c>
+      <c r="C279">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18049,7 +18107,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21220,6 +21278,17 @@
         <v>13168</v>
       </c>
     </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>573</v>
+      </c>
+      <c r="B288">
+        <v>529335</v>
+      </c>
+      <c r="C288">
+        <v>13392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A0613-B800-4858-931D-49AB2ADFBBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD6ABC-535E-4CB6-A4D4-73B40EF4B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$279</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$280</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="576">
   <si>
     <t>date</t>
   </si>
@@ -1774,6 +1774,12 @@
   </si>
   <si>
     <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>12/18/2020</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
   </si>
 </sst>
 </file>
@@ -2377,9 +2383,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$280</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3216,16 +3222,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>12/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>12/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$280</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4062,6 +4071,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4203,9 +4215,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$280</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5042,16 +5054,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>12/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>12/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$280</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5888,6 +5903,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,9 +6011,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$279</c:f>
+              <c:f>'Case Changes'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6829,16 +6847,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-12-17</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-12-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$279</c:f>
+              <c:f>'Case Changes'!$C$2:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7672,6 +7693,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7778,9 +7802,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$288</c:f>
+              <c:f>State!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8641,16 +8665,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-12-17</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-12-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$288</c:f>
+              <c:f>State!$C$2:$C$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9511,6 +9538,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>13392</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9533,9 +9563,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$288</c:f>
+              <c:f>State!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10396,16 +10426,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-12-17</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-12-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$288</c:f>
+              <c:f>State!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11266,6 +11299,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>529335</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>538655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11536,9 +11572,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11551,9 +11587,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C279" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11566,10 +11602,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
-    <sortCondition ref="A1:A7330"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
+    <sortCondition ref="A1:A7331"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11901,7 +11937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O280"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15002,6 +15038,17 @@
         <v>767</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>574</v>
+      </c>
+      <c r="B281">
+        <v>44684</v>
+      </c>
+      <c r="C281">
+        <v>791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15014,7 +15061,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18096,6 +18143,17 @@
         <v>850</v>
       </c>
     </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>575</v>
+      </c>
+      <c r="B280">
+        <v>44684</v>
+      </c>
+      <c r="C280">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18107,7 +18165,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21289,6 +21347,17 @@
         <v>13392</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>575</v>
+      </c>
+      <c r="B289">
+        <v>538655</v>
+      </c>
+      <c r="C289">
+        <v>13608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD6ABC-535E-4CB6-A4D4-73B40EF4B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68506C-B200-4D63-BE2D-3C04173D7881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$280</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$281</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="578">
   <si>
     <t>date</t>
   </si>
@@ -1780,6 +1780,12 @@
   </si>
   <si>
     <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>12/19/2020</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
   </si>
 </sst>
 </file>
@@ -2383,9 +2389,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$281</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3225,16 +3231,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>12/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$281</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4074,6 +4083,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>45699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,9 +4227,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$281</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5057,16 +5069,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>12/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$281</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5906,6 +5921,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,9 +6029,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$280</c:f>
+              <c:f>'Case Changes'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6850,16 +6868,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-12-18</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-12-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$280</c:f>
+              <c:f>'Case Changes'!$C$2:$C$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7696,6 +7717,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,9 +7826,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$289</c:f>
+              <c:f>State!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8668,16 +8692,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-12-18</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-12-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$289</c:f>
+              <c:f>State!$C$2:$C$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9541,6 +9568,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>13608</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>13825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9563,9 +9593,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$289</c:f>
+              <c:f>State!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10429,16 +10459,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-12-18</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-12-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$289</c:f>
+              <c:f>State!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11302,6 +11335,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>538655</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>548489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11572,9 +11608,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11587,9 +11623,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C280" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11602,10 +11638,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
-    <sortCondition ref="A1:A7331"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
+    <sortCondition ref="A1:A7332"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11937,7 +11973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O281"/>
+  <dimension ref="A1:O282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15049,6 +15085,17 @@
         <v>791</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>576</v>
+      </c>
+      <c r="B282">
+        <v>45699</v>
+      </c>
+      <c r="C282">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15061,7 +15108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18154,6 +18201,17 @@
         <v>827</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>577</v>
+      </c>
+      <c r="B281">
+        <v>45699</v>
+      </c>
+      <c r="C281">
+        <v>1015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18165,7 +18223,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21358,6 +21416,17 @@
         <v>13608</v>
       </c>
     </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>577</v>
+      </c>
+      <c r="B290">
+        <v>548489</v>
+      </c>
+      <c r="C290">
+        <v>13825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68506C-B200-4D63-BE2D-3C04173D7881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2EAFF1-8E4C-4ACE-A205-305B7646CFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$281</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$282</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="580">
   <si>
     <t>date</t>
   </si>
@@ -1786,6 +1786,12 @@
   </si>
   <si>
     <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>12/20/2020</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
   </si>
 </sst>
 </file>
@@ -2389,9 +2395,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$282</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3234,16 +3240,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>12/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$282</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4086,6 +4095,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>46330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,9 +4239,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$282</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5072,16 +5084,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>12/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$282</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5924,6 +5939,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6029,9 +6047,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$281</c:f>
+              <c:f>'Case Changes'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6871,16 +6889,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-12-19</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-12-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$281</c:f>
+              <c:f>'Case Changes'!$C$2:$C$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7720,6 +7741,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7826,9 +7850,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$290</c:f>
+              <c:f>State!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8695,16 +8719,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-12-19</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-12-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$290</c:f>
+              <c:f>State!$C$2:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9571,6 +9598,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>13825</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>13924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9593,9 +9623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$290</c:f>
+              <c:f>State!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10462,16 +10492,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-12-19</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-12-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$290</c:f>
+              <c:f>State!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11338,6 +11371,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>548489</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>555702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11608,9 +11644,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11623,9 +11659,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11638,10 +11674,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
-    <sortCondition ref="A1:A7332"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
+    <sortCondition ref="A1:A7333"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -11973,7 +12009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O282"/>
+  <dimension ref="A1:O283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15096,6 +15132,17 @@
         <v>815</v>
       </c>
     </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>578</v>
+      </c>
+      <c r="B283">
+        <v>46330</v>
+      </c>
+      <c r="C283">
+        <v>823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15108,7 +15155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18212,6 +18259,17 @@
         <v>1015</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>579</v>
+      </c>
+      <c r="B282">
+        <v>46330</v>
+      </c>
+      <c r="C282">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18223,7 +18281,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21427,6 +21485,17 @@
         <v>13825</v>
       </c>
     </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>579</v>
+      </c>
+      <c r="B291">
+        <v>555702</v>
+      </c>
+      <c r="C291">
+        <v>13924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2EAFF1-8E4C-4ACE-A205-305B7646CFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B03CF-685A-41D3-B5DD-5A9E1285F8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$282</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$283</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$292</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="582">
   <si>
     <t>date</t>
   </si>
@@ -1792,6 +1792,12 @@
   </si>
   <si>
     <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>12/21/2020</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
   </si>
 </sst>
 </file>
@@ -2395,9 +2401,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$283</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3243,16 +3249,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>12/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>12/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$283</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4098,6 +4107,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>46330</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>47111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,9 +4251,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$283</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5087,16 +5099,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>12/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>12/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$283</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5942,6 +5957,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6047,9 +6065,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$282</c:f>
+              <c:f>'Case Changes'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6892,16 +6910,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-12-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$282</c:f>
+              <c:f>'Case Changes'!$C$2:$C$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7744,6 +7765,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7850,9 +7874,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$291</c:f>
+              <c:f>State!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8722,16 +8746,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-12-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$291</c:f>
+              <c:f>State!$C$2:$C$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9601,6 +9628,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>13924</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>13981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9623,9 +9653,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$291</c:f>
+              <c:f>State!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10495,16 +10525,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-12-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$291</c:f>
+              <c:f>State!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11374,6 +11407,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>555702</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>563589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11644,9 +11680,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11659,9 +11695,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C282" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11674,10 +11710,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
-    <sortCondition ref="A1:A7333"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
+    <sortCondition ref="A1:A7334"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12009,7 +12045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O283"/>
+  <dimension ref="A1:O284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15143,6 +15179,17 @@
         <v>823</v>
       </c>
     </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>580</v>
+      </c>
+      <c r="B284">
+        <v>47111</v>
+      </c>
+      <c r="C284">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15155,7 +15202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18270,6 +18317,17 @@
         <v>631</v>
       </c>
     </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>581</v>
+      </c>
+      <c r="B283">
+        <v>47111</v>
+      </c>
+      <c r="C283">
+        <v>781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18281,7 +18339,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21496,6 +21554,17 @@
         <v>13924</v>
       </c>
     </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292">
+        <v>563589</v>
+      </c>
+      <c r="C292">
+        <v>13981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B03CF-685A-41D3-B5DD-5A9E1285F8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799ACBA-6036-4EFF-9384-A51A882EE914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$283</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$284</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$293</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="584">
   <si>
     <t>date</t>
   </si>
@@ -1798,6 +1798,12 @@
   </si>
   <si>
     <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>12/22/2020</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
   </si>
 </sst>
 </file>
@@ -2401,9 +2407,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$284</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3252,16 +3258,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>12/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>12/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$284</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4110,6 +4119,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>47111</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>47908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,9 +4263,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$284</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5102,16 +5114,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>12/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>12/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$284</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5960,6 +5975,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6065,9 +6083,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$283</c:f>
+              <c:f>'Case Changes'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6913,16 +6931,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-12-21</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-12-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$283</c:f>
+              <c:f>'Case Changes'!$C$2:$C$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7768,6 +7789,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7874,9 +7898,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$292</c:f>
+              <c:f>State!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8749,16 +8773,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-12-21</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-12-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$292</c:f>
+              <c:f>State!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9631,6 +9658,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>13981</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>14212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9653,9 +9683,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$292</c:f>
+              <c:f>State!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10528,16 +10558,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-12-21</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-12-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$292</c:f>
+              <c:f>State!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11410,6 +11443,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>563589</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>571551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11680,9 +11716,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11695,9 +11731,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C283" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11710,10 +11746,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
-    <sortCondition ref="A1:A7334"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C293" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C293">
+    <sortCondition ref="A1:A7335"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12045,7 +12081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O284"/>
+  <dimension ref="A1:O285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15190,6 +15226,17 @@
         <v>830</v>
       </c>
     </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>582</v>
+      </c>
+      <c r="B285">
+        <v>47908</v>
+      </c>
+      <c r="C285">
+        <v>845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15202,7 +15249,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18328,6 +18375,17 @@
         <v>781</v>
       </c>
     </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>583</v>
+      </c>
+      <c r="B284">
+        <v>47908</v>
+      </c>
+      <c r="C284">
+        <v>797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18339,7 +18397,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21565,6 +21623,17 @@
         <v>13981</v>
       </c>
     </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293">
+        <v>571551</v>
+      </c>
+      <c r="C293">
+        <v>14212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799ACBA-6036-4EFF-9384-A51A882EE914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A25849-C84E-4246-ACBB-667F63B86E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegheny County" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$284</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$285</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="586">
   <si>
     <t>date</t>
   </si>
@@ -1804,6 +1804,12 @@
   </si>
   <si>
     <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>12/23/2020</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
   </si>
 </sst>
 </file>
@@ -2407,9 +2413,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$285</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3261,16 +3267,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>12/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>12/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$285</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4122,6 +4131,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>47908</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>48738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,9 +4275,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$285</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5117,16 +5129,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>12/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>12/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$285</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5978,6 +5993,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,9 +6101,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$284</c:f>
+              <c:f>'Case Changes'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6934,16 +6952,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-12-22</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-12-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$284</c:f>
+              <c:f>'Case Changes'!$C$2:$C$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7792,6 +7813,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,9 +7922,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$293</c:f>
+              <c:f>State!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8776,16 +8800,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-12-22</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-12-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$293</c:f>
+              <c:f>State!$C$2:$C$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9661,6 +9688,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>14212</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>14442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9683,9 +9713,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$293</c:f>
+              <c:f>State!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10561,16 +10591,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-12-22</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-12-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$293</c:f>
+              <c:f>State!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11446,6 +11479,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>571551</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>581156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11716,9 +11752,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11731,9 +11767,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C284" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11746,10 +11782,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C293" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C293">
-    <sortCondition ref="A1:A7335"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C294" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C294">
+    <sortCondition ref="A1:A7336"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12081,7 +12117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O285"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15237,6 +15273,17 @@
         <v>845</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>584</v>
+      </c>
+      <c r="B286">
+        <v>48738</v>
+      </c>
+      <c r="C286">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15249,7 +15296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18386,6 +18433,17 @@
         <v>797</v>
       </c>
     </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285">
+        <v>48738</v>
+      </c>
+      <c r="C285">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18397,7 +18455,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21634,6 +21692,17 @@
         <v>14212</v>
       </c>
     </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>585</v>
+      </c>
+      <c r="B294">
+        <v>581156</v>
+      </c>
+      <c r="C294">
+        <v>14442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A25849-C84E-4246-ACBB-667F63B86E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3733F-DB9F-443B-A0D9-20731B9F0769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$285</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$286</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$295</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="588">
   <si>
     <t>date</t>
   </si>
@@ -1810,6 +1810,12 @@
   </si>
   <si>
     <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>12/24/2020</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
   </si>
 </sst>
 </file>
@@ -2413,9 +2419,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$286</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3270,16 +3276,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>12/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$286</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4134,6 +4143,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>48738</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>49650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,9 +4287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$286</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5132,16 +5144,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>12/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$286</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5996,6 +6011,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,9 +6119,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$285</c:f>
+              <c:f>'Case Changes'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6955,16 +6973,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-12-23</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-12-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$285</c:f>
+              <c:f>'Case Changes'!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7816,6 +7837,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7922,9 +7946,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$294</c:f>
+              <c:f>State!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8803,16 +8827,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-12-23</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-12-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$294</c:f>
+              <c:f>State!$C$2:$C$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9691,6 +9718,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>14442</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9713,9 +9743,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$294</c:f>
+              <c:f>State!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10594,16 +10624,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-12-23</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-12-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$294</c:f>
+              <c:f>State!$B$2:$B$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11482,6 +11515,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>581156</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>590386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11752,9 +11788,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11767,9 +11803,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C285" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11782,10 +11818,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C294" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C294">
-    <sortCondition ref="A1:A7336"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C295" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C295">
+    <sortCondition ref="A1:A7337"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12117,7 +12153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15284,6 +15320,17 @@
         <v>867</v>
       </c>
     </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>586</v>
+      </c>
+      <c r="B287">
+        <v>49650</v>
+      </c>
+      <c r="C287">
+        <v>888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15296,7 +15343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18444,6 +18491,17 @@
         <v>830</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>587</v>
+      </c>
+      <c r="B286">
+        <v>49650</v>
+      </c>
+      <c r="C286">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18455,7 +18513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21703,6 +21761,17 @@
         <v>14442</v>
       </c>
     </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>587</v>
+      </c>
+      <c r="B295">
+        <v>590386</v>
+      </c>
+      <c r="C295">
+        <v>14718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3733F-DB9F-443B-A0D9-20731B9F0769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA4A2D-982E-473D-AB22-4B33DE27B48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$286</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$287</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$296</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="590">
   <si>
     <t>date</t>
   </si>
@@ -1816,6 +1816,12 @@
   </si>
   <si>
     <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>12/25/2020</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
   </si>
 </sst>
 </file>
@@ -2419,9 +2425,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$287</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3279,16 +3285,19 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>12/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>12/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$287</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4146,6 +4155,9 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>49650</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>50307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,9 +4299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$287</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5147,16 +5159,19 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>12/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>12/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$287</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6014,6 +6029,9 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6119,9 +6137,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$286</c:f>
+              <c:f>'Case Changes'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6976,16 +6994,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-12-24</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-12-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$286</c:f>
+              <c:f>'Case Changes'!$C$2:$C$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7840,6 +7861,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7946,9 +7970,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$295</c:f>
+              <c:f>State!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8830,16 +8854,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-12-24</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-12-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$295</c:f>
+              <c:f>State!$C$2:$C$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9721,6 +9748,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>14718</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>14857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9743,9 +9773,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$295</c:f>
+              <c:f>State!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10627,16 +10657,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-12-24</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-12-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$295</c:f>
+              <c:f>State!$B$2:$B$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11518,6 +11551,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>590386</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>597560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11788,9 +11824,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11803,9 +11839,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C286" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11818,10 +11854,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C295" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C295" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C295">
-    <sortCondition ref="A1:A7337"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C296" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C296" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C296">
+    <sortCondition ref="A1:A7338"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12153,7 +12189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O287"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15331,6 +15367,17 @@
         <v>888</v>
       </c>
     </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>588</v>
+      </c>
+      <c r="B288">
+        <v>50307</v>
+      </c>
+      <c r="C288">
+        <v>899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15343,7 +15390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18502,6 +18549,17 @@
         <v>912</v>
       </c>
     </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>589</v>
+      </c>
+      <c r="B287">
+        <v>50307</v>
+      </c>
+      <c r="C287">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18513,7 +18571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21772,6 +21830,17 @@
         <v>14718</v>
       </c>
     </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>589</v>
+      </c>
+      <c r="B296">
+        <v>597560</v>
+      </c>
+      <c r="C296">
+        <v>14857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA4A2D-982E-473D-AB22-4B33DE27B48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C46F4C-C23C-4D5D-86E8-19992BE22AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$287</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$288</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$296</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$297</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="592">
   <si>
     <t>date</t>
   </si>
@@ -1822,6 +1822,12 @@
   </si>
   <si>
     <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>12/26/2020</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
   </si>
 </sst>
 </file>
@@ -2425,9 +2431,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$288</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3288,16 +3294,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>12/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>12/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$288</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4158,6 +4167,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>50307</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>50859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,9 +4311,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$288</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5162,16 +5174,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>12/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>12/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$288</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6032,6 +6047,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6137,9 +6155,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$287</c:f>
+              <c:f>'Case Changes'!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -6997,16 +7015,19 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>2020-12-25</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-12-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$287</c:f>
+              <c:f>'Case Changes'!$C$2:$C$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7864,6 +7885,9 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,9 +7994,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$296</c:f>
+              <c:f>State!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8857,16 +8881,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-12-25</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-12-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$296</c:f>
+              <c:f>State!$C$2:$C$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9751,6 +9778,9 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>14857</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9773,9 +9803,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$296</c:f>
+              <c:f>State!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10660,16 +10690,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-12-25</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-12-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$296</c:f>
+              <c:f>State!$B$2:$B$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11554,6 +11587,9 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>597560</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>605141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11824,9 +11860,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11839,9 +11875,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C287" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11854,10 +11890,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C296" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C296" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C296">
-    <sortCondition ref="A1:A7338"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C297" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C297" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C297">
+    <sortCondition ref="A1:A7339"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12189,7 +12225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O288"/>
+  <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15378,6 +15414,17 @@
         <v>899</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>590</v>
+      </c>
+      <c r="B289">
+        <v>50859</v>
+      </c>
+      <c r="C289">
+        <v>906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15390,7 +15437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18560,6 +18607,17 @@
         <v>657</v>
       </c>
     </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>591</v>
+      </c>
+      <c r="B288">
+        <v>50859</v>
+      </c>
+      <c r="C288">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18571,7 +18629,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21841,6 +21899,17 @@
         <v>14857</v>
       </c>
     </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>591</v>
+      </c>
+      <c r="B297">
+        <v>605141</v>
+      </c>
+      <c r="C297">
+        <v>14883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C46F4C-C23C-4D5D-86E8-19992BE22AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4251426-0DCA-48E5-9A18-79CFEE74C665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$288</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$289</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$297</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$298</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="594">
   <si>
     <t>date</t>
   </si>
@@ -1828,6 +1828,12 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>12/27/2020</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
   </si>
 </sst>
 </file>
@@ -2431,9 +2437,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$289</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3297,16 +3303,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>12/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>12/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$289</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4170,6 +4179,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>50859</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>51260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4311,9 +4323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$289</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5177,16 +5189,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>12/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>12/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$289</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6050,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6155,9 +6173,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$288</c:f>
+              <c:f>'Case Changes'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -7018,16 +7036,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-12-26</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-12-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$288</c:f>
+              <c:f>'Case Changes'!$C$2:$C$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7888,6 +7909,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,9 +8018,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$297</c:f>
+              <c:f>State!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8884,16 +8908,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-12-26</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-12-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$297</c:f>
+              <c:f>State!$C$2:$C$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9781,6 +9808,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>14883</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>15010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9803,9 +9833,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$297</c:f>
+              <c:f>State!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10693,16 +10723,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-12-26</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-12-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$297</c:f>
+              <c:f>State!$B$2:$B$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11590,6 +11623,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>605141</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>610025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11860,9 +11896,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11875,9 +11911,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C288" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11890,10 +11926,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C297" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C297" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C297">
-    <sortCondition ref="A1:A7339"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C298" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C298" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C298">
+    <sortCondition ref="A1:A7340"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12225,7 +12261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O289"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15425,6 +15461,17 @@
         <v>906</v>
       </c>
     </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>592</v>
+      </c>
+      <c r="B290">
+        <v>51260</v>
+      </c>
+      <c r="C290">
+        <v>916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15437,7 +15484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18618,6 +18665,17 @@
         <v>552</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>593</v>
+      </c>
+      <c r="B289">
+        <v>51260</v>
+      </c>
+      <c r="C289">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18629,7 +18687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21910,6 +21968,17 @@
         <v>14883</v>
       </c>
     </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>593</v>
+      </c>
+      <c r="B298">
+        <v>610025</v>
+      </c>
+      <c r="C298">
+        <v>15010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4251426-0DCA-48E5-9A18-79CFEE74C665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D521C-A447-4DE2-AFE8-B2FE8F5D829B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$289</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$290</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$298</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$299</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="596">
   <si>
     <t>date</t>
   </si>
@@ -1834,6 +1834,12 @@
   </si>
   <si>
     <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>12/28/2020</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
   </si>
 </sst>
 </file>
@@ -2437,9 +2443,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$290</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3306,16 +3312,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>12/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>12/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$290</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4182,6 +4191,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>51260</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>51453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4323,9 +4335,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$290</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5192,16 +5204,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>12/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>12/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$290</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6068,6 +6083,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,9 +6191,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$289</c:f>
+              <c:f>'Case Changes'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -7039,16 +7057,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-12-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$289</c:f>
+              <c:f>'Case Changes'!$C$2:$C$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7912,6 +7933,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8018,9 +8042,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$298</c:f>
+              <c:f>State!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8911,16 +8935,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-12-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$298</c:f>
+              <c:f>State!$C$2:$C$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9811,6 +9838,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>15010</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>15086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9833,9 +9863,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$298</c:f>
+              <c:f>State!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10726,16 +10756,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-12-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$298</c:f>
+              <c:f>State!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11626,6 +11659,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>610025</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>613804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11896,9 +11932,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11911,9 +11947,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C289" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11926,10 +11962,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C298" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C298">
-    <sortCondition ref="A1:A7340"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C299" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C299">
+    <sortCondition ref="A1:A7341"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12261,7 +12297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O290"/>
+  <dimension ref="A1:O291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15472,6 +15508,17 @@
         <v>916</v>
       </c>
     </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>594</v>
+      </c>
+      <c r="B291">
+        <v>51453</v>
+      </c>
+      <c r="C291">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15484,7 +15531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18676,6 +18723,17 @@
         <v>401</v>
       </c>
     </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>595</v>
+      </c>
+      <c r="B290">
+        <v>51453</v>
+      </c>
+      <c r="C290">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18687,7 +18745,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -21979,6 +22037,17 @@
         <v>15010</v>
       </c>
     </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>595</v>
+      </c>
+      <c r="B299">
+        <v>613804</v>
+      </c>
+      <c r="C299">
+        <v>15086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D521C-A447-4DE2-AFE8-B2FE8F5D829B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9B20B-853A-485C-922B-578562D90AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$290</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$291</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="598">
   <si>
     <t>date</t>
   </si>
@@ -1840,6 +1840,12 @@
   </si>
   <si>
     <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
   </si>
 </sst>
 </file>
@@ -2443,9 +2449,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$291</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3315,16 +3321,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>12/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>12/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$291</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4194,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>51453</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>52473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,9 +4347,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$291</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5207,16 +5219,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>12/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>12/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$291</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6086,6 +6101,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,9 +6209,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$290</c:f>
+              <c:f>'Case Changes'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -7060,16 +7078,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-12-28</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-12-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$290</c:f>
+              <c:f>'Case Changes'!$C$2:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7936,6 +7957,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8042,9 +8066,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$299</c:f>
+              <c:f>State!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8938,16 +8962,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-12-28</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-12-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$299</c:f>
+              <c:f>State!$C$2:$C$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9841,6 +9868,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>15086</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>15353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9863,9 +9893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$299</c:f>
+              <c:f>State!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10759,16 +10789,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-12-28</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-12-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$299</c:f>
+              <c:f>State!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11662,6 +11695,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>613804</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>622349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11932,9 +11968,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11947,9 +11983,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C290" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11962,10 +11998,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C299" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C299">
-    <sortCondition ref="A1:A7341"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C300" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C300">
+    <sortCondition ref="A1:A7342"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12297,7 +12333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O291"/>
+  <dimension ref="A1:O292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15519,6 +15555,17 @@
         <v>925</v>
       </c>
     </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>596</v>
+      </c>
+      <c r="B292">
+        <v>52473</v>
+      </c>
+      <c r="C292">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15531,7 +15578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18734,6 +18781,17 @@
         <v>193</v>
       </c>
     </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>597</v>
+      </c>
+      <c r="B291">
+        <v>52473</v>
+      </c>
+      <c r="C291">
+        <v>1020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18745,7 +18803,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -22048,6 +22106,17 @@
         <v>15086</v>
       </c>
     </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>597</v>
+      </c>
+      <c r="B300">
+        <v>622349</v>
+      </c>
+      <c r="C300">
+        <v>15353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9B20B-853A-485C-922B-578562D90AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9260614-3852-40CE-91CA-D104069D12E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$291</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$292</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="600">
   <si>
     <t>date</t>
   </si>
@@ -1846,6 +1846,12 @@
   </si>
   <si>
     <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
   </si>
 </sst>
 </file>
@@ -2449,9 +2455,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$292</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3324,16 +3330,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>12/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>12/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$292</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4206,6 +4215,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>52473</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>52998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,9 +4359,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$292</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5222,16 +5234,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>12/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>12/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$292</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6104,6 +6119,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6209,9 +6227,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$291</c:f>
+              <c:f>'Case Changes'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -7081,16 +7099,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-12-29</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-12-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$291</c:f>
+              <c:f>'Case Changes'!$C$2:$C$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7960,6 +7981,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,9 +8090,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$300</c:f>
+              <c:f>State!$A$2:$A$301</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8965,16 +8989,19 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-12-29</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-12-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$300</c:f>
+              <c:f>State!$C$2:$C$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9871,6 +9898,9 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>15353</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>15672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9893,9 +9923,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$300</c:f>
+              <c:f>State!$A$2:$A$301</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10792,16 +10822,19 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-12-29</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-12-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$300</c:f>
+              <c:f>State!$B$2:$B$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11698,6 +11731,9 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>622349</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>631333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11968,9 +12004,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C293" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C293">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -11983,9 +12019,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C291" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -11998,10 +12034,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C300" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C300">
-    <sortCondition ref="A1:A7342"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C301" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C301" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C301">
+    <sortCondition ref="A1:A7343"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12333,7 +12369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O292"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15566,6 +15602,17 @@
         <v>952</v>
       </c>
     </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>598</v>
+      </c>
+      <c r="B293">
+        <v>52998</v>
+      </c>
+      <c r="C293">
+        <v>977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15578,7 +15625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18792,6 +18839,17 @@
         <v>1020</v>
       </c>
     </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>599</v>
+      </c>
+      <c r="B292">
+        <v>52998</v>
+      </c>
+      <c r="C292">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18803,7 +18861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -22117,6 +22175,17 @@
         <v>15353</v>
       </c>
     </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301">
+        <v>631333</v>
+      </c>
+      <c r="C301">
+        <v>15672</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9260614-3852-40CE-91CA-D104069D12E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99FADED-7113-4656-BA3E-4AAE3AEB7B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$292</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$293</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$301</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$302</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="602">
   <si>
     <t>date</t>
   </si>
@@ -1852,6 +1852,12 @@
   </si>
   <si>
     <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>12/31/2020</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
   </si>
 </sst>
 </file>
@@ -2455,9 +2461,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$293</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -3333,16 +3339,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>12/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$293</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4218,6 +4227,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>52998</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>53809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4359,9 +4371,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$293</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
@@ -5237,16 +5249,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>12/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$293</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6122,6 +6137,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,9 +6245,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$292</c:f>
+              <c:f>'Case Changes'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-03-15</c:v>
                 </c:pt>
@@ -7102,16 +7120,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-12-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$292</c:f>
+              <c:f>'Case Changes'!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7984,6 +8005,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8090,9 +8114,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$301</c:f>
+              <c:f>State!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="300"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -8992,16 +9016,19 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-12-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$301</c:f>
+              <c:f>State!$C$2:$C$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9901,6 +9928,9 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>15672</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9923,9 +9953,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$301</c:f>
+              <c:f>State!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="300"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10825,16 +10855,19 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-12-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$301</c:f>
+              <c:f>State!$B$2:$B$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11734,6 +11767,9 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>631333</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>640325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12004,9 +12040,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C293" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C294" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C294">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -12019,9 +12055,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C292" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C293" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C293">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -12034,10 +12070,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C301" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C301" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C301">
-    <sortCondition ref="A1:A7343"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C302" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C302" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C302">
+    <sortCondition ref="A1:A7344"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12369,7 +12405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -15613,6 +15649,17 @@
         <v>977</v>
       </c>
     </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>600</v>
+      </c>
+      <c r="B294">
+        <v>53809</v>
+      </c>
+      <c r="C294">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15625,7 +15672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -18850,6 +18897,17 @@
         <v>525</v>
       </c>
     </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>601</v>
+      </c>
+      <c r="B293">
+        <v>53809</v>
+      </c>
+      <c r="C293">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18861,7 +18919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -22186,6 +22244,17 @@
         <v>15672</v>
       </c>
     </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>601</v>
+      </c>
+      <c r="B302">
+        <v>640325</v>
+      </c>
+      <c r="C302">
+        <v>15978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB8F4B-8BD0-4BD0-8159-77C4FDF4965E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF8DE3-58F1-42DD-9E27-7E14D28DDE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="State" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$294</definedName>
-    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$295</definedName>
-    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_ACDelta" localSheetId="1" hidden="1">'Case Changes'!$A$1:$C$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_AlleghenyCountyCases_1" localSheetId="0" hidden="1">'Allegheny County'!$A$1:$C$296</definedName>
+    <definedName name="howe_hp_howehp_Covid19_PACaseDeathCount" localSheetId="2" hidden="1">State!$A$1:$C$304</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="606">
   <si>
     <t>date</t>
   </si>
@@ -1864,6 +1864,12 @@
   </si>
   <si>
     <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
 </sst>
 </file>
@@ -2467,889 +2473,892 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$295</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>01/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>01/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>03/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>03/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>03/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>03/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>03/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>03/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>03/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>03/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>03/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>03/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>03/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>03/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>03/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>03/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>03/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>03/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>03/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>04/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>04/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>04/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>04/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>04/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>04/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>04/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>04/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>04/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>04/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>04/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>04/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>04/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>04/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>04/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>04/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>04/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>04/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>04/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>04/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>04/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>04/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>04/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>04/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>04/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>04/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>04/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>04/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>04/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>04/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>05/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>05/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>05/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>05/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>05/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>05/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>05/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>05/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>05/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>05/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>05/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>05/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>05/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>05/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>05/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>05/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>05/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>05/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>05/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>05/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>05/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>05/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>05/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>05/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>05/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>05/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>05/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>05/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>05/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>05/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>05/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>06/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>06/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>06/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>06/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>06/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>06/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>06/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>06/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>06/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>06/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>06/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>06/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>06/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>06/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>06/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>06/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>06/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>06/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>06/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>06/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>06/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>06/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>06/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>06/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>06/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>06/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>06/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>06/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>06/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>06/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>07/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>07/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>07/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>07/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>07/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>07/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>07/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>07/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>07/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>07/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>07/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>07/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>07/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>07/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>07/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>07/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>07/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>07/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>07/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>07/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>07/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>07/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>07/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>07/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>07/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>07/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>07/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>07/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>07/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>07/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>07/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>08/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>08/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>08/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>08/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>08/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>08/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>08/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>08/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>08/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>08/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>08/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>08/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>08/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>08/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>08/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>08/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>08/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>08/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>08/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>08/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>08/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>08/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>08/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>08/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>08/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>08/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>08/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>08/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>08/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>08/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>08/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>09/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>09/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>09/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>09/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>09/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>09/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>09/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>09/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>09/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>09/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>09/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>09/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>09/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>09/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>09/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>09/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>09/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>09/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>09/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>09/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>09/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>09/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>09/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>09/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>09/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>09/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>09/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>09/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>09/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>09/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>10/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>10/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>10/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>10/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>10/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>10/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>10/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>10/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>10/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>10/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>10/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>10/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>10/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>10/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>10/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>10/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>10/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>10/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>10/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>10/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>10/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>10/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>10/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>10/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>10/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>10/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>10/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>10/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>10/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>10/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>10/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>11/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>11/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>11/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>11/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>11/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>11/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>11/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>11/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>11/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>11/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>11/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>11/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="246">
                   <c:v>11/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="247">
                   <c:v>11/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="248">
                   <c:v>11/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="249">
                   <c:v>11/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>11/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="251">
                   <c:v>11/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="252">
                   <c:v>11/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="253">
                   <c:v>11/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="254">
                   <c:v>11/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="255">
                   <c:v>11/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="256">
                   <c:v>11/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="257">
                   <c:v>11/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="258">
                   <c:v>11/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="259">
                   <c:v>11/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="260">
                   <c:v>11/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="261">
                   <c:v>11/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="262">
                   <c:v>11/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="263">
                   <c:v>11/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="264">
                   <c:v>12/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="265">
                   <c:v>12/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="266">
                   <c:v>12/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="267">
                   <c:v>12/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="268">
                   <c:v>12/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="269">
                   <c:v>12/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="270">
                   <c:v>12/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="271">
                   <c:v>12/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="272">
                   <c:v>12/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="273">
                   <c:v>12/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="274">
                   <c:v>12/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="275">
                   <c:v>12/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="275">
+                <c:pt idx="276">
                   <c:v>12/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="276">
+                <c:pt idx="277">
                   <c:v>12/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="277">
+                <c:pt idx="278">
                   <c:v>12/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="279">
                   <c:v>12/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="280">
                   <c:v>12/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="281">
                   <c:v>12/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="282">
                   <c:v>12/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="283">
                   <c:v>12/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="283">
+                <c:pt idx="284">
                   <c:v>12/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="284">
+                <c:pt idx="285">
                   <c:v>12/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="286">
                   <c:v>12/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="287">
                   <c:v>12/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="288">
                   <c:v>12/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="289">
                   <c:v>12/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="290">
                   <c:v>12/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="291">
                   <c:v>12/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="292">
                   <c:v>12/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="293">
                   <c:v>12/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="294">
                   <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
@@ -3357,890 +3366,893 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$B$2:$B$295</c:f>
+              <c:f>'Allegheny County'!$B$2:$B$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>54362</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55410</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>419</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>552</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>605</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>642</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>689</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>759</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>788</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>836</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>857</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>876</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>893</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>904</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>925</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>947</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>1009</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>1035</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>1042</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>1059</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>1088</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>1149</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1177</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>1198</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>1211</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>1224</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>1235</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>1273</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>1289</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>1319</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>1333</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>1345</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>1365</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>1375</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>1394</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>1439</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>1455</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>1486</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>1503</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>1511</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>1526</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>1545</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>1551</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>1582</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>1595</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>1603</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1641</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>1658</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>1687</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>1718</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>1739</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>1753</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>1777</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>1805</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>1816</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>1828</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>1851</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>1870</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>1897</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>1911</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>1919</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>1928</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>1952</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1973</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>1989</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>2027</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>2055</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>2065</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>2076</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>2079</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>2086</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2113</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>2113</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2122</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>2139</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>2159</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>2175</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>2220</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>2239</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>2284</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>2321</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>2382</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>2472</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>2568</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>2651</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>2760</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>2870</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>3103</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>3280</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>3430</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>3557</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>3775</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>3979</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>4209</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>4367</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>4547</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>4762</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>4962</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>5033</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>5364</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>5610</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>5750</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>5990</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>6125</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>6263</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>6435</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>6574</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>6670</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>6817</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>7015</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>7161</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>7294</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>7474</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>7593</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>7718</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>7850</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>8094</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>8160</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>8242</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>8310</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>8442</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>8512</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>8612</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>8709</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>8796</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>8857</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>8932</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>9008</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>9078</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>9192</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>9282</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>9359</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>9433</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>9504</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>9549</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>9576</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>9676</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>9756</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>9817</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>9903</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>9932</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>9990</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>10004</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>10065</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>10128</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>10211</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>10310</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>10347</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>10376</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>10444</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>10549</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>10641</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>10709</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>10771</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>10810</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>10847</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>10915</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>10969</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>11069</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>11126</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>11126</c:v>
                 </c:pt>
                 <c:pt idx="185">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="186">
                   <c:v>11268</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>11358</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>11431</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>11510</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>11578</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>11663</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>11737</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>11779</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>11821</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>11867</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>11927</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>11995</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>12101</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>12162</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>12234</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>12305</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>12348</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>12454</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12527</c:v>
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>12527</c:v>
                 </c:pt>
                 <c:pt idx="205">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="206">
                   <c:v>12731</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>12777</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>12854</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>12897</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>13024</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>13102</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>13183</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>13280</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>13362</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>13436</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>13533</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>13672</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>13821</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>13959</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>14075</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>14174</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>14277</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>14396</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>14529</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>14687</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>14818</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>14922</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>14995</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>15101</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>15300</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>15449</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>15622</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>15796</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>15940</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>16060</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>16210</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>16410</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>16599</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>16838</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>17126</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>17386</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>17656</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>17973</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>18339</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>18751</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="246">
                   <c:v>19129</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="247">
                   <c:v>19499</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="248">
                   <c:v>20026</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="249">
                   <c:v>20526</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>20814</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="251">
                   <c:v>21434</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="252">
                   <c:v>22043</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="253">
                   <c:v>22527</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="254">
                   <c:v>23121</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="255">
                   <c:v>23697</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="256">
                   <c:v>24083</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="257">
                   <c:v>24624</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="258">
                   <c:v>25179</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="259">
                   <c:v>25952</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="260">
                   <c:v>26821</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="261">
                   <c:v>27484</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="262">
                   <c:v>28004</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="263">
                   <c:v>28404</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="264">
                   <c:v>29007</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="265">
                   <c:v>29515</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="266">
                   <c:v>30543</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="267">
                   <c:v>31454</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="268">
                   <c:v>32651</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="269">
                   <c:v>33505</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="270">
                   <c:v>34121</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="271">
                   <c:v>34814</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="272">
                   <c:v>35541</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="273">
                   <c:v>36707</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="274">
                   <c:v>38029</c:v>
                 </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="275">
                   <c:v>39227</c:v>
                 </c:pt>
-                <c:pt idx="275">
+                <c:pt idx="276">
                   <c:v>40124</c:v>
                 </c:pt>
-                <c:pt idx="276">
+                <c:pt idx="277">
                   <c:v>40874</c:v>
                 </c:pt>
-                <c:pt idx="277">
+                <c:pt idx="278">
                   <c:v>41933</c:v>
                 </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="279">
                   <c:v>43007</c:v>
                 </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="280">
                   <c:v>43857</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="281">
                   <c:v>44684</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="282">
                   <c:v>45699</c:v>
                 </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="283">
                   <c:v>46330</c:v>
                 </c:pt>
-                <c:pt idx="283">
+                <c:pt idx="284">
                   <c:v>47111</c:v>
                 </c:pt>
-                <c:pt idx="284">
+                <c:pt idx="285">
                   <c:v>47908</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="286">
                   <c:v>48738</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="287">
                   <c:v>49650</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="288">
                   <c:v>50307</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="289">
                   <c:v>50859</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="290">
                   <c:v>51260</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="291">
                   <c:v>51453</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="292">
                   <c:v>52473</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="293">
                   <c:v>52998</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="294">
                   <c:v>53809</c:v>
                 </c:pt>
               </c:numCache>
@@ -4383,889 +4395,892 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Allegheny County'!$A$2:$A$295</c:f>
+              <c:f>'Allegheny County'!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>01/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>01/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>03/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>03/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>03/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>03/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>03/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>03/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>03/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>03/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>03/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>03/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>03/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>03/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>03/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>03/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>03/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>03/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>03/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>03/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>04/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>04/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>04/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>04/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>04/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>04/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>04/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>04/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>04/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>04/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>04/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>04/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>04/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>04/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>04/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>04/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>04/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>04/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>04/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>04/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>04/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>04/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>04/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>04/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>04/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>04/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>04/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>04/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>04/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>04/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>05/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>05/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>05/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>05/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>05/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>05/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>05/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>05/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>05/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>05/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>05/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>05/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>05/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>05/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>05/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>05/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>05/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>05/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>05/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>05/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>05/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>05/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>05/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>05/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>05/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>05/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>05/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>05/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>05/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>05/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>05/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>06/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>06/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>06/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>06/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>06/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>06/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>06/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>06/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>06/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>06/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>06/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>06/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>06/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>06/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>06/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>06/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>06/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>06/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>06/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>06/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>06/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>06/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>06/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>06/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>06/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>06/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>06/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>06/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>06/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>06/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>07/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>07/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>07/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>07/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>07/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>07/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>07/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>07/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>07/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>07/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>07/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>07/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>07/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>07/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>07/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>07/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>07/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>07/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>07/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>07/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>07/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>07/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>07/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>07/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>07/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>07/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>07/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>07/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>07/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>07/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>07/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>08/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>08/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>08/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>08/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>08/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>08/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>08/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>08/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>08/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>08/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>08/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>08/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>08/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>08/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>08/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>08/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>08/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>08/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>08/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>08/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>08/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>08/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>08/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>08/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>08/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>08/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>08/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>08/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>08/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>08/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>08/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>09/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>09/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>09/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>09/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>09/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>09/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>09/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>09/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>09/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>09/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>09/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>09/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>09/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>09/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>09/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>09/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>09/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>09/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>09/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>09/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>09/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>09/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>09/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>09/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>09/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>09/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>09/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>09/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>09/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>09/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>10/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>10/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>10/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>10/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>10/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>10/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>10/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>10/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>10/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>10/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>10/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>10/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>10/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>10/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>10/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>10/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>10/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>10/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>10/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>10/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>10/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>10/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>10/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>10/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>10/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>10/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>10/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>10/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>10/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>10/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>10/31/2020</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>11/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>11/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>11/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>11/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>11/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>11/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>11/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>11/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>11/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>11/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>11/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>11/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="246">
                   <c:v>11/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="247">
                   <c:v>11/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="248">
                   <c:v>11/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="249">
                   <c:v>11/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>11/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="251">
                   <c:v>11/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="252">
                   <c:v>11/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="253">
                   <c:v>11/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="254">
                   <c:v>11/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="255">
                   <c:v>11/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="256">
                   <c:v>11/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="257">
                   <c:v>11/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="258">
                   <c:v>11/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="259">
                   <c:v>11/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="260">
                   <c:v>11/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="261">
                   <c:v>11/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="262">
                   <c:v>11/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="263">
                   <c:v>11/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="264">
                   <c:v>12/01/2020</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="265">
                   <c:v>12/02/2020</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="266">
                   <c:v>12/03/2020</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="267">
                   <c:v>12/04/2020</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="268">
                   <c:v>12/05/2020</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="269">
                   <c:v>12/06/2020</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="270">
                   <c:v>12/07/2020</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="271">
                   <c:v>12/08/2020</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="272">
                   <c:v>12/09/2020</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="273">
                   <c:v>12/10/2020</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="274">
                   <c:v>12/11/2020</c:v>
                 </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="275">
                   <c:v>12/12/2020</c:v>
                 </c:pt>
-                <c:pt idx="275">
+                <c:pt idx="276">
                   <c:v>12/13/2020</c:v>
                 </c:pt>
-                <c:pt idx="276">
+                <c:pt idx="277">
                   <c:v>12/14/2020</c:v>
                 </c:pt>
-                <c:pt idx="277">
+                <c:pt idx="278">
                   <c:v>12/15/2020</c:v>
                 </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="279">
                   <c:v>12/16/2020</c:v>
                 </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="280">
                   <c:v>12/17/2020</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="281">
                   <c:v>12/18/2020</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="282">
                   <c:v>12/19/2020</c:v>
                 </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="283">
                   <c:v>12/20/2020</c:v>
                 </c:pt>
-                <c:pt idx="283">
+                <c:pt idx="284">
                   <c:v>12/21/2020</c:v>
                 </c:pt>
-                <c:pt idx="284">
+                <c:pt idx="285">
                   <c:v>12/22/2020</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="286">
                   <c:v>12/23/2020</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="287">
                   <c:v>12/24/2020</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="288">
                   <c:v>12/25/2020</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="289">
                   <c:v>12/26/2020</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="290">
                   <c:v>12/27/2020</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="291">
                   <c:v>12/28/2020</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="292">
                   <c:v>12/29/2020</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="293">
                   <c:v>12/30/2020</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="294">
                   <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
@@ -5273,15 +5288,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Allegheny County'!$C$2:$C$295</c:f>
+              <c:f>'Allegheny County'!$C$2:$C$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5302,7 +5317,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -5311,7 +5326,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -5344,91 +5359,91 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>102</c:v>
@@ -5437,40 +5452,40 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>143</c:v>
@@ -5479,25 +5494,25 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>160</c:v>
@@ -5506,31 +5521,31 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>168</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>168</c:v>
@@ -5539,31 +5554,31 @@
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>169</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>172</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>177</c:v>
@@ -5572,10 +5587,10 @@
                   <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>179</c:v>
@@ -5587,16 +5602,16 @@
                   <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>186</c:v>
@@ -5608,13 +5623,13 @@
                   <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="110">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="111">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>190</c:v>
@@ -5626,19 +5641,19 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="119">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>198</c:v>
@@ -5647,40 +5662,40 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="123">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="130">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>222</c:v>
@@ -5689,82 +5704,82 @@
                   <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="137">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="138">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>235</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>239</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="144">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="151">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>288</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>291</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>297</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>306</c:v>
@@ -5773,19 +5788,19 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="166">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>317</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>330</c:v>
@@ -5794,16 +5809,16 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>334</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>343</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>349</c:v>
@@ -5818,16 +5833,16 @@
                   <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>358</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="182">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>362</c:v>
@@ -5836,19 +5851,19 @@
                   <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>363</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="188">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="189">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>373</c:v>
@@ -5860,13 +5875,13 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>376</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>380</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>380</c:v>
@@ -5881,13 +5896,13 @@
                   <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>382</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>386</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>386</c:v>
@@ -5899,16 +5914,16 @@
                   <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="207">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="208">
                   <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>397</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>397</c:v>
@@ -5929,10 +5944,10 @@
                   <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="217">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>405</c:v>
@@ -5941,16 +5956,16 @@
                   <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="221">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="222">
                   <c:v>406</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>416</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>421</c:v>
@@ -5962,19 +5977,19 @@
                   <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="228">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>422</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>426</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>434</c:v>
@@ -5983,19 +5998,19 @@
                   <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="235">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="238">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="239">
                   <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>447</c:v>
@@ -6004,16 +6019,16 @@
                   <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="242">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="243">
                   <c:v>448</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>458</c:v>
@@ -6022,22 +6037,22 @@
                   <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="248">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="249">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="252">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>482</c:v>
@@ -6046,40 +6061,40 @@
                   <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="256">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="259">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="262">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="263">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="264">
                   <c:v>518</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="265">
                   <c:v>536</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="266">
                   <c:v>551</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="267">
                   <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>575</c:v>
@@ -6088,75 +6103,78 @@
                   <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="270">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="271">
                   <c:v>588</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="272">
                   <c:v>619</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="273">
                   <c:v>635</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="274">
                   <c:v>658</c:v>
                 </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="275">
                   <c:v>681</c:v>
                 </c:pt>
-                <c:pt idx="275">
+                <c:pt idx="276">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="276">
+                <c:pt idx="277">
                   <c:v>696</c:v>
                 </c:pt>
-                <c:pt idx="277">
+                <c:pt idx="278">
                   <c:v>717</c:v>
                 </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="279">
                   <c:v>741</c:v>
                 </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="280">
                   <c:v>767</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="281">
                   <c:v>791</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="282">
                   <c:v>815</c:v>
                 </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="283">
                   <c:v>823</c:v>
                 </c:pt>
-                <c:pt idx="283">
+                <c:pt idx="284">
                   <c:v>830</c:v>
                 </c:pt>
-                <c:pt idx="284">
+                <c:pt idx="285">
                   <c:v>845</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="286">
                   <c:v>867</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="287">
                   <c:v>888</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="288">
                   <c:v>899</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="289">
                   <c:v>906</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="290">
                   <c:v>916</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="291">
                   <c:v>925</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="292">
                   <c:v>952</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="293">
                   <c:v>977</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="294">
                   <c:v>1009</c:v>
                 </c:pt>
               </c:numCache>
@@ -6263,9 +6281,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Case Changes'!$A$2:$A$294</c:f>
+              <c:f>'Case Changes'!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-03-14</c:v>
                 </c:pt>
@@ -7144,18 +7162,21 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-12-31</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2021-01-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Case Changes'!$C$2:$C$294</c:f>
+              <c:f>'Case Changes'!$C$2:$C$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
-                  <c:v>-54361</c:v>
+                  <c:v>-55409</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -8032,6 +8053,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8138,9 +8162,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$303</c:f>
+              <c:f>State!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -9046,16 +9070,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2021-01-01</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2021-01-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$C$2:$C$303</c:f>
+              <c:f>State!$C$2:$C$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9961,6 +9988,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>16214</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>16239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,9 +10013,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>State!$A$2:$A$303</c:f>
+              <c:f>State!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-03-06</c:v>
                 </c:pt>
@@ -10891,16 +10921,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2021-01-01</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2021-01-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>State!$B$2:$B$303</c:f>
+              <c:f>State!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -11806,6 +11839,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>648039</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>657292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12076,9 +12112,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C295" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C295" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" displayName="Table_howe_hp_howehp_Covid19_AlleghenyCountyCases_1" ref="A1:C296" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C296" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C296">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
@@ -12091,9 +12127,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C294" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_howe_hp_howehp_Covid19_ACDelta" displayName="Table_howe_hp_howehp_Covid19_ACDelta" ref="A1:C295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C295" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C295">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="3">
@@ -12106,10 +12142,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C303" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C303">
-    <sortCondition ref="A1:A7345"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_PACaseDeathCount" displayName="Table_howe_hp_howehp_Covid19_PACaseDeathCount" ref="A1:C304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C304" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C304">
+    <sortCondition ref="A1:A7346"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -12441,7 +12477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O295"/>
+  <dimension ref="A1:O296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C269"/>
@@ -12483,21 +12519,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>604</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>55410</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12505,10 +12541,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12516,10 +12552,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -12527,10 +12563,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -12538,10 +12574,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -12549,10 +12585,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -12560,21 +12596,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -12582,10 +12618,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12593,21 +12629,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -12615,10 +12651,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -12626,10 +12662,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -12637,10 +12673,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -12648,10 +12684,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -12659,10 +12695,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -12670,10 +12706,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -12681,10 +12717,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -12692,10 +12728,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -12703,10 +12739,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -12714,32 +12750,32 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -12747,65 +12783,65 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>836</v>
+        <v>788</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C32">
         <v>19</v>
@@ -12813,153 +12849,153 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C40">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>1088</v>
+        <v>1059</v>
       </c>
       <c r="C42">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>1149</v>
+        <v>1088</v>
       </c>
       <c r="C43">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="C45">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="C46">
         <v>73</v>
@@ -12967,76 +13003,76 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="C47">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C48">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>1273</v>
+        <v>1235</v>
       </c>
       <c r="C49">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="C50">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>1319</v>
+        <v>1289</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="C53">
         <v>102</v>
@@ -13044,10 +13080,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="C54">
         <v>102</v>
@@ -13055,109 +13091,109 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="C55">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>1394</v>
+        <v>1375</v>
       </c>
       <c r="C56">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57">
-        <v>1439</v>
+        <v>1394</v>
       </c>
       <c r="C57">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B58">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="C58">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59">
-        <v>1486</v>
+        <v>1455</v>
       </c>
       <c r="C59">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="C60">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="C61">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="C62">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63">
-        <v>1545</v>
+        <v>1526</v>
       </c>
       <c r="C63">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="C64">
         <v>139</v>
@@ -13166,32 +13202,32 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B65">
-        <v>1582</v>
+        <v>1551</v>
       </c>
       <c r="C65">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="C66">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="C67">
         <v>143</v>
@@ -13200,10 +13236,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68">
-        <v>1641</v>
+        <v>1603</v>
       </c>
       <c r="C68">
         <v>143</v>
@@ -13212,87 +13248,87 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69">
-        <v>1658</v>
+        <v>1641</v>
       </c>
       <c r="C69">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70">
-        <v>1687</v>
+        <v>1658</v>
       </c>
       <c r="C70">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71">
-        <v>1718</v>
+        <v>1687</v>
       </c>
       <c r="C71">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B72">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B73">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="C73">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B74">
-        <v>1777</v>
+        <v>1753</v>
       </c>
       <c r="C74">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B75">
-        <v>1805</v>
+        <v>1777</v>
       </c>
       <c r="C75">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="C76">
         <v>160</v>
@@ -13300,10 +13336,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77">
-        <v>1828</v>
+        <v>1816</v>
       </c>
       <c r="C77">
         <v>160</v>
@@ -13311,43 +13347,43 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78">
-        <v>1851</v>
+        <v>1828</v>
       </c>
       <c r="C78">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79">
-        <v>1870</v>
+        <v>1851</v>
       </c>
       <c r="C79">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B80">
-        <v>1897</v>
+        <v>1870</v>
       </c>
       <c r="C80">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81">
-        <v>1911</v>
+        <v>1897</v>
       </c>
       <c r="C81">
         <v>163</v>
@@ -13355,43 +13391,43 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="C82">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="C83">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84">
-        <v>1952</v>
+        <v>1928</v>
       </c>
       <c r="C84">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B85">
-        <v>1965</v>
+        <v>1952</v>
       </c>
       <c r="C85">
         <v>166</v>
@@ -13399,21 +13435,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B86">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="C86">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87">
-        <v>1989</v>
+        <v>1973</v>
       </c>
       <c r="C87">
         <v>168</v>
@@ -13421,10 +13457,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B88">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="C88">
         <v>168</v>
@@ -13432,21 +13468,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B89">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C89">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B90">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="C90">
         <v>169</v>
@@ -13454,32 +13490,32 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B91">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="C91">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B92">
-        <v>2055</v>
+        <v>2034</v>
       </c>
       <c r="C92">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B93">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="C93">
         <v>171</v>
@@ -13487,21 +13523,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B94">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="C94">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B95">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C95">
         <v>172</v>
@@ -13509,29 +13545,29 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B96">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="C96">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B97">
-        <v>2113</v>
+        <v>2086</v>
       </c>
       <c r="C97">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B98">
         <v>2113</v>
@@ -13542,10 +13578,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B99">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="C99">
         <v>177</v>
@@ -13553,32 +13589,32 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B100">
-        <v>2139</v>
+        <v>2122</v>
       </c>
       <c r="C100">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B101">
-        <v>2159</v>
+        <v>2139</v>
       </c>
       <c r="C101">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B102">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="C102">
         <v>179</v>
@@ -13586,10 +13622,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B103">
-        <v>2220</v>
+        <v>2175</v>
       </c>
       <c r="C103">
         <v>179</v>
@@ -13597,10 +13633,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B104">
-        <v>2239</v>
+        <v>2220</v>
       </c>
       <c r="C104">
         <v>179</v>
@@ -13608,54 +13644,54 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B105">
-        <v>2284</v>
+        <v>2239</v>
       </c>
       <c r="C105">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B106">
-        <v>2321</v>
+        <v>2284</v>
       </c>
       <c r="C106">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107">
-        <v>2382</v>
+        <v>2321</v>
       </c>
       <c r="C107">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108">
-        <v>2472</v>
+        <v>2382</v>
       </c>
       <c r="C108">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B109">
-        <v>2568</v>
+        <v>2472</v>
       </c>
       <c r="C109">
         <v>186</v>
@@ -13663,10 +13699,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B110">
-        <v>2651</v>
+        <v>2568</v>
       </c>
       <c r="C110">
         <v>186</v>
@@ -13674,10 +13710,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B111">
-        <v>2760</v>
+        <v>2651</v>
       </c>
       <c r="C111">
         <v>186</v>
@@ -13685,43 +13721,43 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B112">
-        <v>2870</v>
+        <v>2760</v>
       </c>
       <c r="C112">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B113">
-        <v>3103</v>
+        <v>2870</v>
       </c>
       <c r="C113">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B114">
-        <v>3280</v>
+        <v>3103</v>
       </c>
       <c r="C114">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B115">
-        <v>3430</v>
+        <v>3280</v>
       </c>
       <c r="C115">
         <v>190</v>
@@ -13729,10 +13765,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B116">
-        <v>3557</v>
+        <v>3430</v>
       </c>
       <c r="C116">
         <v>190</v>
@@ -13740,10 +13776,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B117">
-        <v>3775</v>
+        <v>3557</v>
       </c>
       <c r="C117">
         <v>190</v>
@@ -13751,32 +13787,32 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B118">
-        <v>3979</v>
+        <v>3775</v>
       </c>
       <c r="C118">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B119">
-        <v>4209</v>
+        <v>3979</v>
       </c>
       <c r="C119">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B120">
-        <v>4367</v>
+        <v>4209</v>
       </c>
       <c r="C120">
         <v>196</v>
@@ -13784,32 +13820,32 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B121">
-        <v>4547</v>
+        <v>4367</v>
       </c>
       <c r="C121">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B122">
-        <v>4762</v>
+        <v>4547</v>
       </c>
       <c r="C122">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B123">
-        <v>4962</v>
+        <v>4762</v>
       </c>
       <c r="C123">
         <v>198</v>
@@ -13817,10 +13853,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B124">
-        <v>5033</v>
+        <v>4962</v>
       </c>
       <c r="C124">
         <v>198</v>
@@ -13828,76 +13864,76 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B125">
-        <v>5364</v>
+        <v>5033</v>
       </c>
       <c r="C125">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B126">
-        <v>5610</v>
+        <v>5364</v>
       </c>
       <c r="C126">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B127">
-        <v>5750</v>
+        <v>5610</v>
       </c>
       <c r="C127">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B128">
-        <v>5990</v>
+        <v>5750</v>
       </c>
       <c r="C128">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B129">
-        <v>6125</v>
+        <v>5990</v>
       </c>
       <c r="C129">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B130">
-        <v>6263</v>
+        <v>6125</v>
       </c>
       <c r="C130">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B131">
-        <v>6435</v>
+        <v>6263</v>
       </c>
       <c r="C131">
         <v>208</v>
@@ -13905,65 +13941,65 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B132">
-        <v>6574</v>
+        <v>6435</v>
       </c>
       <c r="C132">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B133">
-        <v>6670</v>
+        <v>6574</v>
       </c>
       <c r="C133">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B134">
-        <v>6817</v>
+        <v>6670</v>
       </c>
       <c r="C134">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B135">
-        <v>7015</v>
+        <v>6817</v>
       </c>
       <c r="C135">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B136">
-        <v>7161</v>
+        <v>7015</v>
       </c>
       <c r="C136">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B137">
-        <v>7294</v>
+        <v>7161</v>
       </c>
       <c r="C137">
         <v>222</v>
@@ -13971,10 +14007,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B138">
-        <v>7474</v>
+        <v>7294</v>
       </c>
       <c r="C138">
         <v>222</v>
@@ -13982,76 +14018,76 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B139">
-        <v>7593</v>
+        <v>7474</v>
       </c>
       <c r="C139">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B140">
-        <v>7718</v>
+        <v>7593</v>
       </c>
       <c r="C140">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B141">
-        <v>7850</v>
+        <v>7718</v>
       </c>
       <c r="C141">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B142">
-        <v>8094</v>
+        <v>7850</v>
       </c>
       <c r="C142">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B143">
-        <v>8160</v>
+        <v>8094</v>
       </c>
       <c r="C143">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B144">
-        <v>8242</v>
+        <v>8160</v>
       </c>
       <c r="C144">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B145">
-        <v>8310</v>
+        <v>8242</v>
       </c>
       <c r="C145">
         <v>242</v>
@@ -14059,76 +14095,76 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B146">
-        <v>8442</v>
+        <v>8310</v>
       </c>
       <c r="C146">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B147">
-        <v>8512</v>
+        <v>8442</v>
       </c>
       <c r="C147">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B148">
-        <v>8612</v>
+        <v>8512</v>
       </c>
       <c r="C148">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B149">
-        <v>8709</v>
+        <v>8612</v>
       </c>
       <c r="C149">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B150">
-        <v>8796</v>
+        <v>8709</v>
       </c>
       <c r="C150">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B151">
-        <v>8857</v>
+        <v>8796</v>
       </c>
       <c r="C151">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B152">
-        <v>8932</v>
+        <v>8857</v>
       </c>
       <c r="C152">
         <v>259</v>
@@ -14136,54 +14172,54 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B153">
-        <v>9008</v>
+        <v>8932</v>
       </c>
       <c r="C153">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B154">
-        <v>9078</v>
+        <v>9008</v>
       </c>
       <c r="C154">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B155">
-        <v>9192</v>
+        <v>9078</v>
       </c>
       <c r="C155">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B156">
-        <v>9282</v>
+        <v>9192</v>
       </c>
       <c r="C156">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B157">
-        <v>9359</v>
+        <v>9282</v>
       </c>
       <c r="C157">
         <v>283</v>
@@ -14191,87 +14227,87 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B158">
-        <v>9433</v>
+        <v>9359</v>
       </c>
       <c r="C158">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B159">
-        <v>9504</v>
+        <v>9433</v>
       </c>
       <c r="C159">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B160">
-        <v>9549</v>
+        <v>9504</v>
       </c>
       <c r="C160">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B161">
-        <v>9576</v>
+        <v>9549</v>
       </c>
       <c r="C161">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B162">
-        <v>9676</v>
+        <v>9576</v>
       </c>
       <c r="C162">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B163">
-        <v>9756</v>
+        <v>9676</v>
       </c>
       <c r="C163">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B164">
-        <v>9817</v>
+        <v>9756</v>
       </c>
       <c r="C164">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B165">
-        <v>9903</v>
+        <v>9817</v>
       </c>
       <c r="C165">
         <v>306</v>
@@ -14279,10 +14315,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B166">
-        <v>9932</v>
+        <v>9903</v>
       </c>
       <c r="C166">
         <v>306</v>
@@ -14290,65 +14326,65 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B167">
-        <v>9990</v>
+        <v>9932</v>
       </c>
       <c r="C167">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B168">
-        <v>10004</v>
+        <v>9990</v>
       </c>
       <c r="C168">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B169">
-        <v>10065</v>
+        <v>10004</v>
       </c>
       <c r="C169">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B170">
-        <v>10128</v>
+        <v>10065</v>
       </c>
       <c r="C170">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B171">
-        <v>10211</v>
+        <v>10128</v>
       </c>
       <c r="C171">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B172">
-        <v>10310</v>
+        <v>10211</v>
       </c>
       <c r="C172">
         <v>330</v>
@@ -14356,10 +14392,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B173">
-        <v>10347</v>
+        <v>10310</v>
       </c>
       <c r="C173">
         <v>330</v>
@@ -14367,54 +14403,54 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B174">
-        <v>10376</v>
+        <v>10347</v>
       </c>
       <c r="C174">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B175">
-        <v>10444</v>
+        <v>10376</v>
       </c>
       <c r="C175">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B176">
-        <v>10549</v>
+        <v>10444</v>
       </c>
       <c r="C176">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B177">
-        <v>10641</v>
+        <v>10549</v>
       </c>
       <c r="C177">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B178">
-        <v>10709</v>
+        <v>10641</v>
       </c>
       <c r="C178">
         <v>349</v>
@@ -14422,10 +14458,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B179">
-        <v>10771</v>
+        <v>10709</v>
       </c>
       <c r="C179">
         <v>349</v>
@@ -14433,10 +14469,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B180">
-        <v>10810</v>
+        <v>10771</v>
       </c>
       <c r="C180">
         <v>349</v>
@@ -14444,10 +14480,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B181">
-        <v>10847</v>
+        <v>10810</v>
       </c>
       <c r="C181">
         <v>349</v>
@@ -14455,21 +14491,21 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B182">
-        <v>10915</v>
+        <v>10847</v>
       </c>
       <c r="C182">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B183">
-        <v>10969</v>
+        <v>10915</v>
       </c>
       <c r="C183">
         <v>358</v>
@@ -14477,29 +14513,29 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B184">
-        <v>11069</v>
+        <v>10969</v>
       </c>
       <c r="C184">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B185">
-        <v>11126</v>
+        <v>11069</v>
       </c>
       <c r="C185">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B186">
         <v>11126</v>
@@ -14510,10 +14546,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B187">
-        <v>11268</v>
+        <v>11126</v>
       </c>
       <c r="C187">
         <v>362</v>
@@ -14521,21 +14557,21 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B188">
-        <v>11358</v>
+        <v>11268</v>
       </c>
       <c r="C188">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B189">
-        <v>11431</v>
+        <v>11358</v>
       </c>
       <c r="C189">
         <v>363</v>
@@ -14543,43 +14579,43 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B190">
-        <v>11510</v>
+        <v>11431</v>
       </c>
       <c r="C190">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B191">
-        <v>11578</v>
+        <v>11510</v>
       </c>
       <c r="C191">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B192">
-        <v>11663</v>
+        <v>11578</v>
       </c>
       <c r="C192">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B193">
-        <v>11737</v>
+        <v>11663</v>
       </c>
       <c r="C193">
         <v>373</v>
@@ -14587,10 +14623,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B194">
-        <v>11779</v>
+        <v>11737</v>
       </c>
       <c r="C194">
         <v>373</v>
@@ -14598,10 +14634,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B195">
-        <v>11821</v>
+        <v>11779</v>
       </c>
       <c r="C195">
         <v>373</v>
@@ -14609,21 +14645,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B196">
-        <v>11867</v>
+        <v>11821</v>
       </c>
       <c r="C196">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B197">
-        <v>11927</v>
+        <v>11867</v>
       </c>
       <c r="C197">
         <v>376</v>
@@ -14631,21 +14667,21 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B198">
-        <v>11995</v>
+        <v>11927</v>
       </c>
       <c r="C198">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B199">
-        <v>12101</v>
+        <v>11995</v>
       </c>
       <c r="C199">
         <v>380</v>
@@ -14653,10 +14689,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B200">
-        <v>12162</v>
+        <v>12101</v>
       </c>
       <c r="C200">
         <v>380</v>
@@ -14664,10 +14700,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B201">
-        <v>12234</v>
+        <v>12162</v>
       </c>
       <c r="C201">
         <v>380</v>
@@ -14675,10 +14711,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B202">
-        <v>12305</v>
+        <v>12234</v>
       </c>
       <c r="C202">
         <v>380</v>
@@ -14686,21 +14722,21 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B203">
-        <v>12348</v>
+        <v>12305</v>
       </c>
       <c r="C203">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B204">
-        <v>12454</v>
+        <v>12348</v>
       </c>
       <c r="C204">
         <v>382</v>
@@ -14708,18 +14744,18 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B205">
-        <v>12527</v>
+        <v>12454</v>
       </c>
       <c r="C205">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B206">
         <v>12527</v>
@@ -14730,10 +14766,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B207">
-        <v>12731</v>
+        <v>12527</v>
       </c>
       <c r="C207">
         <v>386</v>
@@ -14741,10 +14777,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B208">
-        <v>12777</v>
+        <v>12731</v>
       </c>
       <c r="C208">
         <v>386</v>
@@ -14752,32 +14788,32 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B209">
-        <v>12854</v>
+        <v>12777</v>
       </c>
       <c r="C209">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B210">
-        <v>12897</v>
+        <v>12854</v>
       </c>
       <c r="C210">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B211">
-        <v>13024</v>
+        <v>12897</v>
       </c>
       <c r="C211">
         <v>393</v>
@@ -14785,21 +14821,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B212">
-        <v>13102</v>
+        <v>13024</v>
       </c>
       <c r="C212">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B213">
-        <v>13183</v>
+        <v>13102</v>
       </c>
       <c r="C213">
         <v>397</v>
@@ -14807,10 +14843,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B214">
-        <v>13280</v>
+        <v>13183</v>
       </c>
       <c r="C214">
         <v>397</v>
@@ -14818,10 +14854,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B215">
-        <v>13362</v>
+        <v>13280</v>
       </c>
       <c r="C215">
         <v>397</v>
@@ -14829,10 +14865,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B216">
-        <v>13436</v>
+        <v>13362</v>
       </c>
       <c r="C216">
         <v>397</v>
@@ -14840,10 +14876,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B217">
-        <v>13533</v>
+        <v>13436</v>
       </c>
       <c r="C217">
         <v>397</v>
@@ -14851,10 +14887,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B218">
-        <v>13672</v>
+        <v>13533</v>
       </c>
       <c r="C218">
         <v>397</v>
@@ -14862,32 +14898,32 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B219">
-        <v>13821</v>
+        <v>13672</v>
       </c>
       <c r="C219">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B220">
-        <v>13959</v>
+        <v>13821</v>
       </c>
       <c r="C220">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B221">
-        <v>14075</v>
+        <v>13959</v>
       </c>
       <c r="C221">
         <v>405</v>
@@ -14895,10 +14931,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B222">
-        <v>14174</v>
+        <v>14075</v>
       </c>
       <c r="C222">
         <v>405</v>
@@ -14906,54 +14942,54 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B223">
-        <v>14277</v>
+        <v>14174</v>
       </c>
       <c r="C223">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B224">
-        <v>14396</v>
+        <v>14277</v>
       </c>
       <c r="C224">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B225">
-        <v>14529</v>
+        <v>14396</v>
       </c>
       <c r="C225">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B226">
-        <v>14687</v>
+        <v>14529</v>
       </c>
       <c r="C226">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B227">
-        <v>14818</v>
+        <v>14687</v>
       </c>
       <c r="C227">
         <v>421</v>
@@ -14961,10 +14997,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B228">
-        <v>14922</v>
+        <v>14818</v>
       </c>
       <c r="C228">
         <v>421</v>
@@ -14972,10 +15008,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B229">
-        <v>14995</v>
+        <v>14922</v>
       </c>
       <c r="C229">
         <v>421</v>
@@ -14983,65 +15019,65 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B230">
-        <v>15101</v>
+        <v>14995</v>
       </c>
       <c r="C230">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B231">
-        <v>15300</v>
+        <v>15101</v>
       </c>
       <c r="C231">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B232">
-        <v>15449</v>
+        <v>15300</v>
       </c>
       <c r="C232">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B233">
-        <v>15622</v>
+        <v>15449</v>
       </c>
       <c r="C233">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B234">
-        <v>15796</v>
+        <v>15622</v>
       </c>
       <c r="C234">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B235">
-        <v>15940</v>
+        <v>15796</v>
       </c>
       <c r="C235">
         <v>434</v>
@@ -15049,10 +15085,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B236">
-        <v>16060</v>
+        <v>15940</v>
       </c>
       <c r="C236">
         <v>434</v>
@@ -15060,32 +15096,32 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B237">
-        <v>16210</v>
+        <v>16060</v>
       </c>
       <c r="C237">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B238">
-        <v>16410</v>
+        <v>16210</v>
       </c>
       <c r="C238">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B239">
-        <v>16599</v>
+        <v>16410</v>
       </c>
       <c r="C239">
         <v>442</v>
@@ -15093,32 +15129,32 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B240">
-        <v>16838</v>
+        <v>16599</v>
       </c>
       <c r="C240">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B241">
-        <v>17126</v>
+        <v>16838</v>
       </c>
       <c r="C241">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B242">
-        <v>17386</v>
+        <v>17126</v>
       </c>
       <c r="C242">
         <v>447</v>
@@ -15126,10 +15162,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B243">
-        <v>17656</v>
+        <v>17386</v>
       </c>
       <c r="C243">
         <v>447</v>
@@ -15137,54 +15173,54 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B244">
-        <v>17973</v>
+        <v>17656</v>
       </c>
       <c r="C244">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B245">
-        <v>18339</v>
+        <v>17973</v>
       </c>
       <c r="C245">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B246">
-        <v>18751</v>
+        <v>18339</v>
       </c>
       <c r="C246">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B247">
-        <v>19129</v>
+        <v>18751</v>
       </c>
       <c r="C247">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B248">
-        <v>19499</v>
+        <v>19129</v>
       </c>
       <c r="C248">
         <v>458</v>
@@ -15192,10 +15228,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B249">
-        <v>20026</v>
+        <v>19499</v>
       </c>
       <c r="C249">
         <v>458</v>
@@ -15203,43 +15239,43 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B250">
-        <v>20526</v>
+        <v>20026</v>
       </c>
       <c r="C250">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B251">
-        <v>20814</v>
+        <v>20526</v>
       </c>
       <c r="C251">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B252">
-        <v>21434</v>
+        <v>20814</v>
       </c>
       <c r="C252">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B253">
-        <v>22043</v>
+        <v>21434</v>
       </c>
       <c r="C253">
         <v>465</v>
@@ -15247,32 +15283,32 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B254">
-        <v>22527</v>
+        <v>22043</v>
       </c>
       <c r="C254">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B255">
-        <v>23121</v>
+        <v>22527</v>
       </c>
       <c r="C255">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B256">
-        <v>23697</v>
+        <v>23121</v>
       </c>
       <c r="C256">
         <v>482</v>
@@ -15280,10 +15316,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>361</v>
+        <v>541</v>
       </c>
       <c r="B257">
-        <v>24083</v>
+        <v>23697</v>
       </c>
       <c r="C257">
         <v>482</v>
@@ -15291,32 +15327,32 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B258">
-        <v>24624</v>
+        <v>24083</v>
       </c>
       <c r="C258">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B259">
-        <v>25179</v>
+        <v>24624</v>
       </c>
       <c r="C259">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B260">
-        <v>25952</v>
+        <v>25179</v>
       </c>
       <c r="C260">
         <v>498</v>
@@ -15324,32 +15360,32 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B261">
-        <v>26821</v>
+        <v>25952</v>
       </c>
       <c r="C261">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B262">
-        <v>27484</v>
+        <v>26821</v>
       </c>
       <c r="C262">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B263">
-        <v>28004</v>
+        <v>27484</v>
       </c>
       <c r="C263">
         <v>505</v>
@@ -15357,76 +15393,76 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B264">
-        <v>28404</v>
+        <v>28004</v>
       </c>
       <c r="C264">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B265">
-        <v>29007</v>
+        <v>28404</v>
       </c>
       <c r="C265">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>542</v>
+        <v>369</v>
       </c>
       <c r="B266">
-        <v>29515</v>
+        <v>29007</v>
       </c>
       <c r="C266">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B267">
-        <v>30543</v>
+        <v>29515</v>
       </c>
       <c r="C267">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B268">
-        <v>31454</v>
+        <v>30543</v>
       </c>
       <c r="C268">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B269">
-        <v>32651</v>
+        <v>31454</v>
       </c>
       <c r="C269">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B270">
-        <v>33505</v>
+        <v>32651</v>
       </c>
       <c r="C270">
         <v>575</v>
@@ -15434,10 +15470,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B271">
-        <v>34121</v>
+        <v>33505</v>
       </c>
       <c r="C271">
         <v>575</v>
@@ -15445,265 +15481,276 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B272">
-        <v>34814</v>
+        <v>34121</v>
       </c>
       <c r="C272">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B273">
-        <v>35541</v>
+        <v>34814</v>
       </c>
       <c r="C273">
-        <v>619</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B274">
-        <v>36707</v>
+        <v>35541</v>
       </c>
       <c r="C274">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B275">
-        <v>38029</v>
+        <v>36707</v>
       </c>
       <c r="C275">
-        <v>658</v>
+        <v>635</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B276">
-        <v>39227</v>
+        <v>38029</v>
       </c>
       <c r="C276">
-        <v>681</v>
+        <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B277">
-        <v>40124</v>
+        <v>39227</v>
       </c>
       <c r="C277">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B278">
-        <v>40874</v>
+        <v>40124</v>
       </c>
       <c r="C278">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B279">
-        <v>41933</v>
+        <v>40874</v>
       </c>
       <c r="C279">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B280">
-        <v>43007</v>
+        <v>41933</v>
       </c>
       <c r="C280">
-        <v>741</v>
+        <v>717</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B281">
-        <v>43857</v>
+        <v>43007</v>
       </c>
       <c r="C281">
-        <v>767</v>
+        <v>741</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B282">
-        <v>44684</v>
+        <v>43857</v>
       </c>
       <c r="C282">
-        <v>791</v>
+        <v>767</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B283">
-        <v>45699</v>
+        <v>44684</v>
       </c>
       <c r="C283">
-        <v>815</v>
+        <v>791</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B284">
-        <v>46330</v>
+        <v>45699</v>
       </c>
       <c r="C284">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B285">
-        <v>47111</v>
+        <v>46330</v>
       </c>
       <c r="C285">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B286">
-        <v>47908</v>
+        <v>47111</v>
       </c>
       <c r="C286">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B287">
-        <v>48738</v>
+        <v>47908</v>
       </c>
       <c r="C287">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B288">
-        <v>49650</v>
+        <v>48738</v>
       </c>
       <c r="C288">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B289">
-        <v>50307</v>
+        <v>49650</v>
       </c>
       <c r="C289">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B290">
-        <v>50859</v>
+        <v>50307</v>
       </c>
       <c r="C290">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B291">
-        <v>51260</v>
+        <v>50859</v>
       </c>
       <c r="C291">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B292">
-        <v>51453</v>
+        <v>51260</v>
       </c>
       <c r="C292">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B293">
-        <v>52473</v>
+        <v>51453</v>
       </c>
       <c r="C293">
-        <v>952</v>
+        <v>925</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B294">
-        <v>52998</v>
+        <v>52473</v>
       </c>
       <c r="C294">
-        <v>977</v>
+        <v>952</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>598</v>
+      </c>
+      <c r="B295">
+        <v>52998</v>
+      </c>
+      <c r="C295">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>600</v>
       </c>
-      <c r="B295">
+      <c r="B296">
         <v>53809</v>
       </c>
-      <c r="C295">
+      <c r="C296">
         <v>1009</v>
       </c>
     </row>
@@ -15719,7 +15766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C268"/>
@@ -15751,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-54361</v>
+        <v>-55409</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18964,6 +19011,17 @@
       </c>
       <c r="C294">
         <v>811</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>605</v>
+      </c>
+      <c r="B295">
+        <v>55410</v>
+      </c>
+      <c r="C295">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -18977,7 +19035,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C303"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C277"/>
@@ -22324,6 +22382,17 @@
         <v>16214</v>
       </c>
     </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304">
+        <v>657292</v>
+      </c>
+      <c r="C304">
+        <v>16239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid19/data/viruscountystate.xlsx
+++ b/covid19/data/viruscountystate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAABEE3-07A0-48CE-B7D6-EEB85B1C157E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA4BFF-5B83-48D8-B999-7F36D52FFB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5415,883 +5415,883 @@
               <c:strCache>
                 <c:ptCount val="295"/>
                 <c:pt idx="0">
-                  <c:v>2020-03-14</c:v>
+                  <c:v>2020-03-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-03-15</c:v>
+                  <c:v>2020-03-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-03-16</c:v>
+                  <c:v>2020-03-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-03-17</c:v>
+                  <c:v>2020-03-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-03-18</c:v>
+                  <c:v>2020-03-19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-03-19</c:v>
+                  <c:v>2020-03-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-03-20</c:v>
+                  <c:v>2020-03-21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-03-21</c:v>
+                  <c:v>2020-03-22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-03-22</c:v>
+                  <c:v>2020-03-23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-03-23</c:v>
+                  <c:v>2020-03-24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-03-24</c:v>
+                  <c:v>2020-03-25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-03-25</c:v>
+                  <c:v>2020-03-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-03-26</c:v>
+                  <c:v>2020-03-27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-03-27</c:v>
+                  <c:v>2020-03-28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-03-28</c:v>
+                  <c:v>2020-03-29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-03-29</c:v>
+                  <c:v>2020-03-30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-03-30</c:v>
+                  <c:v>2020-03-31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-03-31</c:v>
+                  <c:v>2020-04-01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-04-01</c:v>
+                  <c:v>2020-04-02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-04-02</c:v>
+                  <c:v>2020-04-03</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-04-03</c:v>
+                  <c:v>2020-04-04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-04-04</c:v>
+                  <c:v>2020-04-05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-04-05</c:v>
+                  <c:v>2020-04-06</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-04-06</c:v>
+                  <c:v>2020-04-07</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020-04-07</c:v>
+                  <c:v>2020-04-08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020-04-08</c:v>
+                  <c:v>2020-04-09</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020-04-09</c:v>
+                  <c:v>2020-04-10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020-04-10</c:v>
+                  <c:v>2020-04-11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020-04-11</c:v>
+                  <c:v>2020-04-12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020-04-12</c:v>
+                  <c:v>2020-04-13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2020-04-13</c:v>
+                  <c:v>2020-04-14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2020-04-14</c:v>
+                  <c:v>2020-04-15</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2020-04-15</c:v>
+                  <c:v>2020-04-16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020-04-16</c:v>
+                  <c:v>2020-04-17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2020-04-17</c:v>
+                  <c:v>2020-04-18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2020-04-18</c:v>
+                  <c:v>2020-04-19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2020-04-19</c:v>
+                  <c:v>2020-04-20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2020-04-20</c:v>
+                  <c:v>2020-04-21</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2020-04-21</c:v>
+                  <c:v>2020-04-22</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2020-04-22</c:v>
+                  <c:v>2020-04-23</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2020-04-23</c:v>
+                  <c:v>2020-04-24</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2020-04-24</c:v>
+                  <c:v>2020-04-25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2020-04-25</c:v>
+                  <c:v>2020-04-26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2020-04-26</c:v>
+                  <c:v>2020-04-27</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2020-04-27</c:v>
+                  <c:v>2020-04-28</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2020-04-28</c:v>
+                  <c:v>2020-04-29</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2020-04-29</c:v>
+                  <c:v>2020-04-30</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2020-04-30</c:v>
+                  <c:v>2020-05-01</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2020-05-01</c:v>
+                  <c:v>2020-05-02</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2020-05-02</c:v>
+                  <c:v>2020-05-03</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2020-05-03</c:v>
+                  <c:v>2020-05-04</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2020-05-04</c:v>
+                  <c:v>2020-05-05</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2020-05-05</c:v>
+                  <c:v>2020-05-06</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2020-05-06</c:v>
+                  <c:v>2020-05-07</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2020-05-07</c:v>
+                  <c:v>2020-05-08</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2020-05-08</c:v>
+                  <c:v>2020-05-09</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2020-05-09</c:v>
+                  <c:v>2020-05-10</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2020-05-10</c:v>
+                  <c:v>2020-05-11</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2020-05-11</c:v>
+                  <c:v>2020-05-12</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2020-05-12</c:v>
+                  <c:v>2020-05-13</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2020-05-13</c:v>
+                  <c:v>2020-05-14</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020-05-14</c:v>
+                  <c:v>2020-05-15</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2020-05-15</c:v>
+                  <c:v>2020-05-16</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2020-05-16</c:v>
+                  <c:v>2020-05-17</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2020-05-17</c:v>
+                  <c:v>2020-05-18</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2020-05-18</c:v>
+                  <c:v>2020-05-19</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2020-05-19</c:v>
+                  <c:v>2020-05-20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2020-05-20</c:v>
+                  <c:v>2020-05-21</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2020-05-21</c:v>
+                  <c:v>2020-05-22</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2020-05-22</c:v>
+                  <c:v>2020-05-23</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2020-05-23</c:v>
+                  <c:v>2020-05-24</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2020-05-24</c:v>
+                  <c:v>2020-05-25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2020-05-25</c:v>
+                  <c:v>2020-05-26</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2020-05-26</c:v>
+                  <c:v>2020-05-27</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2020-05-27</c:v>
+                  <c:v>2020-05-28</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2020-05-28</c:v>
+                  <c:v>2020-05-29</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2020-05-29</c:v>
+                  <c:v>2020-05-30</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2020-05-30</c:v>
+                  <c:v>2020-05-31</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2020-05-31</c:v>
+                  <c:v>2020-06-01</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2020-06-01</c:v>
+                  <c:v>2020-06-02</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2020-06-02</c:v>
+                  <c:v>2020-06-03</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2020-06-03</c:v>
+                  <c:v>2020-06-04</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2020-06-04</c:v>
+                  <c:v>2020-06-05</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2020-06-05</c:v>
+                  <c:v>2020-06-06</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2020-06-06</c:v>
+                  <c:v>2020-06-07</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2020-06-07</c:v>
+                  <c:v>2020-06-08</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2020-06-08</c:v>
+                  <c:v>2020-06-09</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2020-06-09</c:v>
+                  <c:v>2020-06-10</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2020-06-10</c:v>
+                  <c:v>2020-06-11</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2020-06-11</c:v>
+                  <c:v>2020-06-12</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2020-06-12</c:v>
+                  <c:v>2020-06-13</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2020-06-13</c:v>
+                  <c:v>2020-06-14</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2020-06-14</c:v>
+                  <c:v>2020-06-15</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2020-06-15</c:v>
+                  <c:v>2020-06-16</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2020-06-16</c:v>
+                  <c:v>2020-06-17</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2020-06-17</c:v>
+                  <c:v>2020-06-18</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2020-06-18</c:v>
+                  <c:v>2020-06-19</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2020-06-19</c:v>
+                  <c:v>2020-06-20</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2020-06-20</c:v>
+                  <c:v>2020-06-21</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2020-06-21</c:v>
+                  <c:v>2020-06-22</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2020-06-22</c:v>
+                  <c:v>2020-06-23</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2020-06-23</c:v>
+                  <c:v>2020-06-24</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2020-06-24</c:v>
+                  <c:v>2020-06-25</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2020-06-25</c:v>
+                  <c:v>2020-06-26</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2020-06-26</c:v>
+                  <c:v>2020-06-27</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2020-06-27</c:v>
+                  <c:v>2020-06-28</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2020-06-28</c:v>
+                  <c:v>2020-06-29</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2020-06-29</c:v>
+                  <c:v>2020-06-30</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2020-06-30</c:v>
+                  <c:v>2020-07-01</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2020-07-01</c:v>
+                  <c:v>2020-07-02</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2020-07-02</c:v>
+                  <c:v>2020-07-03</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2020-07-03</c:v>
+                  <c:v>2020-07-04</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2020-07-04</c:v>
+                  <c:v>2020-07-05</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2020-07-05</c:v>
+                  <c:v>2020-07-06</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2020-07-06</c:v>
+                  <c:v>2020-07-07</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2020-07-07</c:v>
+                  <c:v>2020-07-08</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2020-07-08</c:v>
+                  <c:v>2020-07-09</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2020-07-09</c:v>
+                  <c:v>2020-07-10</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2020-07-10</c:v>
+                  <c:v>2020-07-11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2020-07-11</c:v>
+                  <c:v>2020-07-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2020-07-12</c:v>
+                  <c:v>2020-07-13</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2020-07-13</c:v>
+                  <c:v>2020-07-14</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2020-07-14</c:v>
+                  <c:v>2020-07-15</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2020-07-15</c:v>
+                  <c:v>2020-07-16</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2020-07-16</c:v>
+                  <c:v>2020-07-17</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2020-07-17</c:v>
+                  <c:v>2020-07-18</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2020-07-18</c:v>
+                  <c:v>2020-07-19</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2020-07-19</c:v>
+                  <c:v>2020-07-20</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2020-07-20</c:v>
+                  <c:v>2020-07-21</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2020-07-21</c:v>
+                  <c:v>2020-07-22</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2020-07-22</c:v>
+                  <c:v>2020-07-23</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2020-07-23</c:v>
+                  <c:v>2020-07-24</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2020-07-24</c:v>
+                  <c:v>2020-07-25</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2020-07-25</c:v>
+                  <c:v>2020-07-26</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2020-07-26</c:v>
+                  <c:v>2020-07-27</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2020-07-27</c:v>
+                  <c:v>2020-07-28</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2020-07-28</c:v>
+                  <c:v>2020-07-29</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2020-07-29</c:v>
+                  <c:v>2020-07-30</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2020-07-30</c:v>
+                  <c:v>2020-07-31</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2020-07-31</c:v>
+                  <c:v>2020-08-01</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2020-08-01</c:v>
+                  <c:v>2020-08-02</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2020-08-02</c:v>
+                  <c:v>2020-08-03</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2020-08-03</c:v>
+                  <c:v>2020-08-04</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2020-08-04</c:v>
+                  <c:v>2020-08-05</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2020-08-05</c:v>
+                  <c:v>2020-08-06</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2020-08-06</c:v>
+                  <c:v>2020-08-07</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2020-08-07</c:v>
+                  <c:v>2020-08-08</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2020-08-08</c:v>
+                  <c:v>2020-08-09</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2020-08-09</c:v>
+                  <c:v>2020-08-10</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2020-08-10</c:v>
+                  <c:v>2020-08-11</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2020-08-11</c:v>
+                  <c:v>2020-08-12</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2020-08-12</c:v>
+                  <c:v>2020-08-13</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2020-08-13</c:v>
+                  <c:v>2020-08-14</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2020-08-14</c:v>
+                  <c:v>2020-08-15</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2020-08-15</c:v>
+                  <c:v>2020-08-16</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2020-08-16</c:v>
+                  <c:v>2020-08-17</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2020-08-17</c:v>
+                  <c:v>2020-08-18</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2020-08-18</c:v>
+                  <c:v>2020-08-19</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2020-08-19</c:v>
+                  <c:v>2020-08-20</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2020-08-20</c:v>
+                  <c:v>2020-08-21</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2020-08-21</c:v>
+                  <c:v>2020-08-22</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2020-08-22</c:v>
+                  <c:v>2020-08-23</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2020-08-23</c:v>
+                  <c:v>2020-08-24</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2020-08-24</c:v>
+                  <c:v>2020-08-25</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2020-08-25</c:v>
+                  <c:v>2020-08-26</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2020-08-26</c:v>
+                  <c:v>2020-08-27</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2020-08-27</c:v>
+                  <c:v>2020-08-28</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2020-08-28</c:v>
+                  <c:v>2020-08-29</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2020-08-29</c:v>
+                  <c:v>2020-08-30</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2020-08-30</c:v>
+                  <c:v>2020-08-31</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2020-08-31</c:v>
+                  <c:v>2020-09-01</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2020-09-01</c:v>
+                  <c:v>2020-09-02</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2020-09-02</c:v>
+                  <c:v>2020-09-03</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2020-09-03</c:v>
+                  <c:v>2020-09-04</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2020-09-04</c:v>
+                  <c:v>2020-09-05</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2020-09-05</c:v>
+                  <c:v>2020-09-06</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2020-09-06</c:v>
+                  <c:v>2020-09-07</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2020-09-07</c:v>
+                  <c:v>2020-09-08</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2020-09-08</c:v>
+                  <c:v>2020-09-09</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2020-09-09</c:v>
+                  <c:v>2020-09-10</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2020-09-10</c:v>
+                  <c:v>2020-09-11</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2020-09-11</c:v>
+                  <c:v>2020-09-12</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2020-09-12</c:v>
+                  <c:v>2020-09-13</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2020-09-13</c:v>
+                  <c:v>2020-09-14</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2020-09-14</c:v>
+                  <c:v>2020-09-15</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2020-09-15</c:v>
+                  <c:v>2020-09-16</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2020-09-16</c:v>
+                  <c:v>2020-09-17</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2020-09-17</c:v>
+                  <c:v>2020-09-18</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2020-09-18</c:v>
+                  <c:v>2020-09-19</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2020-09-19</c:v>
+                  <c:v>2020-09-20</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2020-09-20</c:v>
+                  <c:v>2020-09-21</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2020-09-21</c:v>
+                  <c:v>2020-09-22</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2020-09-22</c:v>
+                  <c:v>2020-09-23</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2020-09-23</c:v>
+                  <c:v>2020-09-24</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2020-09-24</c:v>
+                  <c:v>2020-09-25</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2020-09-25</c:v>
+                  <c:v>2020-09-26</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2020-09-26</c:v>
+                  <c:v>2020-09-27</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2020-09-27</c:v>
+                  <c:v>2020-09-28</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2020-09-28</c:v>
+                  <c:v>2020-09-29</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2020-09-29</c:v>
+                  <c:v>2020-09-30</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2020-09-30</c:v>
+                  <c:v>2020-10-01</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2020-10-01</c:v>
+                  <c:v>2020-10-02</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2020-10-02</c:v>
+                  <c:v>2020-10-03</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2020-10-03</c:v>
+                  <c:v>2020-10-04</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2020-10-04</c:v>
+                  <c:v>2020-10-05</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2020-10-05</c:v>
+                  <c:v>2020-10-06</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2020-10-06</c:v>
+                  <c:v>2020-10-07</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2020-10-07</c:v>
+                  <c:v>2020-10-08</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2020-10-08</c:v>
+                  <c:v>2020-10-09</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2020-10-09</c:v>
+                  <c:v>2020-10-10</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2020-10-10</c:v>
+                  <c:v>2020-10-11</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2020-10-11</c:v>
+                  <c:v>2020-10-12</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2020-10-12</c:v>
+                  <c:v>2020-10-13</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2020-10-13</c:v>
+                  <c:v>2020-10-14</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2020-10-14</c:v>
+                  <c:v>2020-10-15</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2020-10-15</c:v>
+                  <c:v>2020-10-16</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2020-10-16</c:v>
+                  <c:v>2020-10-17</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2020-10-17</c:v>
+                  <c:v>2020-10-18</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2020-10-18</c:v>
+                  <c:v>2020-10-19</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2020-10-19</c:v>
+                  <c:v>2020-10-20</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2020-10-20</c:v>
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2020-10-21</c:v>
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2020-10-22</c:v>
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2020-10-23</c:v>
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2020-10-24</c:v>
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2020-10-25</c:v>
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2020-10-26</c:v>
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2020-10-27</c:v>
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2020-10-28</c:v>
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2020-10-29</c:v>
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2020-10-30</c:v>
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2020-10-31</c:v>
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2020-11-01</c:v>
+                  <c:v>2020-11-02</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2020-11-02</c:v>
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2020-11-03</c:v>
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2020-11-04</c:v>
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2020-11-05</c:v>
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2020-11-06</c:v>
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2020-11-07</c:v>
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2020-11-08</c:v>
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2020-11-09</c:v>
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2020-11-10</c:v>
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2020-11-11</c:v>
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2020-11-12</c:v>
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2020-11-13</c:v>
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2020-11-14</c:v>
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2020-11-15</c:v>
+                  <c:v>2020-11-16</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2020-11-16</c:v>
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2020-11-17</c:v>
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2020-11-18</c:v>
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2020-11-19</c:v>
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2020-11-20</c:v>
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2020-11-21</c:v>
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2020-11-22</c:v>
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2020-11-23</c:v>
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2020-11-24</c:v>
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2020-11-25</c:v>
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2020-11-26</c:v>
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2020-11-27</c:v>
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2020-11-28</c:v>
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2020-11-29</c:v>
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2020-11-30</c:v>
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2020-12-01</c:v>
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2020-12-02</c:v>
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2020-12-03</c:v>
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2020-12-04</c:v>
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2020-12-05</c:v>
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2020-12-06</c:v>
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2020-12-07</c:v>
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2020-12-08</c:v>
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2020-12-09</c:v>
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2020-12-10</c:v>
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2020-12-11</c:v>
+                  <c:v>2020-12-12</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2020-12-12</c:v>
+                  <c:v>2020-12-13</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2020-12-13</c:v>
+                  <c:v>2020-12-14</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2020-12-14</c:v>
+                  <c:v>2020-12-15</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2020-12-15</c:v>
+                  <c:v>2020-12-16</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2020-12-16</c:v>
+                  <c:v>2020-12-17</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2020-12-17</c:v>
+                  <c:v>2020-12-18</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2020-12-18</c:v>
+                  <c:v>2020-12-19</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2020-12-19</c:v>
+                  <c:v>2020-12-20</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2020-12-20</c:v>
+                  <c:v>2020-12-21</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2020-12-21</c:v>
+                  <c:v>2020-12-22</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2020-12-22</c:v>
+                  <c:v>2020-12-23</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2020-12-23</c:v>
+                  <c:v>2020-12-24</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2020-12-24</c:v>
+                  <c:v>2020-12-25</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2020-12-25</c:v>
+                  <c:v>2020-12-26</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2020-12-26</c:v>
+                  <c:v>2020-12-27</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2020-12-27</c:v>
+                  <c:v>2020-12-28</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2020-12-28</c:v>
+                  <c:v>2020-12-29</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2020-12-29</c:v>
+                  <c:v>2020-12-30</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2020-12-30</c:v>
+                  <c:v>2020-12-31</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2020-12-31</c:v>
+                  <c:v>2021-01-01</c:v>
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2021-01-02</c:v>
@@ -6309,883 +6309,883 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="295"/>
                 <c:pt idx="0">
-                  <c:v>-55789</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="73">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="84">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="98">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="101">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>244</c:v>